--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F572B-2505-47F6-8618-0DB6DF73BAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7703E80-9DFF-467B-9C52-EED883F70974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
+    <workbookView xWindow="5400" yWindow="1410" windowWidth="16200" windowHeight="9308" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="648">
   <si>
     <t>Filename</t>
   </si>
@@ -1215,6 +1215,771 @@
   </si>
   <si>
     <t>left_pulmonary_arts47, left_pulmonary_arts138, left_pulmonary_arts103</t>
+  </si>
+  <si>
+    <t>lkidney_arteries0</t>
+  </si>
+  <si>
+    <t>lkidney_arteries1</t>
+  </si>
+  <si>
+    <t>lkidney_arteries2</t>
+  </si>
+  <si>
+    <t>lkidney_arteries3</t>
+  </si>
+  <si>
+    <t>lkidney_arteries4</t>
+  </si>
+  <si>
+    <t>lkidney_arteries5</t>
+  </si>
+  <si>
+    <t>lkidney_arteries6</t>
+  </si>
+  <si>
+    <t>lkidney_arteries7</t>
+  </si>
+  <si>
+    <t>lkidney_arteries8</t>
+  </si>
+  <si>
+    <t>lkidney_arteries9</t>
+  </si>
+  <si>
+    <t>lkidney_arteries10</t>
+  </si>
+  <si>
+    <t>lkidney_arteries11</t>
+  </si>
+  <si>
+    <t>lkidney_arteries12</t>
+  </si>
+  <si>
+    <t>lkidney_arteries13</t>
+  </si>
+  <si>
+    <t>lkidney_arteries14</t>
+  </si>
+  <si>
+    <t>lkidney_arteries15</t>
+  </si>
+  <si>
+    <t>lkidney_arteries16</t>
+  </si>
+  <si>
+    <t>lkidney_arteries17</t>
+  </si>
+  <si>
+    <t>lkidney_arteries18</t>
+  </si>
+  <si>
+    <t>lkidney_arteries19</t>
+  </si>
+  <si>
+    <t>lkidney_arteries20</t>
+  </si>
+  <si>
+    <t>lkidney_arteries21</t>
+  </si>
+  <si>
+    <t>lkidney_arteries22</t>
+  </si>
+  <si>
+    <t>left_superior_renal_artery</t>
+  </si>
+  <si>
+    <t>left_inferior_renal_artery</t>
+  </si>
+  <si>
+    <t>lkidney_arteries4, lkidney_arteries2, lkidney_arteries8, lkidney_arteries11, lkidney_arteries12, lkidney_arteries14, lkidney_arteries17, lkidney_arteries18</t>
+  </si>
+  <si>
+    <t>lkidney_arteries1, lkidney_arteries6, lkidney_arteries15, lkidney_arteries20</t>
+  </si>
+  <si>
+    <t>3, lkidney_arteries10, lkidney_arteries22, lkidney_arteries13</t>
+  </si>
+  <si>
+    <t>lkidney_arteries16, lkidney_arteries19</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art0</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art1</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art2</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art3</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art4</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art5</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art6</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art7</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art8</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art9</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art10</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art11</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art12</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art13</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art14</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art15</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art16</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art17</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art18</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art19</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art20</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art21</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art22</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art23</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art24</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art25</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art26</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art27</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art28</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art29</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art30</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art31</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art32</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art33</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art34</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art35</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art36</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art37</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art38</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art39</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art40</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art41</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art42</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art43</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art44</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art45</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art46</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art47</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art48</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art49</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art50</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art51</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art52</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art53</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art54</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art55</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art56</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art57</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art58</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art59</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art60</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art61</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art62</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art63</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art64</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art65</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art66</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art67</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art68</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art69</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art70</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art71</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art72</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art73</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art74</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art75</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art76</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art77</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art78</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art79</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art80</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art81</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art82</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art83</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art84</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art85</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art86</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art87</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art88</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art89</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art90</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art91</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art92</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art93</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art94</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art95</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art96</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art97</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art98</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art99</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art100</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art101</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art102</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art103</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art104</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art105</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art106</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art107</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art108</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art109</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art110</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art111</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art112</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art113</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art114</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art115</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art116</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art117</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art118</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art119</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art120</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art121</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art122</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art123</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art124</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art125</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art126</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art127</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art128</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art129</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art130</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art131</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art132</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art133</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art134</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art135</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art136</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art137</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art138</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art139</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art140</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art141</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art142</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art143</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art144</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art145</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art146</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art147</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art148</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art149</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art150</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art151</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art152</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art153</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art154</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art155</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art156</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art157</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art158</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art159</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art160</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art161</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art162</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art163</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art164</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art165</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art166</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art167</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art168</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art169</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art170</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art171</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art172</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art173</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art174</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art175</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art176</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art177</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art178</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art179</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art180</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art181</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art182</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art183</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art184</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art185</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art186</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art187</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art188</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art189</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art190</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art191</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art192</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art193</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art194</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art195</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art196</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art197</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art198</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art199</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art200</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art201</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art202</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art203</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art204</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art205</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art206</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art207</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art208</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art209</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art210</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art211</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art212</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art213</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art214</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art215</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art216</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art217</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art218</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art219</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art220</t>
+  </si>
+  <si>
+    <t>left_pulmonary_artery, right_pulmonary_artery</t>
+  </si>
+  <si>
+    <t>right_pulmonary_artery</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art36, right_pulmonary_art46, right_pulmonary_art173, right_pulmonary_art174</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art166, right_pulmonary_art167</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art164, right_pulmonary_art165</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +2001,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1246,6 +2011,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,9 +2033,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1579,11 +2351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF27AB3-E048-4EA5-B18B-CA67C65A1148}">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B289" sqref="B289"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F317" sqref="F317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1628,7 +2400,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G2" t="s">
@@ -1696,10 +2468,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>643</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -5202,6 +5974,2102 @@
       </c>
       <c r="D284" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>393</v>
+      </c>
+      <c r="B285" t="s">
+        <v>416</v>
+      </c>
+      <c r="C285" t="s">
+        <v>3</v>
+      </c>
+      <c r="D285" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>394</v>
+      </c>
+      <c r="B286" t="s">
+        <v>394</v>
+      </c>
+      <c r="C286" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>395</v>
+      </c>
+      <c r="B287" t="s">
+        <v>395</v>
+      </c>
+      <c r="C287" t="s">
+        <v>416</v>
+      </c>
+      <c r="D287" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>396</v>
+      </c>
+      <c r="B288" t="s">
+        <v>396</v>
+      </c>
+      <c r="C288" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>397</v>
+      </c>
+      <c r="B289" t="s">
+        <v>397</v>
+      </c>
+      <c r="C289" t="s">
+        <v>416</v>
+      </c>
+      <c r="D289" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>398</v>
+      </c>
+      <c r="B290" t="s">
+        <v>398</v>
+      </c>
+      <c r="C290" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>399</v>
+      </c>
+      <c r="B291" t="s">
+        <v>399</v>
+      </c>
+      <c r="C291" t="s">
+        <v>397</v>
+      </c>
+      <c r="D291" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>400</v>
+      </c>
+      <c r="B292" t="s">
+        <v>400</v>
+      </c>
+      <c r="C292" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>401</v>
+      </c>
+      <c r="B293" t="s">
+        <v>401</v>
+      </c>
+      <c r="C293" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>402</v>
+      </c>
+      <c r="B294" t="s">
+        <v>402</v>
+      </c>
+      <c r="C294" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>403</v>
+      </c>
+      <c r="B295" t="s">
+        <v>403</v>
+      </c>
+      <c r="C295" t="s">
+        <v>395</v>
+      </c>
+      <c r="D295" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>404</v>
+      </c>
+      <c r="B296" t="s">
+        <v>404</v>
+      </c>
+      <c r="C296" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>405</v>
+      </c>
+      <c r="B297" t="s">
+        <v>405</v>
+      </c>
+      <c r="C297" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>406</v>
+      </c>
+      <c r="B298" t="s">
+        <v>406</v>
+      </c>
+      <c r="C298" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>407</v>
+      </c>
+      <c r="B299" t="s">
+        <v>407</v>
+      </c>
+      <c r="C299" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>408</v>
+      </c>
+      <c r="B300" t="s">
+        <v>408</v>
+      </c>
+      <c r="C300" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>409</v>
+      </c>
+      <c r="B301" t="s">
+        <v>409</v>
+      </c>
+      <c r="C301" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>410</v>
+      </c>
+      <c r="B302" t="s">
+        <v>410</v>
+      </c>
+      <c r="C302" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>411</v>
+      </c>
+      <c r="B303" t="s">
+        <v>411</v>
+      </c>
+      <c r="C303" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>412</v>
+      </c>
+      <c r="B304" t="s">
+        <v>412</v>
+      </c>
+      <c r="C304" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>413</v>
+      </c>
+      <c r="B305" t="s">
+        <v>413</v>
+      </c>
+      <c r="C305" t="s">
+        <v>397</v>
+      </c>
+      <c r="D305" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>414</v>
+      </c>
+      <c r="B306" t="s">
+        <v>417</v>
+      </c>
+      <c r="C306" t="s">
+        <v>3</v>
+      </c>
+      <c r="D306" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>415</v>
+      </c>
+      <c r="B307" t="s">
+        <v>415</v>
+      </c>
+      <c r="C307" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>422</v>
+      </c>
+      <c r="B308" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>423</v>
+      </c>
+      <c r="B309" t="s">
+        <v>644</v>
+      </c>
+      <c r="C309" t="s">
+        <v>15</v>
+      </c>
+      <c r="G309" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>424</v>
+      </c>
+      <c r="B310" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>425</v>
+      </c>
+      <c r="B311" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>426</v>
+      </c>
+      <c r="B312" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>427</v>
+      </c>
+      <c r="B313" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>428</v>
+      </c>
+      <c r="B314" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>429</v>
+      </c>
+      <c r="B315" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>430</v>
+      </c>
+      <c r="B316" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A317" t="s">
+        <v>431</v>
+      </c>
+      <c r="B317" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A318" t="s">
+        <v>432</v>
+      </c>
+      <c r="B318" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
+        <v>433</v>
+      </c>
+      <c r="B319" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A320" t="s">
+        <v>434</v>
+      </c>
+      <c r="B320" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A321" t="s">
+        <v>435</v>
+      </c>
+      <c r="B321" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
+        <v>436</v>
+      </c>
+      <c r="B322" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A323" t="s">
+        <v>437</v>
+      </c>
+      <c r="B323" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
+        <v>438</v>
+      </c>
+      <c r="B324" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>439</v>
+      </c>
+      <c r="B325" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
+        <v>440</v>
+      </c>
+      <c r="B326" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
+        <v>441</v>
+      </c>
+      <c r="B327" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
+        <v>442</v>
+      </c>
+      <c r="B328" t="s">
+        <v>442</v>
+      </c>
+      <c r="C328" t="s">
+        <v>644</v>
+      </c>
+      <c r="D328" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A329" t="s">
+        <v>443</v>
+      </c>
+      <c r="B329" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A330" t="s">
+        <v>444</v>
+      </c>
+      <c r="B330" t="s">
+        <v>444</v>
+      </c>
+      <c r="C330" t="s">
+        <v>644</v>
+      </c>
+      <c r="D330" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A331" t="s">
+        <v>445</v>
+      </c>
+      <c r="B331" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A332" t="s">
+        <v>446</v>
+      </c>
+      <c r="B332" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A333" t="s">
+        <v>447</v>
+      </c>
+      <c r="B333" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>448</v>
+      </c>
+      <c r="B334" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A335" t="s">
+        <v>449</v>
+      </c>
+      <c r="B335" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A336" t="s">
+        <v>450</v>
+      </c>
+      <c r="B336" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A337" t="s">
+        <v>451</v>
+      </c>
+      <c r="B337" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A338" t="s">
+        <v>452</v>
+      </c>
+      <c r="B338" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A339" t="s">
+        <v>453</v>
+      </c>
+      <c r="B339" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A340" t="s">
+        <v>454</v>
+      </c>
+      <c r="B340" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341" t="s">
+        <v>455</v>
+      </c>
+      <c r="B341" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342" t="s">
+        <v>456</v>
+      </c>
+      <c r="B342" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343" t="s">
+        <v>457</v>
+      </c>
+      <c r="B343" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344" t="s">
+        <v>458</v>
+      </c>
+      <c r="B344" t="s">
+        <v>458</v>
+      </c>
+      <c r="C344" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345" t="s">
+        <v>459</v>
+      </c>
+      <c r="B345" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346" t="s">
+        <v>460</v>
+      </c>
+      <c r="B346" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347" t="s">
+        <v>461</v>
+      </c>
+      <c r="B347" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348" t="s">
+        <v>462</v>
+      </c>
+      <c r="B348" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349" t="s">
+        <v>463</v>
+      </c>
+      <c r="B349" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350" t="s">
+        <v>464</v>
+      </c>
+      <c r="B350" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A351" t="s">
+        <v>465</v>
+      </c>
+      <c r="B351" t="s">
+        <v>465</v>
+      </c>
+      <c r="C351" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A352" t="s">
+        <v>466</v>
+      </c>
+      <c r="B352" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353" t="s">
+        <v>467</v>
+      </c>
+      <c r="B353" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354" t="s">
+        <v>468</v>
+      </c>
+      <c r="B354" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>469</v>
+      </c>
+      <c r="B355" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
+        <v>470</v>
+      </c>
+      <c r="B356" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" t="s">
+        <v>471</v>
+      </c>
+      <c r="B357" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
+        <v>472</v>
+      </c>
+      <c r="B358" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
+        <v>473</v>
+      </c>
+      <c r="B359" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360" t="s">
+        <v>474</v>
+      </c>
+      <c r="B360" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>475</v>
+      </c>
+      <c r="B361" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362" t="s">
+        <v>476</v>
+      </c>
+      <c r="B362" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>477</v>
+      </c>
+      <c r="B363" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>478</v>
+      </c>
+      <c r="B364" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365" t="s">
+        <v>479</v>
+      </c>
+      <c r="B365" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366" t="s">
+        <v>480</v>
+      </c>
+      <c r="B366" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>481</v>
+      </c>
+      <c r="B367" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368" t="s">
+        <v>482</v>
+      </c>
+      <c r="B368" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A369" t="s">
+        <v>483</v>
+      </c>
+      <c r="B369" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A370" t="s">
+        <v>484</v>
+      </c>
+      <c r="B370" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>485</v>
+      </c>
+      <c r="B371" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
+        <v>486</v>
+      </c>
+      <c r="B372" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A373" t="s">
+        <v>487</v>
+      </c>
+      <c r="B373" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>488</v>
+      </c>
+      <c r="B374" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>489</v>
+      </c>
+      <c r="B375" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A376" t="s">
+        <v>490</v>
+      </c>
+      <c r="B376" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
+        <v>491</v>
+      </c>
+      <c r="B377" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A378" t="s">
+        <v>492</v>
+      </c>
+      <c r="B378" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>493</v>
+      </c>
+      <c r="B379" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A380" t="s">
+        <v>494</v>
+      </c>
+      <c r="B380" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A381" t="s">
+        <v>495</v>
+      </c>
+      <c r="B381" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A382" t="s">
+        <v>496</v>
+      </c>
+      <c r="B382" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A383" t="s">
+        <v>497</v>
+      </c>
+      <c r="B383" t="s">
+        <v>497</v>
+      </c>
+      <c r="C383" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A384" t="s">
+        <v>498</v>
+      </c>
+      <c r="B384" t="s">
+        <v>498</v>
+      </c>
+      <c r="C384" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385" t="s">
+        <v>499</v>
+      </c>
+      <c r="B385" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386" t="s">
+        <v>500</v>
+      </c>
+      <c r="B386" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387" t="s">
+        <v>501</v>
+      </c>
+      <c r="B387" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A388" t="s">
+        <v>502</v>
+      </c>
+      <c r="B388" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A389" t="s">
+        <v>503</v>
+      </c>
+      <c r="B389" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A390" t="s">
+        <v>504</v>
+      </c>
+      <c r="B390" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A391" t="s">
+        <v>505</v>
+      </c>
+      <c r="B391" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A392" t="s">
+        <v>506</v>
+      </c>
+      <c r="B392" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A393" t="s">
+        <v>507</v>
+      </c>
+      <c r="B393" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A394" t="s">
+        <v>508</v>
+      </c>
+      <c r="B394" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395" t="s">
+        <v>509</v>
+      </c>
+      <c r="B395" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A396" t="s">
+        <v>510</v>
+      </c>
+      <c r="B396" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A397" t="s">
+        <v>511</v>
+      </c>
+      <c r="B397" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A398" t="s">
+        <v>512</v>
+      </c>
+      <c r="B398" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A399" t="s">
+        <v>513</v>
+      </c>
+      <c r="B399" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A400" t="s">
+        <v>514</v>
+      </c>
+      <c r="B400" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A401" t="s">
+        <v>515</v>
+      </c>
+      <c r="B401" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A402" t="s">
+        <v>516</v>
+      </c>
+      <c r="B402" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A403" t="s">
+        <v>517</v>
+      </c>
+      <c r="B403" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A404" t="s">
+        <v>518</v>
+      </c>
+      <c r="B404" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A405" t="s">
+        <v>519</v>
+      </c>
+      <c r="B405" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A406" t="s">
+        <v>520</v>
+      </c>
+      <c r="B406" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A407" t="s">
+        <v>521</v>
+      </c>
+      <c r="B407" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A408" t="s">
+        <v>522</v>
+      </c>
+      <c r="B408" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A409" t="s">
+        <v>523</v>
+      </c>
+      <c r="B409" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A410" t="s">
+        <v>524</v>
+      </c>
+      <c r="B410" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A411" t="s">
+        <v>525</v>
+      </c>
+      <c r="B411" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A412" t="s">
+        <v>526</v>
+      </c>
+      <c r="B412" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A413" t="s">
+        <v>527</v>
+      </c>
+      <c r="B413" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A414" t="s">
+        <v>528</v>
+      </c>
+      <c r="B414" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A415" t="s">
+        <v>529</v>
+      </c>
+      <c r="B415" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A416" t="s">
+        <v>530</v>
+      </c>
+      <c r="B416" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A417" t="s">
+        <v>531</v>
+      </c>
+      <c r="B417" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A418" t="s">
+        <v>532</v>
+      </c>
+      <c r="B418" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A419" t="s">
+        <v>533</v>
+      </c>
+      <c r="B419" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A420" t="s">
+        <v>534</v>
+      </c>
+      <c r="B420" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A421" t="s">
+        <v>535</v>
+      </c>
+      <c r="B421" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A422" t="s">
+        <v>536</v>
+      </c>
+      <c r="B422" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A423" t="s">
+        <v>537</v>
+      </c>
+      <c r="B423" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A424" t="s">
+        <v>538</v>
+      </c>
+      <c r="B424" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A425" t="s">
+        <v>539</v>
+      </c>
+      <c r="B425" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A426" t="s">
+        <v>540</v>
+      </c>
+      <c r="B426" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A427" t="s">
+        <v>541</v>
+      </c>
+      <c r="B427" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A428" t="s">
+        <v>542</v>
+      </c>
+      <c r="B428" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A429" t="s">
+        <v>543</v>
+      </c>
+      <c r="B429" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A430" t="s">
+        <v>544</v>
+      </c>
+      <c r="B430" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A431" t="s">
+        <v>545</v>
+      </c>
+      <c r="B431" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A432" t="s">
+        <v>546</v>
+      </c>
+      <c r="B432" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A433" t="s">
+        <v>547</v>
+      </c>
+      <c r="B433" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A434" t="s">
+        <v>548</v>
+      </c>
+      <c r="B434" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A435" t="s">
+        <v>549</v>
+      </c>
+      <c r="B435" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A436" t="s">
+        <v>550</v>
+      </c>
+      <c r="B436" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A437" t="s">
+        <v>551</v>
+      </c>
+      <c r="B437" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A438" t="s">
+        <v>552</v>
+      </c>
+      <c r="B438" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A439" t="s">
+        <v>553</v>
+      </c>
+      <c r="B439" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A440" t="s">
+        <v>554</v>
+      </c>
+      <c r="B440" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A441" t="s">
+        <v>555</v>
+      </c>
+      <c r="B441" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A442" t="s">
+        <v>556</v>
+      </c>
+      <c r="B442" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A443" t="s">
+        <v>557</v>
+      </c>
+      <c r="B443" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A444" t="s">
+        <v>558</v>
+      </c>
+      <c r="B444" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A445" t="s">
+        <v>559</v>
+      </c>
+      <c r="B445" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A446" t="s">
+        <v>560</v>
+      </c>
+      <c r="B446" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A447" t="s">
+        <v>561</v>
+      </c>
+      <c r="B447" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A448" t="s">
+        <v>562</v>
+      </c>
+      <c r="B448" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A449" t="s">
+        <v>563</v>
+      </c>
+      <c r="B449" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A450" t="s">
+        <v>564</v>
+      </c>
+      <c r="B450" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A451" t="s">
+        <v>565</v>
+      </c>
+      <c r="B451" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A452" t="s">
+        <v>566</v>
+      </c>
+      <c r="B452" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A453" t="s">
+        <v>567</v>
+      </c>
+      <c r="B453" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A454" t="s">
+        <v>568</v>
+      </c>
+      <c r="B454" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A455" t="s">
+        <v>569</v>
+      </c>
+      <c r="B455" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A456" t="s">
+        <v>570</v>
+      </c>
+      <c r="B456" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A457" t="s">
+        <v>571</v>
+      </c>
+      <c r="B457" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A458" t="s">
+        <v>572</v>
+      </c>
+      <c r="B458" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A459" t="s">
+        <v>573</v>
+      </c>
+      <c r="B459" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A460" t="s">
+        <v>574</v>
+      </c>
+      <c r="B460" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A461" t="s">
+        <v>575</v>
+      </c>
+      <c r="B461" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A462" t="s">
+        <v>576</v>
+      </c>
+      <c r="B462" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A463" t="s">
+        <v>577</v>
+      </c>
+      <c r="B463" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A464" t="s">
+        <v>578</v>
+      </c>
+      <c r="B464" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A465" t="s">
+        <v>579</v>
+      </c>
+      <c r="B465" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A466" t="s">
+        <v>580</v>
+      </c>
+      <c r="B466" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A467" t="s">
+        <v>581</v>
+      </c>
+      <c r="B467" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A468" t="s">
+        <v>582</v>
+      </c>
+      <c r="B468" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A469" t="s">
+        <v>583</v>
+      </c>
+      <c r="B469" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A470" t="s">
+        <v>584</v>
+      </c>
+      <c r="B470" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A471" t="s">
+        <v>585</v>
+      </c>
+      <c r="B471" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A472" t="s">
+        <v>586</v>
+      </c>
+      <c r="B472" t="s">
+        <v>586</v>
+      </c>
+      <c r="C472" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A473" t="s">
+        <v>587</v>
+      </c>
+      <c r="B473" t="s">
+        <v>587</v>
+      </c>
+      <c r="C473" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A474" t="s">
+        <v>588</v>
+      </c>
+      <c r="B474" t="s">
+        <v>588</v>
+      </c>
+      <c r="C474" t="s">
+        <v>442</v>
+      </c>
+      <c r="D474" t="s">
+        <v>647</v>
+      </c>
+      <c r="E474" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A475" t="s">
+        <v>589</v>
+      </c>
+      <c r="B475" t="s">
+        <v>589</v>
+      </c>
+      <c r="C475" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A476" t="s">
+        <v>590</v>
+      </c>
+      <c r="B476" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A477" t="s">
+        <v>591</v>
+      </c>
+      <c r="B477" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A478" t="s">
+        <v>592</v>
+      </c>
+      <c r="B478" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A479" t="s">
+        <v>593</v>
+      </c>
+      <c r="B479" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A480" t="s">
+        <v>594</v>
+      </c>
+      <c r="B480" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A481" t="s">
+        <v>595</v>
+      </c>
+      <c r="B481" t="s">
+        <v>595</v>
+      </c>
+      <c r="C481" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A482" t="s">
+        <v>596</v>
+      </c>
+      <c r="B482" t="s">
+        <v>596</v>
+      </c>
+      <c r="C482" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A483" t="s">
+        <v>597</v>
+      </c>
+      <c r="B483" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A484" t="s">
+        <v>598</v>
+      </c>
+      <c r="B484" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A485" t="s">
+        <v>599</v>
+      </c>
+      <c r="B485" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A486" t="s">
+        <v>600</v>
+      </c>
+      <c r="B486" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A487" t="s">
+        <v>601</v>
+      </c>
+      <c r="B487" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A488" t="s">
+        <v>602</v>
+      </c>
+      <c r="B488" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A489" t="s">
+        <v>603</v>
+      </c>
+      <c r="B489" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A490" t="s">
+        <v>604</v>
+      </c>
+      <c r="B490" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A491" t="s">
+        <v>605</v>
+      </c>
+      <c r="B491" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A492" t="s">
+        <v>606</v>
+      </c>
+      <c r="B492" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A493" t="s">
+        <v>607</v>
+      </c>
+      <c r="B493" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A494" t="s">
+        <v>608</v>
+      </c>
+      <c r="B494" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A495" t="s">
+        <v>609</v>
+      </c>
+      <c r="B495" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A496" t="s">
+        <v>610</v>
+      </c>
+      <c r="B496" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A497" t="s">
+        <v>611</v>
+      </c>
+      <c r="B497" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A498" t="s">
+        <v>612</v>
+      </c>
+      <c r="B498" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A499" t="s">
+        <v>613</v>
+      </c>
+      <c r="B499" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A500" t="s">
+        <v>614</v>
+      </c>
+      <c r="B500" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A501" t="s">
+        <v>615</v>
+      </c>
+      <c r="B501" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A502" t="s">
+        <v>616</v>
+      </c>
+      <c r="B502" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A503" t="s">
+        <v>617</v>
+      </c>
+      <c r="B503" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A504" t="s">
+        <v>618</v>
+      </c>
+      <c r="B504" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A505" t="s">
+        <v>619</v>
+      </c>
+      <c r="B505" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A506" t="s">
+        <v>620</v>
+      </c>
+      <c r="B506" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A507" t="s">
+        <v>621</v>
+      </c>
+      <c r="B507" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A508" t="s">
+        <v>622</v>
+      </c>
+      <c r="B508" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A509" t="s">
+        <v>623</v>
+      </c>
+      <c r="B509" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A510" t="s">
+        <v>624</v>
+      </c>
+      <c r="B510" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A511" t="s">
+        <v>625</v>
+      </c>
+      <c r="B511" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A512" t="s">
+        <v>626</v>
+      </c>
+      <c r="B512" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A513" t="s">
+        <v>627</v>
+      </c>
+      <c r="B513" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A514" t="s">
+        <v>628</v>
+      </c>
+      <c r="B514" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A515" t="s">
+        <v>629</v>
+      </c>
+      <c r="B515" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A516" t="s">
+        <v>630</v>
+      </c>
+      <c r="B516" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A517" t="s">
+        <v>631</v>
+      </c>
+      <c r="B517" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A518" t="s">
+        <v>632</v>
+      </c>
+      <c r="B518" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A519" t="s">
+        <v>633</v>
+      </c>
+      <c r="B519" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A520" t="s">
+        <v>634</v>
+      </c>
+      <c r="B520" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A521" t="s">
+        <v>635</v>
+      </c>
+      <c r="B521" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A522" t="s">
+        <v>636</v>
+      </c>
+      <c r="B522" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A523" t="s">
+        <v>637</v>
+      </c>
+      <c r="B523" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A524" t="s">
+        <v>638</v>
+      </c>
+      <c r="B524" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A525" t="s">
+        <v>639</v>
+      </c>
+      <c r="B525" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A526" t="s">
+        <v>640</v>
+      </c>
+      <c r="B526" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A527" t="s">
+        <v>641</v>
+      </c>
+      <c r="B527" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A528" t="s">
+        <v>642</v>
+      </c>
+      <c r="B528" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7703E80-9DFF-467B-9C52-EED883F70974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06C9B3A-287E-414B-AA92-50904D078601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1410" windowWidth="16200" windowHeight="9308" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="arteries" sheetId="1" r:id="rId1"/>
+    <sheet name="veins" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="723">
   <si>
     <t>Filename</t>
   </si>
@@ -296,9 +297,6 @@
     <t>End Point</t>
   </si>
   <si>
-    <t>left_external_iliac_artery, right_external_artery</t>
-  </si>
-  <si>
     <t>arteries49, arteries50</t>
   </si>
   <si>
@@ -1980,6 +1978,234 @@
   </si>
   <si>
     <t>right_pulmonary_art164, right_pulmonary_art165</t>
+  </si>
+  <si>
+    <t>rkidney_arteries0</t>
+  </si>
+  <si>
+    <t>rkidney_arteries1</t>
+  </si>
+  <si>
+    <t>rkidney_arteries2</t>
+  </si>
+  <si>
+    <t>rkidney_arteries3</t>
+  </si>
+  <si>
+    <t>rkidney_arteries4</t>
+  </si>
+  <si>
+    <t>rkidney_arteries5</t>
+  </si>
+  <si>
+    <t>rkidney_arteries6</t>
+  </si>
+  <si>
+    <t>rkidney_arteries7</t>
+  </si>
+  <si>
+    <t>rkidney_arteries8</t>
+  </si>
+  <si>
+    <t>rkidney_arteries9</t>
+  </si>
+  <si>
+    <t>rkidney_arteries10</t>
+  </si>
+  <si>
+    <t>rkidney_arteries11</t>
+  </si>
+  <si>
+    <t>rkidney_arteries12</t>
+  </si>
+  <si>
+    <t>rkidney_arteries13</t>
+  </si>
+  <si>
+    <t>rkidney_arteries14</t>
+  </si>
+  <si>
+    <t>rkidney_arteries15</t>
+  </si>
+  <si>
+    <t>rkidney_arteries16</t>
+  </si>
+  <si>
+    <t>rkidney_arteries17</t>
+  </si>
+  <si>
+    <t>right_superior_renal_artery</t>
+  </si>
+  <si>
+    <t>rkidney_arteries14, rkidney_arteries10</t>
+  </si>
+  <si>
+    <t>right_inferior_renal_artery</t>
+  </si>
+  <si>
+    <t>rkidney_arteries1,rkidney_arteries4, rkidney_arteries8, rkidney_arteries17, rkidney_arteries9, rkidney_arteries2, rkidney_arteries13</t>
+  </si>
+  <si>
+    <t>rkidney_arteries7, rkidney_arteries11</t>
+  </si>
+  <si>
+    <t>rkidney_arteries12, rkidney_arteries5</t>
+  </si>
+  <si>
+    <t>rkidney_arteries15, rkidney_arteries16</t>
+  </si>
+  <si>
+    <t>arteries_rarm0</t>
+  </si>
+  <si>
+    <t>arteries_rarm1</t>
+  </si>
+  <si>
+    <t>arteries_rarm2</t>
+  </si>
+  <si>
+    <t>arteries_rarm3</t>
+  </si>
+  <si>
+    <t>arteries_rarm4</t>
+  </si>
+  <si>
+    <t>arteries_rarm5</t>
+  </si>
+  <si>
+    <t>arteries_rarm6</t>
+  </si>
+  <si>
+    <t>arteries_rarm7</t>
+  </si>
+  <si>
+    <t>arteries_rarm8</t>
+  </si>
+  <si>
+    <t>arteries_rarm10</t>
+  </si>
+  <si>
+    <t>arteries_rarm11</t>
+  </si>
+  <si>
+    <t>arteries_rarm12</t>
+  </si>
+  <si>
+    <t>arteries_rarm13</t>
+  </si>
+  <si>
+    <t>right_arm_artery</t>
+  </si>
+  <si>
+    <t>arteries_rarm4, arteries_rarm7, arteries_rarm12, arteries_rarm3</t>
+  </si>
+  <si>
+    <t>arteries_rarm13, arteries_rarm6, arteries_rarm12, arteries_rarm5</t>
+  </si>
+  <si>
+    <t>arteries_rarm1, arteries_rarm8</t>
+  </si>
+  <si>
+    <t>arteries_rleg0</t>
+  </si>
+  <si>
+    <t>arteries_rleg1</t>
+  </si>
+  <si>
+    <t>arteries_rleg2</t>
+  </si>
+  <si>
+    <t>arteries_rleg3</t>
+  </si>
+  <si>
+    <t>arteries_rleg4</t>
+  </si>
+  <si>
+    <t>arteries_rleg5</t>
+  </si>
+  <si>
+    <t>arteries_rleg6</t>
+  </si>
+  <si>
+    <t>arteries_rleg7</t>
+  </si>
+  <si>
+    <t>arteries_rleg8</t>
+  </si>
+  <si>
+    <t>arteries_rleg10</t>
+  </si>
+  <si>
+    <t>arteries_rleg11</t>
+  </si>
+  <si>
+    <t>arteries_rleg13</t>
+  </si>
+  <si>
+    <t>arteries_rleg14</t>
+  </si>
+  <si>
+    <t>arteries_rleg16</t>
+  </si>
+  <si>
+    <t>arteries_rleg17</t>
+  </si>
+  <si>
+    <t>arteries_rleg18</t>
+  </si>
+  <si>
+    <t>arteries_rleg19</t>
+  </si>
+  <si>
+    <t>arteries_rleg21</t>
+  </si>
+  <si>
+    <t>arteries_rleg22</t>
+  </si>
+  <si>
+    <t>arteries_rleg23</t>
+  </si>
+  <si>
+    <t>arteries_rleg24</t>
+  </si>
+  <si>
+    <t>arteries_rleg25</t>
+  </si>
+  <si>
+    <t>arteries_rleg26</t>
+  </si>
+  <si>
+    <t>arteries_rleg27</t>
+  </si>
+  <si>
+    <t>arteries_rleg28</t>
+  </si>
+  <si>
+    <t>arteries_rleg29</t>
+  </si>
+  <si>
+    <t>arteries_rleg30</t>
+  </si>
+  <si>
+    <t>right_leg_artery</t>
+  </si>
+  <si>
+    <t>left_external_iliac_artery, right_external_iliac_artery</t>
+  </si>
+  <si>
+    <t>arteries_rleg21, arteries_rleg22, arteries_rleg27, arteries_rleg30, arteries_rleg1, arteries_rleg17, arteries_rleg23</t>
+  </si>
+  <si>
+    <t>arteries_rleg0, arteries_rleg2, arteries_rleg5, arteries_rleg24, arteries_rleg7</t>
+  </si>
+  <si>
+    <t>arteries_rleg3, arteries_rleg4, arteries_rleg10, arteries_rleg26</t>
+  </si>
+  <si>
+    <t>arteries_rleg13, arteries_rleg29</t>
+  </si>
+  <si>
+    <t>arteries_rleg19, arteries_rleg11, arteries_rleg8</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2011,12 +2237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,7 +2256,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2351,11 +2571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF27AB3-E048-4EA5-B18B-CA67C65A1148}">
-  <dimension ref="A1:G528"/>
+  <dimension ref="A1:G586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F317" sqref="F317"/>
+      <pane ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2400,8 +2620,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>717</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2468,10 +2689,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -2481,8 +2702,12 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -2492,8 +2717,12 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" t="s">
         <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2507,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -2544,6 +2773,7 @@
       <c r="C13" t="s">
         <v>81</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -2570,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -2622,8 +2852,9 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
+      <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -2634,7 +2865,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -2642,11 +2873,14 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -2668,7 +2902,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -2740,7 +2974,7 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -2762,7 +2996,7 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -2809,7 +3043,7 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -2823,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -2836,6 +3070,9 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
@@ -2845,7 +3082,7 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>57</v>
@@ -2859,7 +3096,7 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -2881,7 +3118,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2944,10 +3181,10 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -2955,11 +3192,12 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
@@ -2969,7 +3207,7 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
@@ -2983,7 +3221,7 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -2991,7 +3229,7 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>80</v>
@@ -3005,7 +3243,7 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
@@ -3016,13 +3254,13 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
         <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -3030,7 +3268,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3052,16 +3290,16 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -3083,7 +3321,7 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -3113,7 +3351,7 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
@@ -3121,498 +3359,498 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
         <v>119</v>
-      </c>
-      <c r="D70" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
         <v>128</v>
       </c>
-      <c r="B79" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" t="s">
-        <v>129</v>
-      </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" t="s">
         <v>150</v>
-      </c>
-      <c r="D80" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="s">
         <v>131</v>
-      </c>
-      <c r="B82" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
         <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -3620,10 +3858,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -3631,10 +3869,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -3642,10 +3880,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -3653,10 +3891,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -3664,10 +3902,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
@@ -3675,10 +3913,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -3686,2584 +3924,2584 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D109" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B110" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D111" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D112" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D115" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E115" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E117" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E120" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" t="s">
+        <v>176</v>
+      </c>
+      <c r="C121" t="s">
         <v>177</v>
-      </c>
-      <c r="B121" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" t="s">
+        <v>181</v>
+      </c>
+      <c r="C126" t="s">
+        <v>312</v>
+      </c>
+      <c r="D126" t="s">
         <v>182</v>
-      </c>
-      <c r="B126" t="s">
-        <v>182</v>
-      </c>
-      <c r="C126" t="s">
-        <v>313</v>
-      </c>
-      <c r="D126" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C130" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" t="s">
+        <v>187</v>
+      </c>
+      <c r="C132" t="s">
+        <v>340</v>
+      </c>
+      <c r="D132" t="s">
         <v>188</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>188</v>
-      </c>
-      <c r="C132" t="s">
-        <v>341</v>
-      </c>
-      <c r="D132" t="s">
-        <v>189</v>
-      </c>
-      <c r="E132" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B133" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E133" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B134" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E135" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B136" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D136" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E136" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" t="s">
+        <v>194</v>
+      </c>
+      <c r="C139" t="s">
         <v>195</v>
       </c>
-      <c r="B139" t="s">
-        <v>195</v>
-      </c>
-      <c r="C139" t="s">
-        <v>196</v>
-      </c>
       <c r="D139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B140" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D140" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E140" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
+        <v>198</v>
+      </c>
+      <c r="B143" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" t="s">
         <v>199</v>
-      </c>
-      <c r="B143" t="s">
-        <v>199</v>
-      </c>
-      <c r="C143" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" t="s">
+        <v>199</v>
+      </c>
+      <c r="C144" t="s">
         <v>200</v>
       </c>
-      <c r="B144" t="s">
-        <v>200</v>
-      </c>
-      <c r="C144" t="s">
-        <v>201</v>
-      </c>
       <c r="D144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D145" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E145" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D147" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D148" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B149" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D149" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
+        <v>205</v>
+      </c>
+      <c r="B150" t="s">
+        <v>205</v>
+      </c>
+      <c r="C150" t="s">
         <v>206</v>
-      </c>
-      <c r="B150" t="s">
-        <v>206</v>
-      </c>
-      <c r="C150" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C151" t="s">
+        <v>204</v>
+      </c>
+      <c r="D151" t="s">
         <v>205</v>
       </c>
-      <c r="D151" t="s">
-        <v>206</v>
-      </c>
       <c r="E151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B152" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B153" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C153" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C154" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C155" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B156" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C156" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B157" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C157" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E157" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C158" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D158" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D160" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E160" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
+        <v>216</v>
+      </c>
+      <c r="B161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" t="s">
         <v>217</v>
       </c>
-      <c r="B161" t="s">
+      <c r="E161" t="s">
         <v>217</v>
-      </c>
-      <c r="C161" t="s">
-        <v>165</v>
-      </c>
-      <c r="D161" t="s">
-        <v>218</v>
-      </c>
-      <c r="E161" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B162" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B163" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C163" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D163" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E163" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B164" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C164" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C165" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C166" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D166" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E166" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B167" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B168" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C168" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B169" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D169" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E169" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B170" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B171" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B172" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C172" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D172" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E172" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
+        <v>228</v>
+      </c>
+      <c r="B173" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173" t="s">
+        <v>217</v>
+      </c>
+      <c r="D173" t="s">
         <v>229</v>
       </c>
-      <c r="B173" t="s">
+      <c r="E173" t="s">
         <v>229</v>
-      </c>
-      <c r="C173" t="s">
-        <v>218</v>
-      </c>
-      <c r="D173" t="s">
-        <v>230</v>
-      </c>
-      <c r="E173" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C174" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E174" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C175" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B176" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C176" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B177" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C177" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B178" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C178" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B179" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C179" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B180" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C180" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B182" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C182" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B183" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C183" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C184" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B186" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C186" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D186" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E186" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B187" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C187" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B189" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C189" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B190" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C190" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B191" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D191" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B192" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C192" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C193" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B194" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C194" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B195" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C195" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B196" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B197" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B198" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C198" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D198" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E198" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B199" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D200" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E200" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C201" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B202" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C202" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B203" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D203" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E203" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B204" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C204" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B205" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C205" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D205" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E205" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B206" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C206" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D206" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E206" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B207" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C208" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B209" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C209" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D209" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B210" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C210" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B211" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C211" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B212" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B213" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C213" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B214" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C214" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B215" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C215" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B216" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C216" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C217" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B218" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C218" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B219" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C219" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B220" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C220" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B221" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C221" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B222" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C222" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B223" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C223" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B224" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C224" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B225" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C225" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B226" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C226" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B227" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C227" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B228" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C228" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C229" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B230" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C230" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C231" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B232" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C232" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C233" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B234" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C234" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B235" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C235" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B236" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C236" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B237" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C237" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B238" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C238" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B239" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C239" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B240" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C240" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B241" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C241" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B242" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C242" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B243" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C243" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B244" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C244" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B245" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C245" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D245" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B246" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C246" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D246" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B247" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C247" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B248" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C248" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B249" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C249" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B250" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C250" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B251" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C251" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B252" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C252" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
+        <v>308</v>
+      </c>
+      <c r="B253" t="s">
+        <v>308</v>
+      </c>
+      <c r="C253" t="s">
         <v>309</v>
-      </c>
-      <c r="B253" t="s">
-        <v>309</v>
-      </c>
-      <c r="C253" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B254" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C254" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D254" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B255" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C255" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B256" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C256" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D256" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C257" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D257" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B258" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C258" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D258" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B259" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C259" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B260" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C260" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B261" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C261" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B262" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C262" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B263" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C263" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B264" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C264" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D264" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B265" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C265" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D265" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B266" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C266" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D266" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B267" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C267" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D267" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B268" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D268" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C269" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D269" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B270" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C270" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D270" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
+        <v>326</v>
+      </c>
+      <c r="B271" t="s">
+        <v>326</v>
+      </c>
+      <c r="C271" t="s">
         <v>327</v>
       </c>
-      <c r="B271" t="s">
-        <v>327</v>
-      </c>
-      <c r="C271" t="s">
-        <v>328</v>
-      </c>
       <c r="D271" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
+        <v>327</v>
+      </c>
+      <c r="B272" t="s">
+        <v>327</v>
+      </c>
+      <c r="C272" t="s">
         <v>328</v>
       </c>
-      <c r="B272" t="s">
-        <v>328</v>
-      </c>
-      <c r="C272" t="s">
-        <v>329</v>
-      </c>
       <c r="D272" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B273" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C273" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D273" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B274" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C274" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D274" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B275" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B276" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C276" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D276" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B277" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C277" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D277" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B278" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C278" t="s">
+        <v>336</v>
+      </c>
+      <c r="D278" t="s">
         <v>337</v>
       </c>
-      <c r="D278" t="s">
-        <v>338</v>
-      </c>
       <c r="E278" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
+        <v>334</v>
+      </c>
+      <c r="B279" t="s">
+        <v>334</v>
+      </c>
+      <c r="C279" t="s">
         <v>335</v>
       </c>
-      <c r="B279" t="s">
-        <v>335</v>
-      </c>
-      <c r="C279" t="s">
-        <v>336</v>
-      </c>
       <c r="D279" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B280" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C280" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D280" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B281" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C281" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D281" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E281" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B282" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C282" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B283" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C283" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B284" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C284" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D284" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B285" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C285" t="s">
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B286" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C286" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B287" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C287" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D287" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B288" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C288" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B289" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C289" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D289" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B290" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C290" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B291" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C291" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D291" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B292" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C292" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B293" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C293" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B294" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C294" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B295" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C295" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D295" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B296" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C296" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B297" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C297" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B298" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C298" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B299" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C299" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B300" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C300" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B301" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C301" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B302" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C302" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B303" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C303" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B304" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C304" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B305" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C305" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D305" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B306" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C306" t="s">
         <v>3</v>
       </c>
       <c r="D306" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B307" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C307" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B308" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B309" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C309" t="s">
         <v>15</v>
@@ -6274,1806 +6512,2522 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B310" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B311" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B312" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B313" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B314" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B315" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B316" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B317" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B318" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B319" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B320" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B321" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B322" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B323" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B324" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B325" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B326" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B327" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B328" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C328" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D328" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B329" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B330" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C330" t="s">
+        <v>643</v>
+      </c>
+      <c r="D330" t="s">
         <v>644</v>
-      </c>
-      <c r="D330" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B331" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B332" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B333" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B334" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B335" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B336" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B337" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B338" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B339" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B340" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B341" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B342" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B343" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B344" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C344" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B345" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B346" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B347" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B348" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B349" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B350" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B351" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C351" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B352" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B353" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B354" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B355" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B356" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B357" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B358" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B359" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B360" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B361" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B362" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B363" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B364" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B365" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B366" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B367" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B368" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B369" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B370" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B371" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B372" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B373" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B374" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B375" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B376" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B377" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B378" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B379" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B380" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B381" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B382" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B383" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C383" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B384" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C384" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B385" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B386" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B387" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B388" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B389" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B390" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B391" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B392" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B393" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B394" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B395" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B396" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B397" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B398" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B399" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B400" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B401" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B402" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B403" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B404" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B405" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B406" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B407" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B408" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B409" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B410" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B411" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B412" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B413" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B414" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B415" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B416" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B417" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B418" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B419" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B420" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B421" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B422" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B423" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B424" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B425" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B426" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B427" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B428" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B429" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B430" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B431" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B432" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B433" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B434" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B435" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B436" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B437" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B438" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B439" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B440" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B441" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B442" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B443" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B444" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B445" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B446" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B447" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B448" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B449" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B450" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B451" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B453" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B454" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B455" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B456" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B457" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B458" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B459" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B460" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B461" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B462" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B463" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B464" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B465" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B466" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B467" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B468" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B469" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B470" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B471" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B472" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C472" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
+        <v>586</v>
+      </c>
+      <c r="B473" t="s">
+        <v>586</v>
+      </c>
+      <c r="C473" t="s">
         <v>587</v>
-      </c>
-      <c r="B473" t="s">
-        <v>587</v>
-      </c>
-      <c r="C473" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B474" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C474" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D474" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E474" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B475" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C475" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B476" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B477" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B478" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B479" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B480" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B481" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C481" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B482" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C482" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B483" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B484" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B485" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B486" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B487" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B488" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B489" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B490" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B491" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B492" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B493" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B494" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B495" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B496" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B497" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B498" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B499" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B500" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B501" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B502" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B503" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B504" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B505" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B506" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B507" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B508" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B509" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B510" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B511" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B512" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B513" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B514" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B515" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B516" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B517" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B518" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B519" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B520" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B521" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B522" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B523" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B524" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B525" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B526" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B527" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B528" t="s">
-        <v>642</v>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A529" t="s">
+        <v>647</v>
+      </c>
+      <c r="B529" t="s">
+        <v>667</v>
+      </c>
+      <c r="C529" t="s">
+        <v>3</v>
+      </c>
+      <c r="D529" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A530" t="s">
+        <v>648</v>
+      </c>
+      <c r="B530" t="s">
+        <v>648</v>
+      </c>
+      <c r="C530" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A531" t="s">
+        <v>649</v>
+      </c>
+      <c r="B531" t="s">
+        <v>649</v>
+      </c>
+      <c r="C531" t="s">
+        <v>665</v>
+      </c>
+      <c r="D531" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A532" t="s">
+        <v>650</v>
+      </c>
+      <c r="B532" t="s">
+        <v>650</v>
+      </c>
+      <c r="C532" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A533" t="s">
+        <v>651</v>
+      </c>
+      <c r="B533" t="s">
+        <v>651</v>
+      </c>
+      <c r="C533" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A534" t="s">
+        <v>652</v>
+      </c>
+      <c r="B534" t="s">
+        <v>652</v>
+      </c>
+      <c r="C534" t="s">
+        <v>656</v>
+      </c>
+      <c r="D534" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A535" t="s">
+        <v>653</v>
+      </c>
+      <c r="B535" t="s">
+        <v>665</v>
+      </c>
+      <c r="C535" t="s">
+        <v>3</v>
+      </c>
+      <c r="D535" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A536" t="s">
+        <v>654</v>
+      </c>
+      <c r="B536" t="s">
+        <v>654</v>
+      </c>
+      <c r="C536" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A537" t="s">
+        <v>655</v>
+      </c>
+      <c r="B537" t="s">
+        <v>655</v>
+      </c>
+      <c r="C537" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A538" t="s">
+        <v>656</v>
+      </c>
+      <c r="B538" t="s">
+        <v>656</v>
+      </c>
+      <c r="C538" t="s">
+        <v>665</v>
+      </c>
+      <c r="D538" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A539" t="s">
+        <v>657</v>
+      </c>
+      <c r="B539" t="s">
+        <v>657</v>
+      </c>
+      <c r="C539" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A540" t="s">
+        <v>658</v>
+      </c>
+      <c r="B540" t="s">
+        <v>658</v>
+      </c>
+      <c r="C540" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A541" t="s">
+        <v>659</v>
+      </c>
+      <c r="B541" t="s">
+        <v>659</v>
+      </c>
+      <c r="C541" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A542" t="s">
+        <v>660</v>
+      </c>
+      <c r="B542" t="s">
+        <v>660</v>
+      </c>
+      <c r="C542" t="s">
+        <v>665</v>
+      </c>
+      <c r="D542" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A543" t="s">
+        <v>661</v>
+      </c>
+      <c r="B543" t="s">
+        <v>661</v>
+      </c>
+      <c r="C543" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A544" t="s">
+        <v>662</v>
+      </c>
+      <c r="B544" t="s">
+        <v>662</v>
+      </c>
+      <c r="C544" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A545" t="s">
+        <v>663</v>
+      </c>
+      <c r="B545" t="s">
+        <v>663</v>
+      </c>
+      <c r="C545" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A546" t="s">
+        <v>664</v>
+      </c>
+      <c r="B546" t="s">
+        <v>664</v>
+      </c>
+      <c r="C546" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A547" t="s">
+        <v>672</v>
+      </c>
+      <c r="B547" t="s">
+        <v>672</v>
+      </c>
+      <c r="C547" t="s">
+        <v>677</v>
+      </c>
+      <c r="D547" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A548" t="s">
+        <v>673</v>
+      </c>
+      <c r="B548" t="s">
+        <v>673</v>
+      </c>
+      <c r="C548" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A549" t="s">
+        <v>674</v>
+      </c>
+      <c r="B549" t="s">
+        <v>674</v>
+      </c>
+      <c r="C549" t="s">
+        <v>685</v>
+      </c>
+      <c r="D549" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A550" t="s">
+        <v>675</v>
+      </c>
+      <c r="B550" t="s">
+        <v>675</v>
+      </c>
+      <c r="C550" t="s">
+        <v>685</v>
+      </c>
+      <c r="D550" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A551" t="s">
+        <v>676</v>
+      </c>
+      <c r="B551" t="s">
+        <v>676</v>
+      </c>
+      <c r="C551" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A552" t="s">
+        <v>677</v>
+      </c>
+      <c r="B552" t="s">
+        <v>677</v>
+      </c>
+      <c r="C552" t="s">
+        <v>674</v>
+      </c>
+      <c r="D552" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A553" t="s">
+        <v>678</v>
+      </c>
+      <c r="B553" t="s">
+        <v>678</v>
+      </c>
+      <c r="C553" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A554" t="s">
+        <v>679</v>
+      </c>
+      <c r="B554" t="s">
+        <v>679</v>
+      </c>
+      <c r="C554" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A555" t="s">
+        <v>680</v>
+      </c>
+      <c r="B555" t="s">
+        <v>680</v>
+      </c>
+      <c r="C555" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A556" t="s">
+        <v>681</v>
+      </c>
+      <c r="B556" t="s">
+        <v>685</v>
+      </c>
+      <c r="C556" t="s">
+        <v>93</v>
+      </c>
+      <c r="D556" t="s">
+        <v>686</v>
+      </c>
+      <c r="E556" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A557" t="s">
+        <v>682</v>
+      </c>
+      <c r="B557" t="s">
+        <v>682</v>
+      </c>
+      <c r="C557" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A558" t="s">
+        <v>683</v>
+      </c>
+      <c r="B558" t="s">
+        <v>683</v>
+      </c>
+      <c r="C558" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A559" t="s">
+        <v>684</v>
+      </c>
+      <c r="B559" t="s">
+        <v>684</v>
+      </c>
+      <c r="C559" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A560" t="s">
+        <v>689</v>
+      </c>
+      <c r="B560" t="s">
+        <v>689</v>
+      </c>
+      <c r="C560" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A561" t="s">
+        <v>690</v>
+      </c>
+      <c r="B561" t="s">
+        <v>690</v>
+      </c>
+      <c r="C561" t="s">
+        <v>716</v>
+      </c>
+      <c r="D561" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A562" t="s">
+        <v>691</v>
+      </c>
+      <c r="B562" t="s">
+        <v>691</v>
+      </c>
+      <c r="C562" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A563" t="s">
+        <v>692</v>
+      </c>
+      <c r="B563" t="s">
+        <v>692</v>
+      </c>
+      <c r="C563" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A564" t="s">
+        <v>693</v>
+      </c>
+      <c r="B564" t="s">
+        <v>693</v>
+      </c>
+      <c r="C564" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A565" t="s">
+        <v>694</v>
+      </c>
+      <c r="B565" t="s">
+        <v>694</v>
+      </c>
+      <c r="C565" t="s">
+        <v>690</v>
+      </c>
+      <c r="D565" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A566" t="s">
+        <v>695</v>
+      </c>
+      <c r="B566" t="s">
+        <v>695</v>
+      </c>
+      <c r="C566" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A567" t="s">
+        <v>696</v>
+      </c>
+      <c r="B567" t="s">
+        <v>696</v>
+      </c>
+      <c r="C567" t="s">
+        <v>690</v>
+      </c>
+      <c r="D567" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A568" t="s">
+        <v>697</v>
+      </c>
+      <c r="B568" t="s">
+        <v>697</v>
+      </c>
+      <c r="C568" t="s">
+        <v>714</v>
+      </c>
+      <c r="D568" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A569" t="s">
+        <v>698</v>
+      </c>
+      <c r="B569" t="s">
+        <v>698</v>
+      </c>
+      <c r="C569" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A570" t="s">
+        <v>699</v>
+      </c>
+      <c r="B570" t="s">
+        <v>699</v>
+      </c>
+      <c r="C570" t="s">
+        <v>714</v>
+      </c>
+      <c r="D570" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A571" t="s">
+        <v>700</v>
+      </c>
+      <c r="B571" t="s">
+        <v>700</v>
+      </c>
+      <c r="C571" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A572" t="s">
+        <v>701</v>
+      </c>
+      <c r="B572" t="s">
+        <v>701</v>
+      </c>
+      <c r="C572" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A573" t="s">
+        <v>702</v>
+      </c>
+      <c r="B573" t="s">
+        <v>702</v>
+      </c>
+      <c r="C573" t="s">
+        <v>708</v>
+      </c>
+      <c r="D573" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A574" t="s">
+        <v>703</v>
+      </c>
+      <c r="B574" t="s">
+        <v>703</v>
+      </c>
+      <c r="C574" t="s">
+        <v>716</v>
+      </c>
+      <c r="D574" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A575" t="s">
+        <v>704</v>
+      </c>
+      <c r="B575" t="s">
+        <v>716</v>
+      </c>
+      <c r="C575" t="s">
+        <v>80</v>
+      </c>
+      <c r="D575" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A576" t="s">
+        <v>705</v>
+      </c>
+      <c r="B576" t="s">
+        <v>705</v>
+      </c>
+      <c r="C576" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A577" t="s">
+        <v>706</v>
+      </c>
+      <c r="B577" t="s">
+        <v>706</v>
+      </c>
+      <c r="C577" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A578" t="s">
+        <v>707</v>
+      </c>
+      <c r="B578" t="s">
+        <v>707</v>
+      </c>
+      <c r="C578" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A579" t="s">
+        <v>708</v>
+      </c>
+      <c r="B579" t="s">
+        <v>708</v>
+      </c>
+      <c r="C579" t="s">
+        <v>716</v>
+      </c>
+      <c r="D579" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A580" t="s">
+        <v>709</v>
+      </c>
+      <c r="B580" t="s">
+        <v>709</v>
+      </c>
+      <c r="C580" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A581" t="s">
+        <v>710</v>
+      </c>
+      <c r="B581" t="s">
+        <v>710</v>
+      </c>
+      <c r="C581" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A582" t="s">
+        <v>711</v>
+      </c>
+      <c r="B582" t="s">
+        <v>711</v>
+      </c>
+      <c r="C582" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A583" t="s">
+        <v>712</v>
+      </c>
+      <c r="B583" t="s">
+        <v>712</v>
+      </c>
+      <c r="C583" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A584" t="s">
+        <v>713</v>
+      </c>
+      <c r="B584" t="s">
+        <v>713</v>
+      </c>
+      <c r="C584" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A585" t="s">
+        <v>714</v>
+      </c>
+      <c r="B585" t="s">
+        <v>714</v>
+      </c>
+      <c r="C585" t="s">
+        <v>702</v>
+      </c>
+      <c r="D585" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A586" t="s">
+        <v>715</v>
+      </c>
+      <c r="B586" t="s">
+        <v>715</v>
+      </c>
+      <c r="C586" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF2BB04-6248-456D-B696-D17DD71C1F29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06C9B3A-287E-414B-AA92-50904D078601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100621D6-8B41-49AC-8A82-C1CE039474E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="764">
   <si>
     <t>Filename</t>
   </si>
@@ -2206,6 +2206,129 @@
   </si>
   <si>
     <t>arteries_rleg19, arteries_rleg11, arteries_rleg8</t>
+  </si>
+  <si>
+    <t>left_subclavian_vein</t>
+  </si>
+  <si>
+    <t>IN Point</t>
+  </si>
+  <si>
+    <t>veins0</t>
+  </si>
+  <si>
+    <t>veins1</t>
+  </si>
+  <si>
+    <t>veins2</t>
+  </si>
+  <si>
+    <t>veins3</t>
+  </si>
+  <si>
+    <t>veins4</t>
+  </si>
+  <si>
+    <t>veins5</t>
+  </si>
+  <si>
+    <t>veins6</t>
+  </si>
+  <si>
+    <t>veins7</t>
+  </si>
+  <si>
+    <t>veins8</t>
+  </si>
+  <si>
+    <t>veins9</t>
+  </si>
+  <si>
+    <t>veins10</t>
+  </si>
+  <si>
+    <t>veins11</t>
+  </si>
+  <si>
+    <t>veins12</t>
+  </si>
+  <si>
+    <t>veins13</t>
+  </si>
+  <si>
+    <t>veins14</t>
+  </si>
+  <si>
+    <t>veins15</t>
+  </si>
+  <si>
+    <t>veins16</t>
+  </si>
+  <si>
+    <t>veins17</t>
+  </si>
+  <si>
+    <t>veins18</t>
+  </si>
+  <si>
+    <t>veins19</t>
+  </si>
+  <si>
+    <t>veins20</t>
+  </si>
+  <si>
+    <t>veins21</t>
+  </si>
+  <si>
+    <t>veins22</t>
+  </si>
+  <si>
+    <t>veins23</t>
+  </si>
+  <si>
+    <t>veins24</t>
+  </si>
+  <si>
+    <t>veins25</t>
+  </si>
+  <si>
+    <t>veins26</t>
+  </si>
+  <si>
+    <t>veins27</t>
+  </si>
+  <si>
+    <t>veins28</t>
+  </si>
+  <si>
+    <t>veins29</t>
+  </si>
+  <si>
+    <t>veins30</t>
+  </si>
+  <si>
+    <t>veins31</t>
+  </si>
+  <si>
+    <t>veins32</t>
+  </si>
+  <si>
+    <t>veins33</t>
+  </si>
+  <si>
+    <t>left_brachiocephalic_vein</t>
+  </si>
+  <si>
+    <t>right_barchiocephalic_vein</t>
+  </si>
+  <si>
+    <t>left_jugular_vein</t>
+  </si>
+  <si>
+    <t>left_brachiocephalic_vein, veins8,</t>
+  </si>
+  <si>
+    <t>veins11, veins3</t>
   </si>
 </sst>
 </file>
@@ -2253,10 +2376,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2573,9 +2695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF27AB3-E048-4EA5-B18B-CA67C65A1148}">
   <dimension ref="A1:G586"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2621,7 +2743,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>717</v>
       </c>
       <c r="G2" t="s">
@@ -2773,7 +2895,6 @@
       <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -3298,7 +3419,7 @@
       <c r="D55" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9022,12 +9143,342 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF2BB04-6248-456D-B696-D17DD71C1F29}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="18.53125" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" t="s">
+        <v>729</v>
+      </c>
+      <c r="D10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B11" t="s">
+        <v>723</v>
+      </c>
+      <c r="C11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B13" t="s">
+        <v>732</v>
+      </c>
+      <c r="D13" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>733</v>
+      </c>
+      <c r="B14" t="s">
+        <v>733</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>734</v>
+      </c>
+      <c r="B15" t="s">
+        <v>760</v>
+      </c>
+      <c r="C15" t="s">
+        <v>763</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>736</v>
+      </c>
+      <c r="B17" t="s">
+        <v>736</v>
+      </c>
+      <c r="D17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100621D6-8B41-49AC-8A82-C1CE039474E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7C7C4C-8133-46A1-995E-054F8527980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="784">
   <si>
     <t>Filename</t>
   </si>
@@ -2329,6 +2329,66 @@
   </si>
   <si>
     <t>veins11, veins3</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art37, right_pulmonary_art144, right_pulmonary_art145, right_pulmonary_art150, right_pulmonary_art181, right_pulmonary_art55, right_pulmonary_art217, right_pulmonary_art220, right_pulmonary_art195, right_pulmonary_art0</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art28, right_pulmonary_art20, right_pulmonary_art22, right_pulmonary_art76, right_pulmonary_art75, right_pulmonary_art216, right_pulmonary_art78, right_pulmonary_art79, right_pulmonary_art115, right_pulmonary_art64, right_pulmonary_art70, right_pulmonary_art111, right_pulmonary_art132, right_pulmonary_art129, right_pulmonary_art171</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art148, right_pulmonary_art149</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art182, right_pulmonary_art183</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art61, right_pulmonary_art143</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art142, right_pulmonary_art69</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art218, right_pulmonary_art219</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art187, right_pulmonary_art34, right_pulmonary_art57, right_pulmonary_art147</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art188, right_pulmonary_art189</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art35, right_pulmonary_art56, right_pulmonary_art146</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art44, right_pulmonary_art45, right_pulmonary_art180, 179, right_pulmonary_art192, right_pulmonary_art194, right_pulmonary_art25</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art178, right_pulmonary_art177</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art60, right_pulmonary_art59</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art24, right_pulmonary_art26, right_pulmonary_art193</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art191, right_pulmonary_art190, right_pulmonary_art23, right_pulmonary_art55</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art168, right_pulmonary_art169</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art152, right_pulmonary_art65</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art215, right_pulmonary_art19</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art176, right_pulmonary_art51, right_pulmonary_art172, right_pulmonary_art46</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art71, right_pulmonary_art175</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2443,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2695,9 +2770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF27AB3-E048-4EA5-B18B-CA67C65A1148}">
   <dimension ref="A1:G586"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2708,7 +2783,7 @@
     <col min="4" max="4" width="28.46484375" customWidth="1"/>
     <col min="5" max="5" width="26.46484375" customWidth="1"/>
     <col min="6" max="6" width="7.86328125" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" customWidth="1"/>
     <col min="8" max="8" width="12.9296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3334,7 +3409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3345,7 +3420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3359,7 +3434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3370,7 +3445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3384,7 +3459,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3395,7 +3470,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3406,7 +3481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3423,7 +3498,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3434,7 +3509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3445,7 +3520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -3456,7 +3531,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -3467,7 +3542,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3478,7 +3553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -3488,8 +3563,11 @@
       <c r="C61" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3502,8 +3580,11 @@
       <c r="D62" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -3519,8 +3600,11 @@
       <c r="E63" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -3530,8 +3614,11 @@
       <c r="C64" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -3541,8 +3628,11 @@
       <c r="C65" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -3555,8 +3645,11 @@
       <c r="D66" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -3566,8 +3659,11 @@
       <c r="C67" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -3578,7 +3674,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -3589,7 +3685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -3603,7 +3699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -3614,7 +3710,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -3625,7 +3721,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -3639,7 +3735,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3650,7 +3746,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -3661,7 +3757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -3672,7 +3768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -3683,7 +3779,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -3694,7 +3790,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -3708,7 +3804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -6616,6 +6712,12 @@
       <c r="B308" t="s">
         <v>421</v>
       </c>
+      <c r="C308" t="s">
+        <v>449</v>
+      </c>
+      <c r="D308" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
@@ -6627,6 +6729,9 @@
       <c r="C309" t="s">
         <v>15</v>
       </c>
+      <c r="D309" t="s">
+        <v>765</v>
+      </c>
       <c r="G309" t="s">
         <v>21</v>
       </c>
@@ -6774,6 +6879,12 @@
       <c r="B327" t="s">
         <v>440</v>
       </c>
+      <c r="C327" t="s">
+        <v>491</v>
+      </c>
+      <c r="D327" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
@@ -6818,6 +6929,9 @@
       <c r="B331" t="s">
         <v>444</v>
       </c>
+      <c r="C331" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
@@ -6826,6 +6940,9 @@
       <c r="B332" t="s">
         <v>445</v>
       </c>
+      <c r="C332" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
@@ -6834,6 +6951,12 @@
       <c r="B333" t="s">
         <v>446</v>
       </c>
+      <c r="C333" t="s">
+        <v>616</v>
+      </c>
+      <c r="D333" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
@@ -6842,6 +6965,9 @@
       <c r="B334" t="s">
         <v>447</v>
       </c>
+      <c r="C334" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
@@ -6858,6 +6984,12 @@
       <c r="B336" t="s">
         <v>449</v>
       </c>
+      <c r="C336" t="s">
+        <v>15</v>
+      </c>
+      <c r="D336" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
@@ -6906,6 +7038,9 @@
       <c r="B342" t="s">
         <v>455</v>
       </c>
+      <c r="C342" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
@@ -6914,6 +7049,9 @@
       <c r="B343" t="s">
         <v>456</v>
       </c>
+      <c r="C343" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
@@ -6933,6 +7071,9 @@
       <c r="B345" t="s">
         <v>458</v>
       </c>
+      <c r="C345" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
@@ -6992,24 +7133,33 @@
       <c r="B352" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C352" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>466</v>
       </c>
       <c r="B353" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C353" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>467</v>
       </c>
       <c r="B354" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C354" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>468</v>
       </c>
@@ -7017,7 +7167,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>469</v>
       </c>
@@ -7025,7 +7175,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>470</v>
       </c>
@@ -7033,7 +7183,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>471</v>
       </c>
@@ -7041,15 +7191,18 @@
         <v>471</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>472</v>
       </c>
       <c r="B359" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C359" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>473</v>
       </c>
@@ -7057,15 +7210,18 @@
         <v>473</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>474</v>
       </c>
       <c r="B361" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C361" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>475</v>
       </c>
@@ -7073,31 +7229,46 @@
         <v>475</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>476</v>
       </c>
       <c r="B363" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C363" t="s">
+        <v>449</v>
+      </c>
+      <c r="D363" t="s">
+        <v>768</v>
+      </c>
+      <c r="E363" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>477</v>
       </c>
       <c r="B364" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C364" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>478</v>
       </c>
       <c r="B365" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C365" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>479</v>
       </c>
@@ -7105,31 +7276,40 @@
         <v>479</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>480</v>
       </c>
       <c r="B367" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C367" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>481</v>
       </c>
       <c r="B368" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C368" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>482</v>
       </c>
       <c r="B369" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C369" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>483</v>
       </c>
@@ -7137,7 +7317,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>484</v>
       </c>
@@ -7145,23 +7325,35 @@
         <v>484</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>485</v>
       </c>
       <c r="B372" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C372" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>486</v>
       </c>
       <c r="B373" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C373" t="s">
+        <v>590</v>
+      </c>
+      <c r="D373" t="s">
+        <v>572</v>
+      </c>
+      <c r="E373" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>487</v>
       </c>
@@ -7169,7 +7361,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>488</v>
       </c>
@@ -7177,7 +7369,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>489</v>
       </c>
@@ -7185,31 +7377,43 @@
         <v>489</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>490</v>
       </c>
       <c r="B377" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C377" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>491</v>
       </c>
       <c r="B378" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C378" t="s">
+        <v>643</v>
+      </c>
+      <c r="D378" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>492</v>
       </c>
       <c r="B379" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C379" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>493</v>
       </c>
@@ -7217,7 +7421,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>494</v>
       </c>
@@ -7225,7 +7429,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>495</v>
       </c>
@@ -7233,7 +7437,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>496</v>
       </c>
@@ -7244,7 +7448,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>497</v>
       </c>
@@ -7255,7 +7459,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>498</v>
       </c>
@@ -7263,15 +7467,21 @@
         <v>498</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>499</v>
       </c>
       <c r="B386" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C386" t="s">
+        <v>643</v>
+      </c>
+      <c r="D386" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>500</v>
       </c>
@@ -7279,7 +7489,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>501</v>
       </c>
@@ -7287,7 +7497,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>502</v>
       </c>
@@ -7295,7 +7505,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>503</v>
       </c>
@@ -7303,7 +7513,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>504</v>
       </c>
@@ -7311,7 +7521,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>505</v>
       </c>
@@ -7319,7 +7529,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>506</v>
       </c>
@@ -7327,7 +7537,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>507</v>
       </c>
@@ -7335,7 +7545,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>508</v>
       </c>
@@ -7343,7 +7553,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>509</v>
       </c>
@@ -7351,7 +7561,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>510</v>
       </c>
@@ -7359,7 +7569,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>511</v>
       </c>
@@ -7367,7 +7577,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>512</v>
       </c>
@@ -7375,7 +7585,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>513</v>
       </c>
@@ -7767,103 +7977,160 @@
         <v>561</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>562</v>
       </c>
       <c r="B449" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C449" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>563</v>
       </c>
       <c r="B450" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C450" t="s">
+        <v>564</v>
+      </c>
+      <c r="D450" t="s">
+        <v>562</v>
+      </c>
+      <c r="E450" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>564</v>
       </c>
       <c r="B451" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C451" t="s">
+        <v>476</v>
+      </c>
+      <c r="D451" t="s">
+        <v>769</v>
+      </c>
+      <c r="E451" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>565</v>
       </c>
       <c r="B452" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C452" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>566</v>
       </c>
       <c r="B453" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C453" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>567</v>
       </c>
       <c r="B454" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C454" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>568</v>
       </c>
       <c r="B455" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C455" t="s">
+        <v>641</v>
+      </c>
+      <c r="D455" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>569</v>
       </c>
       <c r="B456" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C456" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>570</v>
       </c>
       <c r="B457" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C457" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>571</v>
       </c>
       <c r="B458" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C458" t="s">
+        <v>449</v>
+      </c>
+      <c r="D458" t="s">
+        <v>766</v>
+      </c>
+      <c r="E458" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>572</v>
       </c>
       <c r="B459" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C459" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>573</v>
       </c>
       <c r="B460" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C460" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>574</v>
       </c>
@@ -7871,7 +8138,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>575</v>
       </c>
@@ -7879,7 +8146,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>576</v>
       </c>
@@ -7887,7 +8154,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>577</v>
       </c>
@@ -8008,6 +8275,9 @@
       <c r="B476" t="s">
         <v>589</v>
       </c>
+      <c r="C476" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
@@ -8016,6 +8286,15 @@
       <c r="B477" t="s">
         <v>590</v>
       </c>
+      <c r="C477" t="s">
+        <v>421</v>
+      </c>
+      <c r="D477" t="s">
+        <v>780</v>
+      </c>
+      <c r="E477" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
@@ -8040,8 +8319,11 @@
       <c r="B480" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C480" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>594</v>
       </c>
@@ -8052,7 +8334,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>595</v>
       </c>
@@ -8063,79 +8345,118 @@
         <v>443</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>596</v>
       </c>
       <c r="B483" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C483" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>597</v>
       </c>
       <c r="B484" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C484" t="s">
+        <v>499</v>
+      </c>
+      <c r="D484" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>598</v>
       </c>
       <c r="B485" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C485" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>599</v>
       </c>
       <c r="B486" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C486" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>600</v>
       </c>
       <c r="B487" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C487" t="s">
+        <v>616</v>
+      </c>
+      <c r="D487" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>601</v>
       </c>
       <c r="B488" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C488" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>602</v>
       </c>
       <c r="B489" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C489" t="s">
+        <v>449</v>
+      </c>
+      <c r="D489" t="s">
+        <v>767</v>
+      </c>
+      <c r="E489" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>603</v>
       </c>
       <c r="B490" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C490" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>604</v>
       </c>
       <c r="B491" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C491" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>605</v>
       </c>
@@ -8143,7 +8464,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>606</v>
       </c>
@@ -8151,7 +8472,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>607</v>
       </c>
@@ -8159,79 +8480,121 @@
         <v>607</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>608</v>
       </c>
       <c r="B495" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C495" t="s">
+        <v>641</v>
+      </c>
+      <c r="D495" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>609</v>
       </c>
       <c r="B496" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C496" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>610</v>
       </c>
       <c r="B497" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C497" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>611</v>
       </c>
       <c r="B498" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C498" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>612</v>
       </c>
       <c r="B499" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C499" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>613</v>
       </c>
       <c r="B500" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C500" t="s">
+        <v>616</v>
+      </c>
+      <c r="D500" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>614</v>
       </c>
       <c r="B501" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C501" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>615</v>
       </c>
       <c r="B502" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C502" t="s">
+        <v>616</v>
+      </c>
+      <c r="D502" t="s">
+        <v>776</v>
+      </c>
+      <c r="E502" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>616</v>
       </c>
       <c r="B503" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C503" t="s">
+        <v>449</v>
+      </c>
+      <c r="D503" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>617</v>
       </c>
@@ -8239,7 +8602,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>618</v>
       </c>
@@ -8247,7 +8610,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>619</v>
       </c>
@@ -8255,7 +8618,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>620</v>
       </c>
@@ -8263,7 +8626,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>621</v>
       </c>
@@ -8271,7 +8634,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>622</v>
       </c>
@@ -8279,7 +8642,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>623</v>
       </c>
@@ -8287,7 +8650,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>624</v>
       </c>
@@ -8295,7 +8658,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>625</v>
       </c>
@@ -8303,7 +8666,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>626</v>
       </c>
@@ -8311,7 +8674,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>627</v>
       </c>
@@ -8319,23 +8682,32 @@
         <v>627</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>628</v>
       </c>
       <c r="B515" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C515" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>629</v>
       </c>
       <c r="B516" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C516" t="s">
+        <v>440</v>
+      </c>
+      <c r="D516" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>630</v>
       </c>
@@ -8343,7 +8715,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>631</v>
       </c>
@@ -8351,7 +8723,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>632</v>
       </c>
@@ -8359,7 +8731,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>633</v>
       </c>
@@ -8367,7 +8739,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>634</v>
       </c>
@@ -8375,7 +8747,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>635</v>
       </c>
@@ -8383,15 +8755,18 @@
         <v>635</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>636</v>
       </c>
       <c r="B523" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C523" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>637</v>
       </c>
@@ -8399,36 +8774,57 @@
         <v>637</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>638</v>
       </c>
       <c r="B525" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C525" t="s">
+        <v>449</v>
+      </c>
+      <c r="D525" t="s">
+        <v>770</v>
+      </c>
+      <c r="E525" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>639</v>
       </c>
       <c r="B526" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C526" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>640</v>
       </c>
       <c r="B527" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C527" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>641</v>
       </c>
       <c r="B528" t="s">
         <v>641</v>
+      </c>
+      <c r="C528" t="s">
+        <v>449</v>
+      </c>
+      <c r="D528" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -9137,7 +9533,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G586">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(G2))=0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(G2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9145,7 +9550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF2BB04-6248-456D-B696-D17DD71C1F29}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7C7C4C-8133-46A1-995E-054F8527980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC7331-9B98-4E6B-AD05-9315A3695AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2373,9 +2373,6 @@
     <t>right_pulmonary_art24, right_pulmonary_art26, right_pulmonary_art193</t>
   </si>
   <si>
-    <t>right_pulmonary_art191, right_pulmonary_art190, right_pulmonary_art23, right_pulmonary_art55</t>
-  </si>
-  <si>
     <t>right_pulmonary_art168, right_pulmonary_art169</t>
   </si>
   <si>
@@ -2389,6 +2386,123 @@
   </si>
   <si>
     <t>right_pulmonary_art71, right_pulmonary_art175</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art21, right_pulmonary_art27, right_pulmonary_art41, right_pulmonary_art62, right_pulmonary_art116, right_pulmonary_art62, right_pulmonary_art119, right_pulmonary_art121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right_pulmonary_art117, right_pulmonary_art118 </t>
+  </si>
+  <si>
+    <t>right_pulmonary_art125, right_pulmonary_art104, right_pulmonary_art122, right_pulmonary_art123</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art124, right_pulmonary_art52</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art134, right_pulmonary_art40</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art92, right_pulmonary_art102, right_pulmonary_art15, right_pulmonary_art16</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art3, right_pulmonary_art101, right_pulmonary_art5, right_pulmonary_art6, right_pulmonary_art4, right_pulmonary_art160</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art89, right_pulmonary_art109</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art103, right_pulmonary_art157, right_pulmonary_art158, right_pulmonary_art159, right_pulmonary_art211</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art209, right_pulmonary_art96</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art42, right_pulmonary_art58, right_pulmonary_art87, right_pulmonary_art140, right_pulmonary_art170</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art156, right_pulmonary_art86</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art163, right_pulmonary_art105, right_pulmonary_art108</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art105, right_pulmonary_art108</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art155, right_pulmonary_art88</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art153, right_pulmonary_art154</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art49, right_pulmonary_art135, right_pulmonary_art136, right_pulmonary_art72, right_pulmonary_art137, right_pulmonary_art138, right_pulmonary_art139</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art73, right_pulmonary_art74</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art32, right_pulmonary_art33</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art131, right_pulmonary_art68</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art130, right_pulmonary_art48</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art63, right_pulmonary_art66</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art7, right_pulmonary_art14, right_pulmonary_art196, right_pulmonary_art18</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art98, right_pulmonary_art97, right_pulmonary_art198, right_pulmonary_art199, right_pulmonary_art200, right_pulmonary_art205</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art197, right_pulmonary_art95, right_pulmonary_art107</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art95, right_pulmonary_art107</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art99, right_pulmonary_art204</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art203, right_pulmonary_art94</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art202, right_pulmonary_art201</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art2, right_pulmonary_art161, right_pulmonary_art11, right_pulmonary_art8, right_pulmonary_art12, right_pulmonary_art214</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art212, right_pulmonary_art114</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art81, right_pulmonary_art100, right_pulmonary_art84, right_pulmonary_art113, right_pulmonary_art10</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art9, right_pulmonary_art83</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art17, right_pulmonary_art93, right_pulmonary_art213</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art208, right_pulmonary_art206</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art90, right_pulmonary_art184</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art128, right_pulmonary_art127, right_pulmonary_art126, right_pulmonary_art50, right_pulmonary_art30</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art29, right_pulmonary_art47</t>
+  </si>
+  <si>
+    <t>right_pulmonary_art191, right_pulmonary_art190, right_pulmonary_art23, right_pulmonary_art55, right_pulmonary_art54</t>
   </si>
 </sst>
 </file>
@@ -2771,8 +2885,8 @@
   <dimension ref="A1:G586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D379" sqref="D379"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3673,6 +3787,9 @@
       <c r="C68" t="s">
         <v>114</v>
       </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
@@ -3684,6 +3801,9 @@
       <c r="C69" t="s">
         <v>118</v>
       </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
@@ -3698,6 +3818,9 @@
       <c r="D70" t="s">
         <v>119</v>
       </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
@@ -3709,6 +3832,9 @@
       <c r="C71" t="s">
         <v>115</v>
       </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
@@ -3720,6 +3846,9 @@
       <c r="C72" t="s">
         <v>114</v>
       </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
@@ -3734,6 +3863,9 @@
       <c r="D73" t="s">
         <v>115</v>
       </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
@@ -6716,7 +6848,7 @@
         <v>449</v>
       </c>
       <c r="D308" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.45">
@@ -6743,6 +6875,9 @@
       <c r="B310" t="s">
         <v>423</v>
       </c>
+      <c r="C310" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
@@ -6751,6 +6886,12 @@
       <c r="B311" t="s">
         <v>424</v>
       </c>
+      <c r="C311" t="s">
+        <v>637</v>
+      </c>
+      <c r="D311" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
@@ -6759,6 +6900,12 @@
       <c r="B312" t="s">
         <v>425</v>
       </c>
+      <c r="C312" t="s">
+        <v>637</v>
+      </c>
+      <c r="D312" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
@@ -6767,6 +6914,12 @@
       <c r="B313" t="s">
         <v>426</v>
       </c>
+      <c r="C313" t="s">
+        <v>637</v>
+      </c>
+      <c r="D313" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
@@ -6775,6 +6928,12 @@
       <c r="B314" t="s">
         <v>427</v>
       </c>
+      <c r="C314" t="s">
+        <v>637</v>
+      </c>
+      <c r="D314" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
@@ -6783,6 +6942,12 @@
       <c r="B315" t="s">
         <v>428</v>
       </c>
+      <c r="C315" t="s">
+        <v>536</v>
+      </c>
+      <c r="D315" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
@@ -6791,6 +6956,12 @@
       <c r="B316" t="s">
         <v>429</v>
       </c>
+      <c r="C316" t="s">
+        <v>435</v>
+      </c>
+      <c r="D316" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
@@ -6799,6 +6970,9 @@
       <c r="B317" t="s">
         <v>430</v>
       </c>
+      <c r="C317" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
@@ -6807,6 +6981,12 @@
       <c r="B318" t="s">
         <v>431</v>
       </c>
+      <c r="C318" t="s">
+        <v>432</v>
+      </c>
+      <c r="D318" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
@@ -6815,6 +6995,12 @@
       <c r="B319" t="s">
         <v>432</v>
       </c>
+      <c r="C319" t="s">
+        <v>435</v>
+      </c>
+      <c r="D319" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
@@ -6823,56 +7009,95 @@
       <c r="B320" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C320" t="s">
+        <v>435</v>
+      </c>
+      <c r="D320" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>434</v>
       </c>
       <c r="B321" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C321" t="s">
+        <v>433</v>
+      </c>
+      <c r="D321" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>435</v>
       </c>
       <c r="B322" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C322" t="s">
+        <v>536</v>
+      </c>
+      <c r="D322" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>436</v>
       </c>
       <c r="B323" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C323" t="s">
+        <v>532</v>
+      </c>
+      <c r="D323" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>437</v>
       </c>
       <c r="B324" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C324" t="s">
+        <v>532</v>
+      </c>
+      <c r="D324" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>438</v>
       </c>
       <c r="B325" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C325" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>439</v>
       </c>
       <c r="B326" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C326" t="s">
+        <v>536</v>
+      </c>
+      <c r="D326" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>440</v>
       </c>
@@ -6883,10 +7108,10 @@
         <v>491</v>
       </c>
       <c r="D327" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>441</v>
       </c>
@@ -6900,15 +7125,21 @@
         <v>645</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>442</v>
       </c>
       <c r="B329" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C329" t="s">
+        <v>500</v>
+      </c>
+      <c r="D329" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>443</v>
       </c>
@@ -6922,7 +7153,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>444</v>
       </c>
@@ -6933,7 +7164,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>445</v>
       </c>
@@ -6944,7 +7175,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>446</v>
       </c>
@@ -6958,7 +7189,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>447</v>
       </c>
@@ -6969,15 +7200,24 @@
         <v>446</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>448</v>
       </c>
       <c r="B335" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C335" t="s">
+        <v>500</v>
+      </c>
+      <c r="D335" t="s">
+        <v>459</v>
+      </c>
+      <c r="E335" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>449</v>
       </c>
@@ -6985,53 +7225,80 @@
         <v>449</v>
       </c>
       <c r="C336" t="s">
-        <v>15</v>
+        <v>643</v>
       </c>
       <c r="D336" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>450</v>
       </c>
       <c r="B337" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C337" t="s">
+        <v>451</v>
+      </c>
+      <c r="D337" t="s">
+        <v>488</v>
+      </c>
+      <c r="E337" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>451</v>
       </c>
       <c r="B338" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C338" t="s">
+        <v>550</v>
+      </c>
+      <c r="D338" t="s">
+        <v>820</v>
+      </c>
+      <c r="E338" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>452</v>
       </c>
       <c r="B339" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C339" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>453</v>
       </c>
       <c r="B340" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C340" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>454</v>
       </c>
       <c r="B341" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C341" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>455</v>
       </c>
@@ -7042,7 +7309,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>456</v>
       </c>
@@ -7053,7 +7320,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>457</v>
       </c>
@@ -7064,7 +7331,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>458</v>
       </c>
@@ -7075,47 +7342,68 @@
         <v>449</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>459</v>
       </c>
       <c r="B346" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C346" t="s">
+        <v>448</v>
+      </c>
+      <c r="D346" t="s">
+        <v>784</v>
+      </c>
+      <c r="E346" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>460</v>
       </c>
       <c r="B347" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C347" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>461</v>
       </c>
       <c r="B348" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C348" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>462</v>
       </c>
       <c r="B349" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C349" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>463</v>
       </c>
       <c r="B350" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C350" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>464</v>
       </c>
@@ -7126,7 +7414,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>465</v>
       </c>
@@ -7166,6 +7454,9 @@
       <c r="B355" t="s">
         <v>468</v>
       </c>
+      <c r="C355" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
@@ -7174,6 +7465,9 @@
       <c r="B356" t="s">
         <v>469</v>
       </c>
+      <c r="C356" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
@@ -7182,6 +7476,9 @@
       <c r="B357" t="s">
         <v>470</v>
       </c>
+      <c r="C357" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
@@ -7190,6 +7487,9 @@
       <c r="B358" t="s">
         <v>471</v>
       </c>
+      <c r="C358" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
@@ -7209,6 +7509,9 @@
       <c r="B360" t="s">
         <v>473</v>
       </c>
+      <c r="C360" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
@@ -7228,6 +7531,9 @@
       <c r="B362" t="s">
         <v>475</v>
       </c>
+      <c r="C362" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
@@ -7275,6 +7581,9 @@
       <c r="B366" t="s">
         <v>479</v>
       </c>
+      <c r="C366" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
@@ -7316,6 +7625,9 @@
       <c r="B370" t="s">
         <v>483</v>
       </c>
+      <c r="C370" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
@@ -7324,6 +7636,12 @@
       <c r="B371" t="s">
         <v>484</v>
       </c>
+      <c r="C371" t="s">
+        <v>548</v>
+      </c>
+      <c r="D371" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
@@ -7360,6 +7678,9 @@
       <c r="B374" t="s">
         <v>487</v>
       </c>
+      <c r="C374" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
@@ -7376,6 +7697,9 @@
       <c r="B376" t="s">
         <v>489</v>
       </c>
+      <c r="C376" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
@@ -7399,7 +7723,7 @@
         <v>643</v>
       </c>
       <c r="D378" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.45">
@@ -7420,6 +7744,12 @@
       <c r="B380" t="s">
         <v>493</v>
       </c>
+      <c r="C380" t="s">
+        <v>561</v>
+      </c>
+      <c r="D380" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
@@ -7428,6 +7758,9 @@
       <c r="B381" t="s">
         <v>494</v>
       </c>
+      <c r="C381" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
@@ -7436,6 +7769,9 @@
       <c r="B382" t="s">
         <v>495</v>
       </c>
+      <c r="C382" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
@@ -7459,15 +7795,18 @@
         <v>643</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>498</v>
       </c>
       <c r="B385" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C385" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>499</v>
       </c>
@@ -7478,503 +7817,779 @@
         <v>643</v>
       </c>
       <c r="D386" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>500</v>
       </c>
       <c r="B387" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C387" t="s">
+        <v>643</v>
+      </c>
+      <c r="D387" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>501</v>
       </c>
       <c r="B388" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C388" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>502</v>
       </c>
       <c r="B389" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C389" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>503</v>
       </c>
       <c r="B390" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C390" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>504</v>
       </c>
       <c r="B391" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C391" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>505</v>
       </c>
       <c r="B392" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C392" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>506</v>
       </c>
       <c r="B393" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C393" t="s">
+        <v>507</v>
+      </c>
+      <c r="D393" t="s">
+        <v>795</v>
+      </c>
+      <c r="E393" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>507</v>
       </c>
       <c r="B394" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C394" t="s">
+        <v>508</v>
+      </c>
+      <c r="D394" t="s">
+        <v>506</v>
+      </c>
+      <c r="E394" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>508</v>
       </c>
       <c r="B395" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C395" t="s">
+        <v>592</v>
+      </c>
+      <c r="D395" t="s">
+        <v>794</v>
+      </c>
+      <c r="E395" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>509</v>
       </c>
       <c r="B396" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C396" t="s">
+        <v>577</v>
+      </c>
+      <c r="D396" t="s">
+        <v>798</v>
+      </c>
+      <c r="E396" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>510</v>
       </c>
       <c r="B397" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C397" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>511</v>
       </c>
       <c r="B398" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C398" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>512</v>
       </c>
       <c r="B399" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C399" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>513</v>
       </c>
       <c r="B400" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C400" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>514</v>
       </c>
       <c r="B401" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C401" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>515</v>
       </c>
       <c r="B402" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C402" t="s">
+        <v>625</v>
+      </c>
+      <c r="D402" t="s">
+        <v>527</v>
+      </c>
+      <c r="E402" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>516</v>
       </c>
       <c r="B403" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C403" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>517</v>
       </c>
       <c r="B404" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C404" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>518</v>
       </c>
       <c r="B405" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C405" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>519</v>
       </c>
       <c r="B406" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C406" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>520</v>
       </c>
       <c r="B407" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C407" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>521</v>
       </c>
       <c r="B408" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C408" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>522</v>
       </c>
       <c r="B409" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C409" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>523</v>
       </c>
       <c r="B410" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C410" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>524</v>
       </c>
       <c r="B411" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C411" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>525</v>
       </c>
       <c r="B412" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C412" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>526</v>
       </c>
       <c r="B413" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C413" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>527</v>
       </c>
       <c r="B414" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C414" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>528</v>
       </c>
       <c r="B415" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C415" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>529</v>
       </c>
       <c r="B416" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C416" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>530</v>
       </c>
       <c r="B417" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C417" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>531</v>
       </c>
       <c r="B418" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C418" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>532</v>
       </c>
       <c r="B419" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C419" t="s">
+        <v>643</v>
+      </c>
+      <c r="D419" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>533</v>
       </c>
       <c r="B420" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C420" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>534</v>
       </c>
       <c r="B421" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C421" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>535</v>
       </c>
       <c r="B422" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C422" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>536</v>
       </c>
       <c r="B423" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C423" t="s">
+        <v>643</v>
+      </c>
+      <c r="D423" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>537</v>
       </c>
       <c r="B424" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C424" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>538</v>
       </c>
       <c r="B425" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C425" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>539</v>
       </c>
       <c r="B426" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C426" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>540</v>
       </c>
       <c r="B427" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C427" t="s">
+        <v>500</v>
+      </c>
+      <c r="D427" t="s">
+        <v>498</v>
+      </c>
+      <c r="E427" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>541</v>
       </c>
       <c r="B428" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C428" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>542</v>
       </c>
       <c r="B429" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C429" t="s">
+        <v>500</v>
+      </c>
+      <c r="D429" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>543</v>
       </c>
       <c r="B430" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C430" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>544</v>
       </c>
       <c r="B431" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C431" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>545</v>
       </c>
       <c r="B432" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C432" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>546</v>
       </c>
       <c r="B433" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C433" t="s">
+        <v>542</v>
+      </c>
+      <c r="D433" t="s">
+        <v>786</v>
+      </c>
+      <c r="E433" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>547</v>
       </c>
       <c r="B434" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C434" t="s">
+        <v>550</v>
+      </c>
+      <c r="D434" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>548</v>
       </c>
       <c r="B435" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C435" t="s">
+        <v>550</v>
+      </c>
+      <c r="D435" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>549</v>
       </c>
       <c r="B436" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C436" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>550</v>
       </c>
       <c r="B437" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C437" t="s">
+        <v>643</v>
+      </c>
+      <c r="D437" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>551</v>
       </c>
       <c r="B438" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C438" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>552</v>
       </c>
       <c r="B439" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C439" t="s">
+        <v>553</v>
+      </c>
+      <c r="D439" t="s">
+        <v>803</v>
+      </c>
+      <c r="E439" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>553</v>
       </c>
       <c r="B440" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C440" t="s">
+        <v>643</v>
+      </c>
+      <c r="D440" t="s">
+        <v>802</v>
+      </c>
+      <c r="E440" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>554</v>
       </c>
       <c r="B441" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C441" t="s">
+        <v>643</v>
+      </c>
+      <c r="D441" t="s">
+        <v>787</v>
+      </c>
+      <c r="E441" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>555</v>
       </c>
       <c r="B442" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C442" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>556</v>
       </c>
       <c r="B443" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C443" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>557</v>
       </c>
       <c r="B444" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C444" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>558</v>
       </c>
       <c r="B445" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C445" t="s">
+        <v>561</v>
+      </c>
+      <c r="D445" t="s">
+        <v>800</v>
+      </c>
+      <c r="E445" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>559</v>
       </c>
       <c r="B446" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C446" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>560</v>
       </c>
       <c r="B447" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C447" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>561</v>
       </c>
       <c r="B448" t="s">
         <v>561</v>
+      </c>
+      <c r="C448" t="s">
+        <v>592</v>
+      </c>
+      <c r="D448" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.45">
@@ -8137,6 +8752,9 @@
       <c r="B461" t="s">
         <v>574</v>
       </c>
+      <c r="C461" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
@@ -8145,6 +8763,9 @@
       <c r="B462" t="s">
         <v>575</v>
       </c>
+      <c r="C462" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
@@ -8153,6 +8774,15 @@
       <c r="B463" t="s">
         <v>576</v>
       </c>
+      <c r="C463" t="s">
+        <v>577</v>
+      </c>
+      <c r="D463" t="s">
+        <v>512</v>
+      </c>
+      <c r="E463" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
@@ -8161,6 +8791,15 @@
       <c r="B464" t="s">
         <v>577</v>
       </c>
+      <c r="C464" t="s">
+        <v>508</v>
+      </c>
+      <c r="D464" t="s">
+        <v>797</v>
+      </c>
+      <c r="E464" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
@@ -8169,6 +8808,9 @@
       <c r="B465" t="s">
         <v>578</v>
       </c>
+      <c r="C465" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
@@ -8177,6 +8819,9 @@
       <c r="B466" t="s">
         <v>579</v>
       </c>
+      <c r="C466" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
@@ -8185,6 +8830,9 @@
       <c r="B467" t="s">
         <v>580</v>
       </c>
+      <c r="C467" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
@@ -8193,6 +8841,9 @@
       <c r="B468" t="s">
         <v>581</v>
       </c>
+      <c r="C468" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
@@ -8201,6 +8852,9 @@
       <c r="B469" t="s">
         <v>582</v>
       </c>
+      <c r="C469" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
@@ -8209,6 +8863,9 @@
       <c r="B470" t="s">
         <v>583</v>
       </c>
+      <c r="C470" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
@@ -8217,6 +8874,12 @@
       <c r="B471" t="s">
         <v>584</v>
       </c>
+      <c r="C471" t="s">
+        <v>506</v>
+      </c>
+      <c r="D471" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
@@ -8290,10 +8953,10 @@
         <v>421</v>
       </c>
       <c r="D477" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E477" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.45">
@@ -8303,6 +8966,9 @@
       <c r="B478" t="s">
         <v>591</v>
       </c>
+      <c r="C478" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
@@ -8311,6 +8977,12 @@
       <c r="B479" t="s">
         <v>592</v>
       </c>
+      <c r="C479" t="s">
+        <v>643</v>
+      </c>
+      <c r="D479" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
@@ -8367,7 +9039,7 @@
         <v>499</v>
       </c>
       <c r="D484" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.45">
@@ -8463,6 +9135,9 @@
       <c r="B492" t="s">
         <v>605</v>
       </c>
+      <c r="C492" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
@@ -8471,6 +9146,9 @@
       <c r="B493" t="s">
         <v>606</v>
       </c>
+      <c r="C493" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
@@ -8479,6 +9157,9 @@
       <c r="B494" t="s">
         <v>607</v>
       </c>
+      <c r="C494" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
@@ -8549,7 +9230,7 @@
         <v>616</v>
       </c>
       <c r="D500" t="s">
-        <v>778</v>
+        <v>821</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.45">
@@ -8601,6 +9282,12 @@
       <c r="B504" t="s">
         <v>617</v>
       </c>
+      <c r="C504" t="s">
+        <v>536</v>
+      </c>
+      <c r="D504" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
@@ -8609,6 +9296,9 @@
       <c r="B505" t="s">
         <v>618</v>
       </c>
+      <c r="C505" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
@@ -8617,6 +9307,15 @@
       <c r="B506" t="s">
         <v>619</v>
       </c>
+      <c r="C506" t="s">
+        <v>428</v>
+      </c>
+      <c r="D506" t="s">
+        <v>807</v>
+      </c>
+      <c r="E506" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
@@ -8625,6 +9324,9 @@
       <c r="B507" t="s">
         <v>620</v>
       </c>
+      <c r="C507" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
@@ -8633,6 +9335,9 @@
       <c r="B508" t="s">
         <v>621</v>
       </c>
+      <c r="C508" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
@@ -8641,6 +9346,9 @@
       <c r="B509" t="s">
         <v>622</v>
       </c>
+      <c r="C509" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
@@ -8649,6 +9357,9 @@
       <c r="B510" t="s">
         <v>623</v>
       </c>
+      <c r="C510" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
@@ -8657,6 +9368,15 @@
       <c r="B511" t="s">
         <v>624</v>
       </c>
+      <c r="C511" t="s">
+        <v>625</v>
+      </c>
+      <c r="D511" t="s">
+        <v>811</v>
+      </c>
+      <c r="E511" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
@@ -8665,6 +9385,15 @@
       <c r="B512" t="s">
         <v>625</v>
       </c>
+      <c r="C512" t="s">
+        <v>626</v>
+      </c>
+      <c r="D512" t="s">
+        <v>810</v>
+      </c>
+      <c r="E512" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
@@ -8673,6 +9402,15 @@
       <c r="B513" t="s">
         <v>626</v>
       </c>
+      <c r="C513" t="s">
+        <v>428</v>
+      </c>
+      <c r="D513" t="s">
+        <v>809</v>
+      </c>
+      <c r="E513" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
@@ -8681,6 +9419,9 @@
       <c r="B514" t="s">
         <v>627</v>
       </c>
+      <c r="C514" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
@@ -8714,6 +9455,12 @@
       <c r="B517" t="s">
         <v>630</v>
       </c>
+      <c r="C517" t="s">
+        <v>632</v>
+      </c>
+      <c r="D517" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
@@ -8722,6 +9469,9 @@
       <c r="B518" t="s">
         <v>631</v>
       </c>
+      <c r="C518" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
@@ -8730,6 +9480,12 @@
       <c r="B519" t="s">
         <v>632</v>
       </c>
+      <c r="C519" t="s">
+        <v>424</v>
+      </c>
+      <c r="D519" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
@@ -8738,6 +9494,9 @@
       <c r="B520" t="s">
         <v>633</v>
       </c>
+      <c r="C520" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
@@ -8746,6 +9505,9 @@
       <c r="B521" t="s">
         <v>634</v>
       </c>
+      <c r="C521" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
@@ -8754,6 +9516,12 @@
       <c r="B522" t="s">
         <v>635</v>
       </c>
+      <c r="C522" t="s">
+        <v>435</v>
+      </c>
+      <c r="D522" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
@@ -8772,6 +9540,12 @@
       </c>
       <c r="B524" t="s">
         <v>637</v>
+      </c>
+      <c r="C524" t="s">
+        <v>643</v>
+      </c>
+      <c r="D524" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.45">

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\GitRemoteRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC7331-9B98-4E6B-AD05-9315A3695AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{47D125F6-3825-4931-A32B-8D8704670F39}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
     <sheet name="veins" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="825">
   <si>
     <t>Filename</t>
   </si>
@@ -2503,12 +2502,21 @@
   </si>
   <si>
     <t>right_pulmonary_art191, right_pulmonary_art190, right_pulmonary_art23, right_pulmonary_art55, right_pulmonary_art54</t>
+  </si>
+  <si>
+    <t>, left_external_iliac_arterysplenic_artery, superior_mesenteric_artery, left_common_cartoid_artery, left_subclavian_artery, inferior_mesenteric_artery, right_external_iliac_artery, arteries_lumb0, arteries_lumb1, arteries_lumb2, arteries_lumb3, arteries_lumb4, arteries_lumb5, arteries_lumb6, left_superior_renal_artery, left_inferior_renal_artery, right_superior_renal_artery, right_inferior_renal_artery</t>
+  </si>
+  <si>
+    <t>right_leg_artery, right_internal_iliac_artery, arteries46</t>
+  </si>
+  <si>
+    <t>arteries14, arteries15, arteries23, left_internal_illiac_artery, left_leg_artery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2550,9 +2558,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2881,27 +2890,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF27AB3-E048-4EA5-B18B-CA67C65A1148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" customWidth="1"/>
-    <col min="4" max="4" width="28.46484375" customWidth="1"/>
-    <col min="5" max="5" width="26.46484375" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.9296875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2931,7 +2940,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>822</v>
+      </c>
       <c r="E2" t="s">
         <v>717</v>
       </c>
@@ -2939,7 +2950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +2964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2964,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2978,7 +2989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2989,7 +3000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3006,14 +3017,14 @@
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
@@ -3021,14 +3032,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3050,7 +3061,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3062,7 +3073,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3074,7 +3085,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3085,7 +3096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3099,7 +3110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3116,7 +3127,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3127,7 +3138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3141,7 +3152,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3162,12 +3173,14 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>824</v>
+      </c>
       <c r="E19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3193,7 +3206,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3204,7 +3217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3215,7 +3228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3226,7 +3239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3237,7 +3250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3248,7 +3261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3262,7 +3275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3276,7 +3289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3287,7 +3300,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3298,7 +3311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3309,7 +3322,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3320,7 +3333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3331,7 +3344,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3345,7 +3358,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3356,7 +3369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3370,7 +3383,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3380,11 +3393,11 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D37" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3398,7 +3411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3423,7 +3436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3433,7 +3446,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3447,7 +3460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3483,7 +3496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3497,7 +3510,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3509,7 +3522,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3523,7 +3536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3534,7 +3547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3548,7 +3561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3559,7 +3572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3573,7 +3586,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3584,7 +3597,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3595,7 +3608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3612,7 +3625,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3623,7 +3636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3634,7 +3647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -3645,7 +3658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -3656,7 +3669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3667,7 +3680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -3681,7 +3694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3698,7 +3711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -3718,7 +3731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -3732,7 +3745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -3746,7 +3759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -3763,7 +3776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -3777,7 +3790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -3791,7 +3804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -3805,7 +3818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -3822,7 +3835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -3836,7 +3849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -3850,7 +3863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -3867,7 +3880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3877,8 +3890,11 @@
       <c r="C74" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -3888,8 +3904,11 @@
       <c r="C75" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -3899,8 +3918,11 @@
       <c r="C76" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -3910,8 +3932,11 @@
       <c r="C77" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -3921,8 +3946,11 @@
       <c r="C78" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -3935,8 +3963,11 @@
       <c r="D79" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -3949,8 +3980,11 @@
       <c r="D80" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -3960,8 +3994,11 @@
       <c r="C81" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>130</v>
       </c>
@@ -3971,8 +4008,11 @@
       <c r="C82" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -3985,8 +4025,11 @@
       <c r="D83" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>132</v>
       </c>
@@ -3999,8 +4042,11 @@
       <c r="D84" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -4010,8 +4056,11 @@
       <c r="C85" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -4021,8 +4070,11 @@
       <c r="C86" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -4032,8 +4084,11 @@
       <c r="C87" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -4043,8 +4098,11 @@
       <c r="C88" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -4057,8 +4115,11 @@
       <c r="D89" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>138</v>
       </c>
@@ -4068,8 +4129,11 @@
       <c r="C90" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -4082,8 +4146,11 @@
       <c r="D91" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -4096,8 +4163,11 @@
       <c r="D92" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>141</v>
       </c>
@@ -4110,8 +4180,11 @@
       <c r="D93" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>142</v>
       </c>
@@ -4121,8 +4194,11 @@
       <c r="C94" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -4132,8 +4208,11 @@
       <c r="C95" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -4143,8 +4222,11 @@
       <c r="C96" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -4154,8 +4236,11 @@
       <c r="C97" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -4165,8 +4250,11 @@
       <c r="C98" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -4179,8 +4267,11 @@
       <c r="D99" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>148</v>
       </c>
@@ -4193,8 +4284,11 @@
       <c r="D100" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -4205,7 +4299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>157</v>
       </c>
@@ -4216,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>158</v>
       </c>
@@ -4227,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>159</v>
       </c>
@@ -4238,7 +4332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>160</v>
       </c>
@@ -4249,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>161</v>
       </c>
@@ -4260,7 +4354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>162</v>
       </c>
@@ -4271,7 +4365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>163</v>
       </c>
@@ -4282,7 +4376,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -4296,7 +4390,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>165</v>
       </c>
@@ -4310,7 +4404,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>166</v>
       </c>
@@ -4324,7 +4418,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>167</v>
       </c>
@@ -4338,7 +4432,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>168</v>
       </c>
@@ -4352,7 +4446,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>169</v>
       </c>
@@ -4363,7 +4457,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>170</v>
       </c>
@@ -4380,7 +4474,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>171</v>
       </c>
@@ -4397,7 +4491,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>172</v>
       </c>
@@ -4414,7 +4508,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>173</v>
       </c>
@@ -4425,7 +4519,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>174</v>
       </c>
@@ -4436,7 +4530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>175</v>
       </c>
@@ -4453,7 +4547,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>176</v>
       </c>
@@ -4464,7 +4558,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>177</v>
       </c>
@@ -4481,7 +4575,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>178</v>
       </c>
@@ -4492,7 +4586,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>179</v>
       </c>
@@ -4503,7 +4597,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>180</v>
       </c>
@@ -4514,7 +4608,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>181</v>
       </c>
@@ -4528,7 +4622,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>182</v>
       </c>
@@ -4539,7 +4633,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>183</v>
       </c>
@@ -4550,7 +4644,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>184</v>
       </c>
@@ -4561,7 +4655,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>185</v>
       </c>
@@ -4572,7 +4666,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>186</v>
       </c>
@@ -4583,7 +4677,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -4600,7 +4694,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>188</v>
       </c>
@@ -4617,7 +4711,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>189</v>
       </c>
@@ -4628,7 +4722,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>190</v>
       </c>
@@ -4645,7 +4739,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>191</v>
       </c>
@@ -4662,7 +4756,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>192</v>
       </c>
@@ -4679,7 +4773,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>193</v>
       </c>
@@ -4690,7 +4784,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>194</v>
       </c>
@@ -4707,7 +4801,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>195</v>
       </c>
@@ -4724,7 +4818,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>196</v>
       </c>
@@ -4735,7 +4829,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>197</v>
       </c>
@@ -4746,7 +4840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>198</v>
       </c>
@@ -4757,7 +4851,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>199</v>
       </c>
@@ -4774,7 +4868,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -4791,7 +4885,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>201</v>
       </c>
@@ -4802,7 +4896,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -4816,7 +4910,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>203</v>
       </c>
@@ -4830,7 +4924,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>204</v>
       </c>
@@ -4844,7 +4938,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>205</v>
       </c>
@@ -4855,7 +4949,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>206</v>
       </c>
@@ -4872,7 +4966,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>207</v>
       </c>
@@ -4883,7 +4977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>208</v>
       </c>
@@ -4894,7 +4988,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>209</v>
       </c>
@@ -4908,7 +5002,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>210</v>
       </c>
@@ -4919,7 +5013,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -4930,7 +5024,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>212</v>
       </c>
@@ -4947,7 +5041,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>213</v>
       </c>
@@ -4964,7 +5058,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>214</v>
       </c>
@@ -4981,7 +5075,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>215</v>
       </c>
@@ -4998,7 +5092,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>216</v>
       </c>
@@ -5015,7 +5109,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>217</v>
       </c>
@@ -5032,7 +5126,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>218</v>
       </c>
@@ -5049,7 +5143,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>219</v>
       </c>
@@ -5063,7 +5157,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>220</v>
       </c>
@@ -5074,7 +5168,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>221</v>
       </c>
@@ -5091,7 +5185,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>222</v>
       </c>
@@ -5102,7 +5196,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>223</v>
       </c>
@@ -5113,7 +5207,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>224</v>
       </c>
@@ -5130,7 +5224,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>225</v>
       </c>
@@ -5141,7 +5235,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>226</v>
       </c>
@@ -5158,7 +5252,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>227</v>
       </c>
@@ -5175,7 +5269,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>228</v>
       </c>
@@ -5192,7 +5286,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>229</v>
       </c>
@@ -5209,7 +5303,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>230</v>
       </c>
@@ -5220,7 +5314,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>231</v>
       </c>
@@ -5231,7 +5325,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>232</v>
       </c>
@@ -5242,7 +5336,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>233</v>
       </c>
@@ -5253,7 +5347,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>234</v>
       </c>
@@ -5264,7 +5358,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>235</v>
       </c>
@@ -5275,7 +5369,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>236</v>
       </c>
@@ -5286,7 +5380,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>237</v>
       </c>
@@ -5297,7 +5391,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>238</v>
       </c>
@@ -5308,7 +5402,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>239</v>
       </c>
@@ -5319,7 +5413,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>240</v>
       </c>
@@ -5330,7 +5424,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>241</v>
       </c>
@@ -5347,7 +5441,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>242</v>
       </c>
@@ -5358,7 +5452,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>243</v>
       </c>
@@ -5369,7 +5463,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>244</v>
       </c>
@@ -5380,7 +5474,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>245</v>
       </c>
@@ -5391,7 +5485,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>246</v>
       </c>
@@ -5408,7 +5502,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>247</v>
       </c>
@@ -5419,7 +5513,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>248</v>
       </c>
@@ -5430,7 +5524,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>249</v>
       </c>
@@ -5441,7 +5535,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>250</v>
       </c>
@@ -5452,7 +5546,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>251</v>
       </c>
@@ -5463,7 +5557,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>252</v>
       </c>
@@ -5474,7 +5568,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>253</v>
       </c>
@@ -5491,7 +5585,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>254</v>
       </c>
@@ -5502,7 +5596,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>255</v>
       </c>
@@ -5519,7 +5613,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>256</v>
       </c>
@@ -5530,7 +5624,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>257</v>
       </c>
@@ -5541,7 +5635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>258</v>
       </c>
@@ -5558,7 +5652,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>259</v>
       </c>
@@ -5569,7 +5663,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>260</v>
       </c>
@@ -5586,7 +5680,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>261</v>
       </c>
@@ -5603,7 +5697,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>262</v>
       </c>
@@ -5614,7 +5708,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>263</v>
       </c>
@@ -5625,7 +5719,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>264</v>
       </c>
@@ -5642,7 +5736,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>265</v>
       </c>
@@ -5653,7 +5747,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>266</v>
       </c>
@@ -5664,7 +5758,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>267</v>
       </c>
@@ -5675,7 +5769,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>268</v>
       </c>
@@ -5686,7 +5780,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>269</v>
       </c>
@@ -5697,7 +5791,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>270</v>
       </c>
@@ -5708,7 +5802,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>271</v>
       </c>
@@ -5719,7 +5813,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -5736,7 +5830,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>273</v>
       </c>
@@ -5747,7 +5841,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>274</v>
       </c>
@@ -5758,7 +5852,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>275</v>
       </c>
@@ -5775,7 +5869,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>276</v>
       </c>
@@ -5786,7 +5880,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>277</v>
       </c>
@@ -5803,7 +5897,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>278</v>
       </c>
@@ -5814,7 +5908,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>279</v>
       </c>
@@ -5825,7 +5919,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>280</v>
       </c>
@@ -5836,7 +5930,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>281</v>
       </c>
@@ -5847,7 +5941,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>282</v>
       </c>
@@ -5858,7 +5952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>283</v>
       </c>
@@ -5869,7 +5963,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>284</v>
       </c>
@@ -5880,7 +5974,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>285</v>
       </c>
@@ -5891,7 +5985,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>286</v>
       </c>
@@ -5902,7 +5996,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>287</v>
       </c>
@@ -5913,7 +6007,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>288</v>
       </c>
@@ -5924,7 +6018,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>289</v>
       </c>
@@ -5935,7 +6029,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>290</v>
       </c>
@@ -5946,7 +6040,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>291</v>
       </c>
@@ -5957,7 +6051,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>292</v>
       </c>
@@ -5968,7 +6062,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>293</v>
       </c>
@@ -5979,7 +6073,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>294</v>
       </c>
@@ -5990,7 +6084,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>295</v>
       </c>
@@ -6001,7 +6095,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>296</v>
       </c>
@@ -6012,7 +6106,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>297</v>
       </c>
@@ -6023,7 +6117,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>298</v>
       </c>
@@ -6034,7 +6128,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>299</v>
       </c>
@@ -6045,7 +6139,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>300</v>
       </c>
@@ -6059,7 +6153,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>301</v>
       </c>
@@ -6073,7 +6167,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>302</v>
       </c>
@@ -6084,7 +6178,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>303</v>
       </c>
@@ -6095,7 +6189,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>304</v>
       </c>
@@ -6106,7 +6200,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>305</v>
       </c>
@@ -6117,7 +6211,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>306</v>
       </c>
@@ -6128,7 +6222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>307</v>
       </c>
@@ -6139,7 +6233,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>308</v>
       </c>
@@ -6150,7 +6244,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>309</v>
       </c>
@@ -6164,7 +6258,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>310</v>
       </c>
@@ -6175,7 +6269,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>311</v>
       </c>
@@ -6189,7 +6283,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>312</v>
       </c>
@@ -6203,7 +6297,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>313</v>
       </c>
@@ -6217,7 +6311,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>314</v>
       </c>
@@ -6228,7 +6322,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>315</v>
       </c>
@@ -6239,7 +6333,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>316</v>
       </c>
@@ -6250,7 +6344,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>317</v>
       </c>
@@ -6261,7 +6355,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>318</v>
       </c>
@@ -6272,7 +6366,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>319</v>
       </c>
@@ -6286,7 +6380,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -6300,7 +6394,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>321</v>
       </c>
@@ -6314,7 +6408,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>322</v>
       </c>
@@ -6328,7 +6422,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>323</v>
       </c>
@@ -6342,7 +6436,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>324</v>
       </c>
@@ -6356,7 +6450,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>325</v>
       </c>
@@ -6370,7 +6464,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>326</v>
       </c>
@@ -6384,7 +6478,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>327</v>
       </c>
@@ -6398,7 +6492,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>328</v>
       </c>
@@ -6412,7 +6506,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>329</v>
       </c>
@@ -6426,7 +6520,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>330</v>
       </c>
@@ -6437,7 +6531,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>331</v>
       </c>
@@ -6451,7 +6545,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>332</v>
       </c>
@@ -6465,7 +6559,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>333</v>
       </c>
@@ -6482,7 +6576,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>334</v>
       </c>
@@ -6496,7 +6590,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>335</v>
       </c>
@@ -6510,7 +6604,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>336</v>
       </c>
@@ -6527,7 +6621,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>337</v>
       </c>
@@ -6538,7 +6632,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>338</v>
       </c>
@@ -6549,7 +6643,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>339</v>
       </c>
@@ -6563,7 +6657,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>392</v>
       </c>
@@ -6577,7 +6671,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>393</v>
       </c>
@@ -6588,7 +6682,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>394</v>
       </c>
@@ -6602,7 +6696,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>395</v>
       </c>
@@ -6613,7 +6707,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>396</v>
       </c>
@@ -6627,7 +6721,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>397</v>
       </c>
@@ -6638,7 +6732,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>398</v>
       </c>
@@ -6652,7 +6746,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>399</v>
       </c>
@@ -6663,7 +6757,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>400</v>
       </c>
@@ -6674,7 +6768,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>401</v>
       </c>
@@ -6685,7 +6779,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>402</v>
       </c>
@@ -6699,7 +6793,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>403</v>
       </c>
@@ -6710,7 +6804,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>404</v>
       </c>
@@ -6721,7 +6815,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>405</v>
       </c>
@@ -6732,7 +6826,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>406</v>
       </c>
@@ -6743,7 +6837,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>407</v>
       </c>
@@ -6754,7 +6848,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>408</v>
       </c>
@@ -6765,7 +6859,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>409</v>
       </c>
@@ -6776,7 +6870,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>410</v>
       </c>
@@ -6787,7 +6881,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>411</v>
       </c>
@@ -6798,7 +6892,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>412</v>
       </c>
@@ -6812,7 +6906,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>413</v>
       </c>
@@ -6826,7 +6920,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>414</v>
       </c>
@@ -6837,7 +6931,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>421</v>
       </c>
@@ -6851,7 +6945,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>422</v>
       </c>
@@ -6868,7 +6962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>423</v>
       </c>
@@ -6879,7 +6973,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>424</v>
       </c>
@@ -6893,7 +6987,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>425</v>
       </c>
@@ -6907,7 +7001,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>426</v>
       </c>
@@ -6921,7 +7015,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>427</v>
       </c>
@@ -6935,7 +7029,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>428</v>
       </c>
@@ -6949,7 +7043,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>429</v>
       </c>
@@ -6963,7 +7057,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>430</v>
       </c>
@@ -6974,7 +7068,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>431</v>
       </c>
@@ -6988,7 +7082,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>432</v>
       </c>
@@ -7002,7 +7096,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>433</v>
       </c>
@@ -7016,7 +7110,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>434</v>
       </c>
@@ -7030,7 +7124,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>435</v>
       </c>
@@ -7044,7 +7138,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>436</v>
       </c>
@@ -7058,7 +7152,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>437</v>
       </c>
@@ -7072,7 +7166,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>438</v>
       </c>
@@ -7083,7 +7177,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>439</v>
       </c>
@@ -7097,7 +7191,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>440</v>
       </c>
@@ -7111,7 +7205,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>441</v>
       </c>
@@ -7125,7 +7219,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>442</v>
       </c>
@@ -7139,7 +7233,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>443</v>
       </c>
@@ -7153,7 +7247,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>444</v>
       </c>
@@ -7164,7 +7258,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>445</v>
       </c>
@@ -7175,7 +7269,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>446</v>
       </c>
@@ -7189,7 +7283,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>447</v>
       </c>
@@ -7200,7 +7294,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>448</v>
       </c>
@@ -7217,7 +7311,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>449</v>
       </c>
@@ -7231,7 +7325,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>450</v>
       </c>
@@ -7248,7 +7342,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>451</v>
       </c>
@@ -7265,7 +7359,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>452</v>
       </c>
@@ -7276,7 +7370,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>453</v>
       </c>
@@ -7287,7 +7381,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>454</v>
       </c>
@@ -7298,7 +7392,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>455</v>
       </c>
@@ -7309,7 +7403,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>456</v>
       </c>
@@ -7320,7 +7414,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>457</v>
       </c>
@@ -7331,7 +7425,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>458</v>
       </c>
@@ -7342,7 +7436,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>459</v>
       </c>
@@ -7359,7 +7453,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>460</v>
       </c>
@@ -7370,7 +7464,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>461</v>
       </c>
@@ -7381,7 +7475,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>462</v>
       </c>
@@ -7392,7 +7486,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>463</v>
       </c>
@@ -7403,7 +7497,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>464</v>
       </c>
@@ -7414,7 +7508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>465</v>
       </c>
@@ -7425,7 +7519,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>466</v>
       </c>
@@ -7436,7 +7530,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>467</v>
       </c>
@@ -7447,7 +7541,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>468</v>
       </c>
@@ -7458,7 +7552,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>469</v>
       </c>
@@ -7469,7 +7563,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>470</v>
       </c>
@@ -7480,7 +7574,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>471</v>
       </c>
@@ -7491,7 +7585,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>472</v>
       </c>
@@ -7502,7 +7596,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>473</v>
       </c>
@@ -7513,7 +7607,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>474</v>
       </c>
@@ -7524,7 +7618,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>475</v>
       </c>
@@ -7535,7 +7629,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>476</v>
       </c>
@@ -7552,7 +7646,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>477</v>
       </c>
@@ -7563,7 +7657,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>478</v>
       </c>
@@ -7574,7 +7668,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>479</v>
       </c>
@@ -7585,7 +7679,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>480</v>
       </c>
@@ -7596,7 +7690,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>481</v>
       </c>
@@ -7607,7 +7701,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>482</v>
       </c>
@@ -7618,7 +7712,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>483</v>
       </c>
@@ -7629,7 +7723,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>484</v>
       </c>
@@ -7643,7 +7737,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>485</v>
       </c>
@@ -7654,7 +7748,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>486</v>
       </c>
@@ -7671,7 +7765,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>487</v>
       </c>
@@ -7682,7 +7776,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>488</v>
       </c>
@@ -7690,7 +7784,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>489</v>
       </c>
@@ -7701,7 +7795,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>490</v>
       </c>
@@ -7712,7 +7806,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>491</v>
       </c>
@@ -7726,7 +7820,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>492</v>
       </c>
@@ -7737,7 +7831,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>493</v>
       </c>
@@ -7751,7 +7845,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>494</v>
       </c>
@@ -7762,7 +7856,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>495</v>
       </c>
@@ -7773,7 +7867,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>496</v>
       </c>
@@ -7784,7 +7878,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>497</v>
       </c>
@@ -7795,7 +7889,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>498</v>
       </c>
@@ -7806,7 +7900,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>499</v>
       </c>
@@ -7820,7 +7914,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>500</v>
       </c>
@@ -7834,7 +7928,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>501</v>
       </c>
@@ -7845,7 +7939,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>502</v>
       </c>
@@ -7856,7 +7950,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>503</v>
       </c>
@@ -7867,7 +7961,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>504</v>
       </c>
@@ -7878,7 +7972,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>505</v>
       </c>
@@ -7889,7 +7983,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>506</v>
       </c>
@@ -7906,7 +8000,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>507</v>
       </c>
@@ -7923,7 +8017,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>508</v>
       </c>
@@ -7940,7 +8034,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>509</v>
       </c>
@@ -7957,7 +8051,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>510</v>
       </c>
@@ -7968,7 +8062,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>511</v>
       </c>
@@ -7979,7 +8073,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>512</v>
       </c>
@@ -7990,7 +8084,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>513</v>
       </c>
@@ -8001,7 +8095,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>514</v>
       </c>
@@ -8012,7 +8106,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>515</v>
       </c>
@@ -8029,7 +8123,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>516</v>
       </c>
@@ -8040,7 +8134,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>517</v>
       </c>
@@ -8051,7 +8145,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>518</v>
       </c>
@@ -8062,7 +8156,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>519</v>
       </c>
@@ -8073,7 +8167,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>520</v>
       </c>
@@ -8084,7 +8178,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>521</v>
       </c>
@@ -8095,7 +8189,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>522</v>
       </c>
@@ -8106,7 +8200,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>523</v>
       </c>
@@ -8117,7 +8211,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>524</v>
       </c>
@@ -8128,7 +8222,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>525</v>
       </c>
@@ -8139,7 +8233,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>526</v>
       </c>
@@ -8150,7 +8244,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>527</v>
       </c>
@@ -8161,7 +8255,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>528</v>
       </c>
@@ -8172,7 +8266,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>529</v>
       </c>
@@ -8183,7 +8277,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>530</v>
       </c>
@@ -8194,7 +8288,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>531</v>
       </c>
@@ -8205,7 +8299,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>532</v>
       </c>
@@ -8219,7 +8313,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>533</v>
       </c>
@@ -8230,7 +8324,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>534</v>
       </c>
@@ -8241,7 +8335,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>535</v>
       </c>
@@ -8252,7 +8346,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>536</v>
       </c>
@@ -8266,7 +8360,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>537</v>
       </c>
@@ -8277,7 +8371,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>538</v>
       </c>
@@ -8288,7 +8382,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>539</v>
       </c>
@@ -8299,7 +8393,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>540</v>
       </c>
@@ -8316,7 +8410,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>541</v>
       </c>
@@ -8327,7 +8421,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>542</v>
       </c>
@@ -8341,7 +8435,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>543</v>
       </c>
@@ -8352,7 +8446,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>544</v>
       </c>
@@ -8363,7 +8457,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>545</v>
       </c>
@@ -8374,7 +8468,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>546</v>
       </c>
@@ -8391,7 +8485,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>547</v>
       </c>
@@ -8405,7 +8499,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>548</v>
       </c>
@@ -8419,7 +8513,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>549</v>
       </c>
@@ -8430,7 +8524,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>550</v>
       </c>
@@ -8444,7 +8538,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>551</v>
       </c>
@@ -8455,7 +8549,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>552</v>
       </c>
@@ -8472,7 +8566,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>553</v>
       </c>
@@ -8489,7 +8583,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>554</v>
       </c>
@@ -8506,7 +8600,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>555</v>
       </c>
@@ -8517,7 +8611,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>556</v>
       </c>
@@ -8528,7 +8622,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>557</v>
       </c>
@@ -8539,7 +8633,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>558</v>
       </c>
@@ -8556,7 +8650,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>559</v>
       </c>
@@ -8567,7 +8661,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>560</v>
       </c>
@@ -8578,7 +8672,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>561</v>
       </c>
@@ -8592,7 +8686,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>562</v>
       </c>
@@ -8603,7 +8697,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>563</v>
       </c>
@@ -8620,7 +8714,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>564</v>
       </c>
@@ -8637,7 +8731,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>565</v>
       </c>
@@ -8648,7 +8742,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>566</v>
       </c>
@@ -8659,7 +8753,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>567</v>
       </c>
@@ -8670,7 +8764,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>568</v>
       </c>
@@ -8684,7 +8778,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>569</v>
       </c>
@@ -8695,7 +8789,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>570</v>
       </c>
@@ -8706,7 +8800,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>571</v>
       </c>
@@ -8723,7 +8817,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>572</v>
       </c>
@@ -8734,7 +8828,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>573</v>
       </c>
@@ -8745,7 +8839,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>574</v>
       </c>
@@ -8756,7 +8850,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>575</v>
       </c>
@@ -8767,7 +8861,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>576</v>
       </c>
@@ -8784,7 +8878,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>577</v>
       </c>
@@ -8801,7 +8895,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>578</v>
       </c>
@@ -8812,7 +8906,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>579</v>
       </c>
@@ -8823,7 +8917,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>580</v>
       </c>
@@ -8834,7 +8928,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>581</v>
       </c>
@@ -8845,7 +8939,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>582</v>
       </c>
@@ -8856,7 +8950,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>583</v>
       </c>
@@ -8867,7 +8961,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>584</v>
       </c>
@@ -8881,7 +8975,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>585</v>
       </c>
@@ -8892,7 +8986,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>586</v>
       </c>
@@ -8903,7 +8997,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>587</v>
       </c>
@@ -8920,7 +9014,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>588</v>
       </c>
@@ -8931,7 +9025,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>589</v>
       </c>
@@ -8942,7 +9036,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>590</v>
       </c>
@@ -8959,7 +9053,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>591</v>
       </c>
@@ -8970,7 +9064,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>592</v>
       </c>
@@ -8984,7 +9078,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>593</v>
       </c>
@@ -8995,7 +9089,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>594</v>
       </c>
@@ -9006,7 +9100,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>595</v>
       </c>
@@ -9017,7 +9111,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>596</v>
       </c>
@@ -9028,7 +9122,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>597</v>
       </c>
@@ -9042,7 +9136,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>598</v>
       </c>
@@ -9053,7 +9147,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>599</v>
       </c>
@@ -9064,7 +9158,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>600</v>
       </c>
@@ -9078,7 +9172,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>601</v>
       </c>
@@ -9089,7 +9183,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>602</v>
       </c>
@@ -9106,7 +9200,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>603</v>
       </c>
@@ -9117,7 +9211,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>604</v>
       </c>
@@ -9128,7 +9222,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>605</v>
       </c>
@@ -9139,7 +9233,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>606</v>
       </c>
@@ -9150,7 +9244,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>607</v>
       </c>
@@ -9161,7 +9255,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>608</v>
       </c>
@@ -9175,7 +9269,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>609</v>
       </c>
@@ -9186,7 +9280,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>610</v>
       </c>
@@ -9197,7 +9291,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>611</v>
       </c>
@@ -9208,7 +9302,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>612</v>
       </c>
@@ -9219,7 +9313,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>613</v>
       </c>
@@ -9233,7 +9327,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>614</v>
       </c>
@@ -9244,7 +9338,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>615</v>
       </c>
@@ -9261,7 +9355,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>616</v>
       </c>
@@ -9275,7 +9369,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>617</v>
       </c>
@@ -9289,7 +9383,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>618</v>
       </c>
@@ -9300,7 +9394,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>619</v>
       </c>
@@ -9317,7 +9411,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>620</v>
       </c>
@@ -9328,7 +9422,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>621</v>
       </c>
@@ -9339,7 +9433,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>622</v>
       </c>
@@ -9350,7 +9444,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>623</v>
       </c>
@@ -9361,7 +9455,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>624</v>
       </c>
@@ -9378,7 +9472,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>625</v>
       </c>
@@ -9395,7 +9489,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>626</v>
       </c>
@@ -9412,7 +9506,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>627</v>
       </c>
@@ -9423,7 +9517,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>628</v>
       </c>
@@ -9434,7 +9528,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>629</v>
       </c>
@@ -9448,7 +9542,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>630</v>
       </c>
@@ -9462,7 +9556,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>631</v>
       </c>
@@ -9473,7 +9567,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>632</v>
       </c>
@@ -9487,7 +9581,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>633</v>
       </c>
@@ -9498,7 +9592,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>634</v>
       </c>
@@ -9509,7 +9603,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>635</v>
       </c>
@@ -9523,7 +9617,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>636</v>
       </c>
@@ -9534,7 +9628,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>637</v>
       </c>
@@ -9548,7 +9642,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>638</v>
       </c>
@@ -9565,7 +9659,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>639</v>
       </c>
@@ -9576,7 +9670,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>640</v>
       </c>
@@ -9587,7 +9681,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>641</v>
       </c>
@@ -9601,7 +9695,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>647</v>
       </c>
@@ -9615,7 +9709,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>648</v>
       </c>
@@ -9626,7 +9720,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>649</v>
       </c>
@@ -9640,7 +9734,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>650</v>
       </c>
@@ -9651,7 +9745,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>651</v>
       </c>
@@ -9662,7 +9756,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>652</v>
       </c>
@@ -9676,7 +9770,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>653</v>
       </c>
@@ -9690,7 +9784,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>654</v>
       </c>
@@ -9701,7 +9795,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>655</v>
       </c>
@@ -9712,7 +9806,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>656</v>
       </c>
@@ -9726,7 +9820,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>657</v>
       </c>
@@ -9737,7 +9831,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>658</v>
       </c>
@@ -9748,7 +9842,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>659</v>
       </c>
@@ -9759,7 +9853,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>660</v>
       </c>
@@ -9773,7 +9867,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>661</v>
       </c>
@@ -9784,7 +9878,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>662</v>
       </c>
@@ -9795,7 +9889,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>663</v>
       </c>
@@ -9806,7 +9900,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>664</v>
       </c>
@@ -9817,7 +9911,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>672</v>
       </c>
@@ -9831,7 +9925,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>673</v>
       </c>
@@ -9842,7 +9936,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>674</v>
       </c>
@@ -9856,7 +9950,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>675</v>
       </c>
@@ -9870,7 +9964,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>676</v>
       </c>
@@ -9881,7 +9975,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>677</v>
       </c>
@@ -9895,7 +9989,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>678</v>
       </c>
@@ -9906,7 +10000,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>679</v>
       </c>
@@ -9917,7 +10011,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>680</v>
       </c>
@@ -9928,7 +10022,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>681</v>
       </c>
@@ -9945,7 +10039,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>682</v>
       </c>
@@ -9956,7 +10050,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>683</v>
       </c>
@@ -9967,7 +10061,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>684</v>
       </c>
@@ -9978,7 +10072,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>689</v>
       </c>
@@ -9989,7 +10083,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>690</v>
       </c>
@@ -10003,7 +10097,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>691</v>
       </c>
@@ -10014,7 +10108,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>692</v>
       </c>
@@ -10025,7 +10119,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>693</v>
       </c>
@@ -10036,7 +10130,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>694</v>
       </c>
@@ -10050,7 +10144,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>695</v>
       </c>
@@ -10061,7 +10155,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>696</v>
       </c>
@@ -10075,7 +10169,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>697</v>
       </c>
@@ -10089,7 +10183,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>698</v>
       </c>
@@ -10100,7 +10194,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>699</v>
       </c>
@@ -10114,7 +10208,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>700</v>
       </c>
@@ -10125,7 +10219,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>701</v>
       </c>
@@ -10136,7 +10230,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>702</v>
       </c>
@@ -10150,7 +10244,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>703</v>
       </c>
@@ -10164,7 +10258,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>704</v>
       </c>
@@ -10178,7 +10272,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>705</v>
       </c>
@@ -10189,7 +10283,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>706</v>
       </c>
@@ -10200,7 +10294,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>707</v>
       </c>
@@ -10211,7 +10305,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>708</v>
       </c>
@@ -10225,7 +10319,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>709</v>
       </c>
@@ -10236,7 +10330,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>710</v>
       </c>
@@ -10247,7 +10341,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>711</v>
       </c>
@@ -10258,7 +10352,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>712</v>
       </c>
@@ -10269,7 +10363,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>713</v>
       </c>
@@ -10280,7 +10374,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>714</v>
       </c>
@@ -10294,7 +10388,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>715</v>
       </c>
@@ -10321,24 +10415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF2BB04-6248-456D-B696-D17DD71C1F29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="18.53125" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10358,7 +10452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -10372,7 +10466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10383,7 +10477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10400,7 +10494,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10414,7 +10508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>725</v>
       </c>
@@ -10428,7 +10522,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>726</v>
       </c>
@@ -10445,12 +10539,12 @@
         <v>723</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>728</v>
       </c>
@@ -10461,7 +10555,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>729</v>
       </c>
@@ -10472,7 +10566,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>730</v>
       </c>
@@ -10486,12 +10580,12 @@
         <v>759</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>732</v>
       </c>
@@ -10502,7 +10596,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>733</v>
       </c>
@@ -10513,7 +10607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>734</v>
       </c>
@@ -10530,12 +10624,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>736</v>
       </c>
@@ -10546,112 +10640,112 @@
         <v>760</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>758</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC7C260-7244-4A4E-826A-0FEC04CA6F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC0DE3-368E-4D73-A742-91A1E6D74003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2885,9 +2885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E549" sqref="E549"/>
+      <selection pane="bottomLeft" activeCell="G554" sqref="G554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10042,6 +10042,9 @@
       </c>
       <c r="C553" t="s">
         <v>681</v>
+      </c>
+      <c r="G553" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.45">

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC0DE3-368E-4D73-A742-91A1E6D74003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE7C2B-91AC-4815-B470-BEDD4440CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2886,8 +2886,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G554" sqref="G554"/>
+      <pane ySplit="1" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G571" sqref="G571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10060,6 +10060,9 @@
       <c r="D554" t="s">
         <v>710</v>
       </c>
+      <c r="G554" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
@@ -10071,6 +10074,9 @@
       <c r="C555" t="s">
         <v>681</v>
       </c>
+      <c r="G555" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
@@ -10082,6 +10088,9 @@
       <c r="C556" t="s">
         <v>687</v>
       </c>
+      <c r="G556" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
@@ -10093,6 +10102,9 @@
       <c r="C557" t="s">
         <v>687</v>
       </c>
+      <c r="G557" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
@@ -10107,6 +10119,9 @@
       <c r="D558" t="s">
         <v>686</v>
       </c>
+      <c r="G558" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
@@ -10118,6 +10133,9 @@
       <c r="C559" t="s">
         <v>685</v>
       </c>
+      <c r="G559" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
@@ -10132,8 +10150,11 @@
       <c r="D560" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G560" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>688</v>
       </c>
@@ -10146,8 +10167,11 @@
       <c r="D561" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G561" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>689</v>
       </c>
@@ -10157,8 +10181,11 @@
       <c r="C562" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G562" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>690</v>
       </c>
@@ -10171,8 +10198,11 @@
       <c r="D563" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G563" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>691</v>
       </c>
@@ -10182,8 +10212,11 @@
       <c r="C564" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G564" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>692</v>
       </c>
@@ -10193,8 +10226,11 @@
       <c r="C565" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G565" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>693</v>
       </c>
@@ -10207,8 +10243,11 @@
       <c r="D566" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G566" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>694</v>
       </c>
@@ -10221,8 +10260,11 @@
       <c r="D567" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G567" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>695</v>
       </c>
@@ -10235,8 +10277,11 @@
       <c r="D568" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G568" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>696</v>
       </c>
@@ -10246,8 +10291,11 @@
       <c r="C569" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G569" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>697</v>
       </c>
@@ -10257,8 +10305,11 @@
       <c r="C570" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G570" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>698</v>
       </c>
@@ -10269,7 +10320,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>699</v>
       </c>
@@ -10283,7 +10334,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>700</v>
       </c>
@@ -10294,7 +10345,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>701</v>
       </c>
@@ -10305,7 +10356,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>702</v>
       </c>
@@ -10316,7 +10367,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>703</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE7C2B-91AC-4815-B470-BEDD4440CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150580D6-CE19-4D7B-9F41-B771B4112021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2886,7 +2886,7 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G571" sqref="G571"/>
     </sheetView>
   </sheetViews>
@@ -10319,6 +10319,9 @@
       <c r="C571" t="s">
         <v>707</v>
       </c>
+      <c r="G571" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
@@ -10333,6 +10336,9 @@
       <c r="D572" t="s">
         <v>693</v>
       </c>
+      <c r="G572" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
@@ -10344,6 +10350,9 @@
       <c r="C573" t="s">
         <v>681</v>
       </c>
+      <c r="G573" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
@@ -10355,6 +10364,9 @@
       <c r="C574" t="s">
         <v>694</v>
       </c>
+      <c r="G574" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
@@ -10366,6 +10378,9 @@
       <c r="C575" t="s">
         <v>687</v>
       </c>
+      <c r="G575" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
@@ -10377,8 +10392,11 @@
       <c r="C576" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G576" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>704</v>
       </c>
@@ -10388,8 +10406,11 @@
       <c r="C577" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G577" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>705</v>
       </c>
@@ -10402,8 +10423,11 @@
       <c r="D578" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G578" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>706</v>
       </c>
@@ -10412,6 +10436,9 @@
       </c>
       <c r="C579" t="s">
         <v>707</v>
+      </c>
+      <c r="G579" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150580D6-CE19-4D7B-9F41-B771B4112021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346F0C6F-E4C8-47DE-B684-23B0151ADC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2885,9 +2885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G571" sqref="G571"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2972,6 +2972,9 @@
       <c r="D4" t="s">
         <v>83</v>
       </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -2983,6 +2986,9 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -2994,6 +3000,9 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -3004,6 +3013,9 @@
       </c>
       <c r="C7" t="s">
         <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\GitRemoteRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346F0C6F-E4C8-47DE-B684-23B0151ADC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2495,7 +2494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2882,27 +2881,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.265625" customWidth="1"/>
-    <col min="2" max="2" width="30.73046875" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" customWidth="1"/>
-    <col min="4" max="4" width="51.86328125" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3031,8 +3030,11 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3048,8 +3050,11 @@
       <c r="E9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3059,8 +3064,11 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3073,8 +3081,11 @@
       <c r="D11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3084,8 +3095,11 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -3101,8 +3115,11 @@
       <c r="E13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3113,7 +3130,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3130,7 +3147,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3141,7 +3158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3152,7 +3169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3163,7 +3180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3174,7 +3191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3185,7 +3202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3199,7 +3216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3213,7 +3230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3224,7 +3241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3235,7 +3252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3246,7 +3263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3257,7 +3274,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3268,7 +3285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3282,7 +3299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3293,7 +3310,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3307,7 +3324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3321,7 +3338,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -3335,7 +3352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3346,7 +3363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3360,7 +3377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3374,7 +3391,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3385,7 +3402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3410,7 +3427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3424,7 +3441,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -3435,7 +3452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -3449,7 +3466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3460,7 +3477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -3474,7 +3491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3485,7 +3502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3499,7 +3516,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3510,7 +3527,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3521,7 +3538,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -3538,7 +3555,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3549,7 +3566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3560,7 +3577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -3571,7 +3588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3582,7 +3599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3593,7 +3610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3607,7 +3624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3658,7 +3675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3672,7 +3689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3689,7 +3706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -3717,7 +3734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3731,7 +3748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3748,7 +3765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -3762,7 +3779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -3776,7 +3793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -3793,7 +3810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -3807,7 +3824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -3821,7 +3838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -3835,7 +3852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -3849,7 +3866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -3863,7 +3880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -3897,7 +3914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -3911,7 +3928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -3925,7 +3942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -3942,7 +3959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -3959,7 +3976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -3973,7 +3990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -3987,7 +4004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -4001,7 +4018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -4015,7 +4032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -4032,7 +4049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -4046,7 +4063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -4063,7 +4080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -4080,7 +4097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -4097,7 +4114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -4111,7 +4128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -4125,7 +4142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -4139,7 +4156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -4153,7 +4170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -4167,7 +4184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -4184,7 +4201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -4201,7 +4218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>147</v>
       </c>
@@ -4215,7 +4232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -4229,7 +4246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -4243,7 +4260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>150</v>
       </c>
@@ -4257,7 +4274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>151</v>
       </c>
@@ -4271,7 +4288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -4285,7 +4302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -4299,7 +4316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>154</v>
       </c>
@@ -4310,7 +4327,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>155</v>
       </c>
@@ -4324,7 +4341,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -4338,7 +4355,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -4352,7 +4369,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -4366,7 +4383,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>159</v>
       </c>
@@ -4380,7 +4397,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -4391,7 +4408,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -4408,7 +4425,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>162</v>
       </c>
@@ -4425,7 +4442,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -4442,7 +4459,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -4453,7 +4470,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -4464,7 +4481,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -4481,7 +4498,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -4492,7 +4509,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>168</v>
       </c>
@@ -4509,7 +4526,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>169</v>
       </c>
@@ -4520,7 +4537,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>170</v>
       </c>
@@ -4531,7 +4548,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>171</v>
       </c>
@@ -4542,7 +4559,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>172</v>
       </c>
@@ -4556,7 +4573,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -4567,7 +4584,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>174</v>
       </c>
@@ -4578,7 +4595,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>175</v>
       </c>
@@ -4589,7 +4606,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>176</v>
       </c>
@@ -4600,7 +4617,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>177</v>
       </c>
@@ -4611,7 +4628,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -4628,7 +4645,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>179</v>
       </c>
@@ -4645,7 +4662,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -4656,7 +4673,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -4673,7 +4690,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -4690,7 +4707,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -4707,7 +4724,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -4718,7 +4735,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>185</v>
       </c>
@@ -4735,7 +4752,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>186</v>
       </c>
@@ -4752,7 +4769,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -4763,7 +4780,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>188</v>
       </c>
@@ -4774,7 +4791,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>189</v>
       </c>
@@ -4785,7 +4802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>190</v>
       </c>
@@ -4802,7 +4819,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -4819,7 +4836,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>192</v>
       </c>
@@ -4830,7 +4847,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>193</v>
       </c>
@@ -4844,7 +4861,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -4858,7 +4875,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>195</v>
       </c>
@@ -4872,7 +4889,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>196</v>
       </c>
@@ -4883,7 +4900,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>197</v>
       </c>
@@ -4900,7 +4917,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>198</v>
       </c>
@@ -4911,7 +4928,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>199</v>
       </c>
@@ -4922,7 +4939,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>200</v>
       </c>
@@ -4936,7 +4953,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>201</v>
       </c>
@@ -4947,7 +4964,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>202</v>
       </c>
@@ -4958,7 +4975,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -4975,7 +4992,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>204</v>
       </c>
@@ -4992,7 +5009,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>205</v>
       </c>
@@ -5009,7 +5026,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>206</v>
       </c>
@@ -5026,7 +5043,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>207</v>
       </c>
@@ -5043,7 +5060,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>208</v>
       </c>
@@ -5060,7 +5077,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>209</v>
       </c>
@@ -5077,7 +5094,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>210</v>
       </c>
@@ -5091,7 +5108,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>211</v>
       </c>
@@ -5102,7 +5119,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>212</v>
       </c>
@@ -5119,7 +5136,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>213</v>
       </c>
@@ -5130,7 +5147,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -5141,7 +5158,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>215</v>
       </c>
@@ -5158,7 +5175,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -5169,7 +5186,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>217</v>
       </c>
@@ -5186,7 +5203,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>218</v>
       </c>
@@ -5203,7 +5220,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>219</v>
       </c>
@@ -5220,7 +5237,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>220</v>
       </c>
@@ -5237,7 +5254,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>221</v>
       </c>
@@ -5248,7 +5265,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>222</v>
       </c>
@@ -5259,7 +5276,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>223</v>
       </c>
@@ -5270,7 +5287,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>224</v>
       </c>
@@ -5281,7 +5298,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>225</v>
       </c>
@@ -5292,7 +5309,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>226</v>
       </c>
@@ -5303,7 +5320,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>227</v>
       </c>
@@ -5314,7 +5331,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>228</v>
       </c>
@@ -5325,7 +5342,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>229</v>
       </c>
@@ -5336,7 +5353,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>230</v>
       </c>
@@ -5347,7 +5364,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>231</v>
       </c>
@@ -5358,7 +5375,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>232</v>
       </c>
@@ -5375,7 +5392,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>233</v>
       </c>
@@ -5386,7 +5403,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>234</v>
       </c>
@@ -5397,7 +5414,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>235</v>
       </c>
@@ -5408,7 +5425,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>236</v>
       </c>
@@ -5419,7 +5436,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>237</v>
       </c>
@@ -5436,7 +5453,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>238</v>
       </c>
@@ -5447,7 +5464,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>239</v>
       </c>
@@ -5458,7 +5475,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>240</v>
       </c>
@@ -5469,7 +5486,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>241</v>
       </c>
@@ -5480,7 +5497,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>242</v>
       </c>
@@ -5491,7 +5508,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>243</v>
       </c>
@@ -5502,7 +5519,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>244</v>
       </c>
@@ -5519,7 +5536,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -5530,7 +5547,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>246</v>
       </c>
@@ -5547,7 +5564,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>247</v>
       </c>
@@ -5558,7 +5575,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>248</v>
       </c>
@@ -5569,7 +5586,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>249</v>
       </c>
@@ -5586,7 +5603,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>250</v>
       </c>
@@ -5597,7 +5614,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>251</v>
       </c>
@@ -5614,7 +5631,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>252</v>
       </c>
@@ -5631,7 +5648,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>253</v>
       </c>
@@ -5642,7 +5659,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>254</v>
       </c>
@@ -5653,7 +5670,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>255</v>
       </c>
@@ -5670,7 +5687,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>256</v>
       </c>
@@ -5681,7 +5698,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -5692,7 +5709,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -5703,7 +5720,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>259</v>
       </c>
@@ -5714,7 +5731,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>260</v>
       </c>
@@ -5725,7 +5742,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>261</v>
       </c>
@@ -5736,7 +5753,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>262</v>
       </c>
@@ -5747,7 +5764,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>263</v>
       </c>
@@ -5764,7 +5781,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>264</v>
       </c>
@@ -5775,7 +5792,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>265</v>
       </c>
@@ -5786,7 +5803,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>266</v>
       </c>
@@ -5803,7 +5820,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>267</v>
       </c>
@@ -5814,7 +5831,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>268</v>
       </c>
@@ -5831,7 +5848,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>269</v>
       </c>
@@ -5842,7 +5859,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>270</v>
       </c>
@@ -5853,7 +5870,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>271</v>
       </c>
@@ -5864,7 +5881,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>272</v>
       </c>
@@ -5875,7 +5892,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>273</v>
       </c>
@@ -5886,7 +5903,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>274</v>
       </c>
@@ -5897,7 +5914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>275</v>
       </c>
@@ -5908,7 +5925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>276</v>
       </c>
@@ -5919,7 +5936,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>277</v>
       </c>
@@ -5930,7 +5947,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>278</v>
       </c>
@@ -5941,7 +5958,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>279</v>
       </c>
@@ -5952,7 +5969,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>280</v>
       </c>
@@ -5963,7 +5980,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>281</v>
       </c>
@@ -5974,7 +5991,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>282</v>
       </c>
@@ -5985,7 +6002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>283</v>
       </c>
@@ -5996,7 +6013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>284</v>
       </c>
@@ -6007,7 +6024,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>285</v>
       </c>
@@ -6018,7 +6035,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>286</v>
       </c>
@@ -6029,7 +6046,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>287</v>
       </c>
@@ -6040,7 +6057,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>288</v>
       </c>
@@ -6051,7 +6068,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>289</v>
       </c>
@@ -6062,7 +6079,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>290</v>
       </c>
@@ -6073,7 +6090,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>291</v>
       </c>
@@ -6087,7 +6104,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>292</v>
       </c>
@@ -6101,7 +6118,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>293</v>
       </c>
@@ -6112,7 +6129,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>294</v>
       </c>
@@ -6123,7 +6140,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>295</v>
       </c>
@@ -6134,7 +6151,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>296</v>
       </c>
@@ -6145,7 +6162,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>297</v>
       </c>
@@ -6156,7 +6173,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>298</v>
       </c>
@@ -6167,7 +6184,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>299</v>
       </c>
@@ -6178,7 +6195,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>300</v>
       </c>
@@ -6192,7 +6209,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>301</v>
       </c>
@@ -6203,7 +6220,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>302</v>
       </c>
@@ -6217,7 +6234,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>303</v>
       </c>
@@ -6231,7 +6248,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>304</v>
       </c>
@@ -6245,7 +6262,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>305</v>
       </c>
@@ -6256,7 +6273,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>306</v>
       </c>
@@ -6267,7 +6284,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>307</v>
       </c>
@@ -6278,7 +6295,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>308</v>
       </c>
@@ -6289,7 +6306,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>309</v>
       </c>
@@ -6300,7 +6317,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>310</v>
       </c>
@@ -6314,7 +6331,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>311</v>
       </c>
@@ -6328,7 +6345,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>312</v>
       </c>
@@ -6342,7 +6359,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>313</v>
       </c>
@@ -6356,7 +6373,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>314</v>
       </c>
@@ -6370,7 +6387,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>315</v>
       </c>
@@ -6384,7 +6401,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -6398,7 +6415,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>317</v>
       </c>
@@ -6412,7 +6429,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>318</v>
       </c>
@@ -6426,7 +6443,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>319</v>
       </c>
@@ -6440,7 +6457,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>320</v>
       </c>
@@ -6454,7 +6471,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>321</v>
       </c>
@@ -6465,7 +6482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>322</v>
       </c>
@@ -6479,7 +6496,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>323</v>
       </c>
@@ -6493,7 +6510,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>324</v>
       </c>
@@ -6510,7 +6527,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>325</v>
       </c>
@@ -6524,7 +6541,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>326</v>
       </c>
@@ -6538,7 +6555,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>327</v>
       </c>
@@ -6555,7 +6572,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>328</v>
       </c>
@@ -6566,7 +6583,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>329</v>
       </c>
@@ -6577,7 +6594,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>330</v>
       </c>
@@ -6591,7 +6608,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>383</v>
       </c>
@@ -6605,7 +6622,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>384</v>
       </c>
@@ -6616,7 +6633,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>385</v>
       </c>
@@ -6630,7 +6647,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>386</v>
       </c>
@@ -6641,7 +6658,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>387</v>
       </c>
@@ -6655,7 +6672,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>388</v>
       </c>
@@ -6666,7 +6683,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>389</v>
       </c>
@@ -6680,7 +6697,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>390</v>
       </c>
@@ -6691,7 +6708,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>391</v>
       </c>
@@ -6702,7 +6719,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>392</v>
       </c>
@@ -6713,7 +6730,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>393</v>
       </c>
@@ -6727,7 +6744,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>394</v>
       </c>
@@ -6738,7 +6755,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>395</v>
       </c>
@@ -6749,7 +6766,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>396</v>
       </c>
@@ -6760,7 +6777,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>397</v>
       </c>
@@ -6771,7 +6788,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>398</v>
       </c>
@@ -6782,7 +6799,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>399</v>
       </c>
@@ -6793,7 +6810,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>400</v>
       </c>
@@ -6804,7 +6821,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>401</v>
       </c>
@@ -6815,7 +6832,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>402</v>
       </c>
@@ -6826,7 +6843,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>403</v>
       </c>
@@ -6840,7 +6857,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>404</v>
       </c>
@@ -6854,7 +6871,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>405</v>
       </c>
@@ -6865,7 +6882,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>412</v>
       </c>
@@ -6879,7 +6896,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>413</v>
       </c>
@@ -6896,7 +6913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>414</v>
       </c>
@@ -6907,7 +6924,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>415</v>
       </c>
@@ -6921,7 +6938,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>416</v>
       </c>
@@ -6935,7 +6952,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>417</v>
       </c>
@@ -6949,7 +6966,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>418</v>
       </c>
@@ -6963,7 +6980,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>419</v>
       </c>
@@ -6977,7 +6994,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>420</v>
       </c>
@@ -6991,7 +7008,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>421</v>
       </c>
@@ -7002,7 +7019,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>422</v>
       </c>
@@ -7016,7 +7033,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>423</v>
       </c>
@@ -7030,7 +7047,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>424</v>
       </c>
@@ -7044,7 +7061,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>425</v>
       </c>
@@ -7058,7 +7075,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>426</v>
       </c>
@@ -7072,7 +7089,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>427</v>
       </c>
@@ -7086,7 +7103,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>428</v>
       </c>
@@ -7100,7 +7117,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>429</v>
       </c>
@@ -7111,7 +7128,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>430</v>
       </c>
@@ -7125,7 +7142,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>431</v>
       </c>
@@ -7139,7 +7156,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>432</v>
       </c>
@@ -7153,7 +7170,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>433</v>
       </c>
@@ -7167,7 +7184,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>434</v>
       </c>
@@ -7181,7 +7198,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>435</v>
       </c>
@@ -7192,7 +7209,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>436</v>
       </c>
@@ -7203,7 +7220,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>437</v>
       </c>
@@ -7217,7 +7234,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>438</v>
       </c>
@@ -7228,7 +7245,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>439</v>
       </c>
@@ -7245,7 +7262,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>440</v>
       </c>
@@ -7259,7 +7276,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>441</v>
       </c>
@@ -7276,7 +7293,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>442</v>
       </c>
@@ -7293,7 +7310,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>443</v>
       </c>
@@ -7304,7 +7321,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>444</v>
       </c>
@@ -7315,7 +7332,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>445</v>
       </c>
@@ -7326,7 +7343,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>446</v>
       </c>
@@ -7337,7 +7354,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>447</v>
       </c>
@@ -7348,7 +7365,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>448</v>
       </c>
@@ -7359,7 +7376,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>449</v>
       </c>
@@ -7370,7 +7387,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>450</v>
       </c>
@@ -7387,7 +7404,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>451</v>
       </c>
@@ -7398,7 +7415,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>452</v>
       </c>
@@ -7409,7 +7426,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>453</v>
       </c>
@@ -7420,7 +7437,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>454</v>
       </c>
@@ -7431,7 +7448,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>455</v>
       </c>
@@ -7442,7 +7459,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>456</v>
       </c>
@@ -7453,7 +7470,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>457</v>
       </c>
@@ -7464,7 +7481,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>458</v>
       </c>
@@ -7475,7 +7492,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>459</v>
       </c>
@@ -7486,7 +7503,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>460</v>
       </c>
@@ -7497,7 +7514,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>461</v>
       </c>
@@ -7508,7 +7525,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>462</v>
       </c>
@@ -7519,7 +7536,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>463</v>
       </c>
@@ -7530,7 +7547,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>464</v>
       </c>
@@ -7541,7 +7558,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>465</v>
       </c>
@@ -7552,7 +7569,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>466</v>
       </c>
@@ -7563,7 +7580,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>467</v>
       </c>
@@ -7580,7 +7597,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>468</v>
       </c>
@@ -7591,7 +7608,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>469</v>
       </c>
@@ -7602,7 +7619,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>470</v>
       </c>
@@ -7613,7 +7630,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>471</v>
       </c>
@@ -7624,7 +7641,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>472</v>
       </c>
@@ -7635,7 +7652,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>473</v>
       </c>
@@ -7646,7 +7663,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>474</v>
       </c>
@@ -7657,7 +7674,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>475</v>
       </c>
@@ -7671,7 +7688,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>476</v>
       </c>
@@ -7682,7 +7699,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>477</v>
       </c>
@@ -7699,7 +7716,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>478</v>
       </c>
@@ -7710,7 +7727,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>479</v>
       </c>
@@ -7718,7 +7735,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>480</v>
       </c>
@@ -7729,7 +7746,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>481</v>
       </c>
@@ -7740,7 +7757,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>482</v>
       </c>
@@ -7754,7 +7771,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>483</v>
       </c>
@@ -7765,7 +7782,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>484</v>
       </c>
@@ -7779,7 +7796,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>485</v>
       </c>
@@ -7790,7 +7807,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>486</v>
       </c>
@@ -7801,7 +7818,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>487</v>
       </c>
@@ -7812,7 +7829,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>488</v>
       </c>
@@ -7823,7 +7840,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>489</v>
       </c>
@@ -7834,7 +7851,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>490</v>
       </c>
@@ -7848,7 +7865,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>491</v>
       </c>
@@ -7862,7 +7879,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>492</v>
       </c>
@@ -7873,7 +7890,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>493</v>
       </c>
@@ -7884,7 +7901,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>494</v>
       </c>
@@ -7895,7 +7912,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>495</v>
       </c>
@@ -7906,7 +7923,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>496</v>
       </c>
@@ -7917,7 +7934,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>497</v>
       </c>
@@ -7934,7 +7951,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>498</v>
       </c>
@@ -7951,7 +7968,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>499</v>
       </c>
@@ -7968,7 +7985,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>500</v>
       </c>
@@ -7985,7 +8002,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>501</v>
       </c>
@@ -7996,7 +8013,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>502</v>
       </c>
@@ -8007,7 +8024,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>503</v>
       </c>
@@ -8018,7 +8035,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>504</v>
       </c>
@@ -8029,7 +8046,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>505</v>
       </c>
@@ -8040,7 +8057,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>506</v>
       </c>
@@ -8057,7 +8074,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>507</v>
       </c>
@@ -8068,7 +8085,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>508</v>
       </c>
@@ -8079,7 +8096,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>509</v>
       </c>
@@ -8090,7 +8107,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>510</v>
       </c>
@@ -8101,7 +8118,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>511</v>
       </c>
@@ -8112,7 +8129,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>512</v>
       </c>
@@ -8123,7 +8140,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>513</v>
       </c>
@@ -8134,7 +8151,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>514</v>
       </c>
@@ -8145,7 +8162,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>515</v>
       </c>
@@ -8156,7 +8173,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>516</v>
       </c>
@@ -8167,7 +8184,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>517</v>
       </c>
@@ -8178,7 +8195,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>518</v>
       </c>
@@ -8189,7 +8206,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>519</v>
       </c>
@@ -8200,7 +8217,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>520</v>
       </c>
@@ -8211,7 +8228,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>521</v>
       </c>
@@ -8222,7 +8239,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>522</v>
       </c>
@@ -8233,7 +8250,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>523</v>
       </c>
@@ -8247,7 +8264,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>524</v>
       </c>
@@ -8258,7 +8275,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>525</v>
       </c>
@@ -8269,7 +8286,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>526</v>
       </c>
@@ -8280,7 +8297,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>527</v>
       </c>
@@ -8294,7 +8311,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>528</v>
       </c>
@@ -8305,7 +8322,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>529</v>
       </c>
@@ -8316,7 +8333,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>530</v>
       </c>
@@ -8327,7 +8344,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>531</v>
       </c>
@@ -8344,7 +8361,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>532</v>
       </c>
@@ -8355,7 +8372,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>533</v>
       </c>
@@ -8369,7 +8386,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>534</v>
       </c>
@@ -8380,7 +8397,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>535</v>
       </c>
@@ -8391,7 +8408,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>536</v>
       </c>
@@ -8402,7 +8419,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>537</v>
       </c>
@@ -8419,7 +8436,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>538</v>
       </c>
@@ -8433,7 +8450,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>539</v>
       </c>
@@ -8447,7 +8464,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>540</v>
       </c>
@@ -8458,7 +8475,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>541</v>
       </c>
@@ -8472,7 +8489,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>542</v>
       </c>
@@ -8483,7 +8500,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>543</v>
       </c>
@@ -8500,7 +8517,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>544</v>
       </c>
@@ -8517,7 +8534,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>545</v>
       </c>
@@ -8534,7 +8551,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>546</v>
       </c>
@@ -8545,7 +8562,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>547</v>
       </c>
@@ -8556,7 +8573,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>548</v>
       </c>
@@ -8567,7 +8584,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>549</v>
       </c>
@@ -8584,7 +8601,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>550</v>
       </c>
@@ -8595,7 +8612,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>551</v>
       </c>
@@ -8606,7 +8623,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>552</v>
       </c>
@@ -8620,7 +8637,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>553</v>
       </c>
@@ -8631,7 +8648,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>554</v>
       </c>
@@ -8648,7 +8665,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>555</v>
       </c>
@@ -8665,7 +8682,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>556</v>
       </c>
@@ -8676,7 +8693,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>557</v>
       </c>
@@ -8687,7 +8704,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>558</v>
       </c>
@@ -8698,7 +8715,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>559</v>
       </c>
@@ -8712,7 +8729,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>560</v>
       </c>
@@ -8723,7 +8740,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>561</v>
       </c>
@@ -8734,7 +8751,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>562</v>
       </c>
@@ -8751,7 +8768,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>563</v>
       </c>
@@ -8762,7 +8779,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>564</v>
       </c>
@@ -8773,7 +8790,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>565</v>
       </c>
@@ -8784,7 +8801,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>566</v>
       </c>
@@ -8795,7 +8812,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>567</v>
       </c>
@@ -8812,7 +8829,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>568</v>
       </c>
@@ -8829,7 +8846,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>569</v>
       </c>
@@ -8840,7 +8857,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>570</v>
       </c>
@@ -8851,7 +8868,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>571</v>
       </c>
@@ -8862,7 +8879,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>572</v>
       </c>
@@ -8873,7 +8890,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>573</v>
       </c>
@@ -8884,7 +8901,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>574</v>
       </c>
@@ -8895,7 +8912,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>575</v>
       </c>
@@ -8909,7 +8926,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>576</v>
       </c>
@@ -8920,7 +8937,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>577</v>
       </c>
@@ -8931,7 +8948,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>578</v>
       </c>
@@ -8948,7 +8965,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>579</v>
       </c>
@@ -8959,7 +8976,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>580</v>
       </c>
@@ -8970,7 +8987,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>581</v>
       </c>
@@ -8987,7 +9004,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>582</v>
       </c>
@@ -8998,7 +9015,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>583</v>
       </c>
@@ -9012,7 +9029,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>584</v>
       </c>
@@ -9023,7 +9040,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>585</v>
       </c>
@@ -9034,7 +9051,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>586</v>
       </c>
@@ -9045,7 +9062,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>587</v>
       </c>
@@ -9056,7 +9073,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>588</v>
       </c>
@@ -9070,7 +9087,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>589</v>
       </c>
@@ -9081,7 +9098,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>590</v>
       </c>
@@ -9092,7 +9109,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>591</v>
       </c>
@@ -9106,7 +9123,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>592</v>
       </c>
@@ -9117,7 +9134,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>593</v>
       </c>
@@ -9134,7 +9151,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>594</v>
       </c>
@@ -9145,7 +9162,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>595</v>
       </c>
@@ -9156,7 +9173,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>596</v>
       </c>
@@ -9167,7 +9184,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>597</v>
       </c>
@@ -9178,7 +9195,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>598</v>
       </c>
@@ -9189,7 +9206,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>599</v>
       </c>
@@ -9203,7 +9220,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>600</v>
       </c>
@@ -9214,7 +9231,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>601</v>
       </c>
@@ -9225,7 +9242,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>602</v>
       </c>
@@ -9236,7 +9253,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>603</v>
       </c>
@@ -9247,7 +9264,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>604</v>
       </c>
@@ -9261,7 +9278,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>605</v>
       </c>
@@ -9272,7 +9289,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>606</v>
       </c>
@@ -9289,7 +9306,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>607</v>
       </c>
@@ -9303,7 +9320,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>608</v>
       </c>
@@ -9317,7 +9334,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>609</v>
       </c>
@@ -9328,7 +9345,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>610</v>
       </c>
@@ -9345,7 +9362,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>611</v>
       </c>
@@ -9356,7 +9373,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>612</v>
       </c>
@@ -9367,7 +9384,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>613</v>
       </c>
@@ -9378,7 +9395,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>614</v>
       </c>
@@ -9389,7 +9406,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>615</v>
       </c>
@@ -9406,7 +9423,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>616</v>
       </c>
@@ -9423,7 +9440,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>617</v>
       </c>
@@ -9440,7 +9457,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>618</v>
       </c>
@@ -9451,7 +9468,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>619</v>
       </c>
@@ -9462,7 +9479,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>620</v>
       </c>
@@ -9476,7 +9493,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>621</v>
       </c>
@@ -9490,7 +9507,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>622</v>
       </c>
@@ -9501,7 +9518,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>623</v>
       </c>
@@ -9515,7 +9532,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>624</v>
       </c>
@@ -9526,7 +9543,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>625</v>
       </c>
@@ -9537,7 +9554,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>626</v>
       </c>
@@ -9551,7 +9568,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>627</v>
       </c>
@@ -9562,7 +9579,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>628</v>
       </c>
@@ -9576,7 +9593,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>629</v>
       </c>
@@ -9593,7 +9610,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>630</v>
       </c>
@@ -9604,7 +9621,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>631</v>
       </c>
@@ -9615,7 +9632,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>632</v>
       </c>
@@ -9629,7 +9646,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>638</v>
       </c>
@@ -9643,7 +9660,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>639</v>
       </c>
@@ -9654,7 +9671,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>640</v>
       </c>
@@ -9668,7 +9685,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>641</v>
       </c>
@@ -9679,7 +9696,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>642</v>
       </c>
@@ -9690,7 +9707,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>643</v>
       </c>
@@ -9704,7 +9721,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>644</v>
       </c>
@@ -9718,7 +9735,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>645</v>
       </c>
@@ -9729,7 +9746,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>646</v>
       </c>
@@ -9740,7 +9757,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>647</v>
       </c>
@@ -9754,7 +9771,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>648</v>
       </c>
@@ -9765,7 +9782,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>649</v>
       </c>
@@ -9776,7 +9793,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>650</v>
       </c>
@@ -9787,7 +9804,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>651</v>
       </c>
@@ -9801,7 +9818,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>652</v>
       </c>
@@ -9812,7 +9829,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>653</v>
       </c>
@@ -9823,7 +9840,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>654</v>
       </c>
@@ -9834,7 +9851,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>655</v>
       </c>
@@ -9845,7 +9862,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>663</v>
       </c>
@@ -9862,7 +9879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>664</v>
       </c>
@@ -9876,7 +9893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>665</v>
       </c>
@@ -9893,7 +9910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>666</v>
       </c>
@@ -9910,7 +9927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>667</v>
       </c>
@@ -9924,7 +9941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>668</v>
       </c>
@@ -9941,7 +9958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>669</v>
       </c>
@@ -9955,7 +9972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>670</v>
       </c>
@@ -9969,7 +9986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>671</v>
       </c>
@@ -9983,7 +10000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>672</v>
       </c>
@@ -10003,7 +10020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>673</v>
       </c>
@@ -10017,7 +10034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>674</v>
       </c>
@@ -10031,7 +10048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>675</v>
       </c>
@@ -10045,7 +10062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>680</v>
       </c>
@@ -10059,7 +10076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>681</v>
       </c>
@@ -10076,7 +10093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>682</v>
       </c>
@@ -10090,7 +10107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>683</v>
       </c>
@@ -10104,7 +10121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>684</v>
       </c>
@@ -10118,7 +10135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>685</v>
       </c>
@@ -10135,7 +10152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>686</v>
       </c>
@@ -10149,7 +10166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>687</v>
       </c>
@@ -10166,7 +10183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>688</v>
       </c>
@@ -10183,7 +10200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>689</v>
       </c>
@@ -10197,7 +10214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>690</v>
       </c>
@@ -10214,7 +10231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>691</v>
       </c>
@@ -10228,7 +10245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>692</v>
       </c>
@@ -10242,7 +10259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>693</v>
       </c>
@@ -10259,7 +10276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>694</v>
       </c>
@@ -10276,7 +10293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>695</v>
       </c>
@@ -10293,7 +10310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>696</v>
       </c>
@@ -10307,7 +10324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>697</v>
       </c>
@@ -10321,7 +10338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>698</v>
       </c>
@@ -10335,7 +10352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>699</v>
       </c>
@@ -10352,7 +10369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>700</v>
       </c>
@@ -10366,7 +10383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>701</v>
       </c>
@@ -10380,7 +10397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>702</v>
       </c>
@@ -10394,7 +10411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>703</v>
       </c>
@@ -10408,7 +10425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>704</v>
       </c>
@@ -10422,7 +10439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>705</v>
       </c>
@@ -10439,7 +10456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>706</v>
       </c>
@@ -10469,7 +10486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10477,16 +10494,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="5" width="18.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10506,7 +10523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -10520,7 +10537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10531,7 +10548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10548,7 +10565,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10562,7 +10579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>716</v>
       </c>
@@ -10576,7 +10593,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>717</v>
       </c>
@@ -10593,12 +10610,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>719</v>
       </c>
@@ -10609,7 +10626,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>720</v>
       </c>
@@ -10620,7 +10637,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>721</v>
       </c>
@@ -10634,12 +10651,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>723</v>
       </c>
@@ -10650,7 +10667,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>724</v>
       </c>
@@ -10661,7 +10678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>725</v>
       </c>
@@ -10678,12 +10695,12 @@
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>727</v>
       </c>
@@ -10694,112 +10711,112 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>749</v>
       </c>
@@ -10811,16 +10828,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C286433-50B8-4E51-90E6-D149E50C7BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10840,7 +10857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10860,7 +10877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -10874,7 +10891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -10885,7 +10902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -10899,7 +10916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\GitRemoteRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F3902-CFFD-47FC-9BA8-FB8802564CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2494,7 +2495,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2881,27 +2882,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H572" sqref="H572"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.265625" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" customWidth="1"/>
+    <col min="4" max="4" width="51.86328125" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2937,11 +2938,8 @@
       <c r="E2" t="s">
         <v>708</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2971,11 +2969,8 @@
       <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2985,11 +2980,8 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2999,11 +2991,8 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3013,11 +3002,8 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3030,11 +3016,8 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3050,11 +3033,8 @@
       <c r="E9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3064,11 +3044,8 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3081,11 +3058,8 @@
       <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3095,11 +3069,8 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -3115,11 +3086,8 @@
       <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3130,7 +3098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3147,7 +3115,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3158,7 +3126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3169,7 +3137,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3180,7 +3148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3191,7 +3159,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3202,7 +3170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3216,7 +3184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3230,7 +3198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3241,7 +3209,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3252,7 +3220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3263,7 +3231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3274,7 +3242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3285,7 +3253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3299,7 +3267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3310,7 +3278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3324,7 +3292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3338,7 +3306,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -3352,7 +3320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3363,7 +3331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3377,7 +3345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3391,7 +3359,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3402,7 +3370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3413,7 +3381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3427,7 +3395,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3441,7 +3409,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -3452,7 +3420,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -3466,7 +3434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3477,7 +3445,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -3491,7 +3459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3502,7 +3470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3516,7 +3484,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3527,7 +3495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3538,7 +3506,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -3555,7 +3523,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3566,7 +3534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3577,7 +3545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -3588,7 +3556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3599,7 +3567,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3610,7 +3578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3620,11 +3588,8 @@
       <c r="C54" t="s">
         <v>106</v>
       </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3637,11 +3602,8 @@
       <c r="D55" t="s">
         <v>109</v>
       </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3657,11 +3619,8 @@
       <c r="E56" t="s">
         <v>102</v>
       </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3671,11 +3630,8 @@
       <c r="C57" t="s">
         <v>102</v>
       </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3685,11 +3641,8 @@
       <c r="C58" t="s">
         <v>110</v>
       </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3702,11 +3655,8 @@
       <c r="D59" t="s">
         <v>112</v>
       </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3716,11 +3666,8 @@
       <c r="C60" t="s">
         <v>102</v>
       </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -3730,11 +3677,8 @@
       <c r="C61" t="s">
         <v>106</v>
       </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3744,11 +3688,8 @@
       <c r="C62" t="s">
         <v>110</v>
       </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3761,11 +3702,8 @@
       <c r="D63" t="s">
         <v>111</v>
       </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -3775,11 +3713,8 @@
       <c r="C64" t="s">
         <v>107</v>
       </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -3789,11 +3724,8 @@
       <c r="C65" t="s">
         <v>106</v>
       </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -3806,11 +3738,8 @@
       <c r="D66" t="s">
         <v>107</v>
       </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -3820,11 +3749,8 @@
       <c r="C67" t="s">
         <v>120</v>
       </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -3834,11 +3760,8 @@
       <c r="C68" t="s">
         <v>140</v>
       </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -3848,11 +3771,8 @@
       <c r="C69" t="s">
         <v>119</v>
       </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -3862,11 +3782,8 @@
       <c r="C70" t="s">
         <v>120</v>
       </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -3876,11 +3793,8 @@
       <c r="C71" t="s">
         <v>140</v>
       </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -3893,11 +3807,8 @@
       <c r="D72" t="s">
         <v>116</v>
       </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -3910,11 +3821,8 @@
       <c r="D73" t="s">
         <v>142</v>
       </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -3924,11 +3832,8 @@
       <c r="C74" t="s">
         <v>140</v>
       </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -3938,11 +3843,8 @@
       <c r="C75" t="s">
         <v>123</v>
       </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -3955,11 +3857,8 @@
       <c r="D76" t="s">
         <v>122</v>
       </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -3972,11 +3871,8 @@
       <c r="D77" t="s">
         <v>135</v>
       </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -3986,11 +3882,8 @@
       <c r="C78" t="s">
         <v>141</v>
       </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -4000,11 +3893,8 @@
       <c r="C79" t="s">
         <v>141</v>
       </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -4014,11 +3904,8 @@
       <c r="C80" t="s">
         <v>140</v>
       </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -4028,11 +3915,8 @@
       <c r="C81" t="s">
         <v>131</v>
       </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -4045,11 +3929,8 @@
       <c r="D82" t="s">
         <v>131</v>
       </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -4059,11 +3940,8 @@
       <c r="C83" t="s">
         <v>132</v>
       </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -4076,11 +3954,8 @@
       <c r="D84" t="s">
         <v>144</v>
       </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -4093,11 +3968,8 @@
       <c r="D85" t="s">
         <v>146</v>
       </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -4110,11 +3982,8 @@
       <c r="D86" t="s">
         <v>816</v>
       </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -4124,11 +3993,8 @@
       <c r="C87" t="s">
         <v>139</v>
       </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -4138,11 +4004,8 @@
       <c r="C88" t="s">
         <v>145</v>
       </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -4152,11 +4015,8 @@
       <c r="C89" t="s">
         <v>120</v>
       </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -4166,11 +4026,8 @@
       <c r="C90" t="s">
         <v>141</v>
       </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -4180,11 +4037,8 @@
       <c r="C91" t="s">
         <v>141</v>
       </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -4197,11 +4051,8 @@
       <c r="D92" t="s">
         <v>134</v>
       </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -4214,11 +4065,8 @@
       <c r="D93" t="s">
         <v>143</v>
       </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>147</v>
       </c>
@@ -4228,11 +4076,8 @@
       <c r="C94" t="s">
         <v>3</v>
       </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -4242,11 +4087,8 @@
       <c r="C95" t="s">
         <v>3</v>
       </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -4256,11 +4098,8 @@
       <c r="C96" t="s">
         <v>3</v>
       </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>150</v>
       </c>
@@ -4270,11 +4109,8 @@
       <c r="C97" t="s">
         <v>3</v>
       </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>151</v>
       </c>
@@ -4284,11 +4120,8 @@
       <c r="C98" t="s">
         <v>3</v>
       </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -4298,11 +4131,8 @@
       <c r="C99" t="s">
         <v>3</v>
       </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -4312,11 +4142,8 @@
       <c r="C100" t="s">
         <v>3</v>
       </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>154</v>
       </c>
@@ -4327,7 +4154,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>155</v>
       </c>
@@ -4341,7 +4168,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -4355,7 +4182,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -4369,7 +4196,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -4383,7 +4210,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>159</v>
       </c>
@@ -4397,7 +4224,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -4408,7 +4235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -4425,7 +4252,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>162</v>
       </c>
@@ -4442,7 +4269,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -4459,7 +4286,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -4470,7 +4297,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -4481,7 +4308,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -4498,7 +4325,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -4509,7 +4336,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>168</v>
       </c>
@@ -4526,7 +4353,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>169</v>
       </c>
@@ -4537,7 +4364,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>170</v>
       </c>
@@ -4548,7 +4375,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>171</v>
       </c>
@@ -4559,7 +4386,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>172</v>
       </c>
@@ -4573,7 +4400,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -4584,7 +4411,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>174</v>
       </c>
@@ -4595,7 +4422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>175</v>
       </c>
@@ -4606,7 +4433,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>176</v>
       </c>
@@ -4617,7 +4444,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>177</v>
       </c>
@@ -4628,7 +4455,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -4645,7 +4472,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>179</v>
       </c>
@@ -4662,7 +4489,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -4673,7 +4500,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -4690,7 +4517,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -4707,7 +4534,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -4724,7 +4551,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -4735,7 +4562,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>185</v>
       </c>
@@ -4752,7 +4579,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>186</v>
       </c>
@@ -4769,7 +4596,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -4780,7 +4607,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>188</v>
       </c>
@@ -4791,7 +4618,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>189</v>
       </c>
@@ -4802,7 +4629,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>190</v>
       </c>
@@ -4819,7 +4646,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -4836,7 +4663,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>192</v>
       </c>
@@ -4847,7 +4674,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>193</v>
       </c>
@@ -4861,7 +4688,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -4875,7 +4702,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>195</v>
       </c>
@@ -4889,7 +4716,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>196</v>
       </c>
@@ -4900,7 +4727,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>197</v>
       </c>
@@ -4917,7 +4744,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>198</v>
       </c>
@@ -4928,7 +4755,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>199</v>
       </c>
@@ -4939,7 +4766,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>200</v>
       </c>
@@ -4953,7 +4780,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>201</v>
       </c>
@@ -4964,7 +4791,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>202</v>
       </c>
@@ -4975,7 +4802,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -4992,7 +4819,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>204</v>
       </c>
@@ -5009,7 +4836,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>205</v>
       </c>
@@ -5026,7 +4853,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>206</v>
       </c>
@@ -5043,7 +4870,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>207</v>
       </c>
@@ -5060,7 +4887,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>208</v>
       </c>
@@ -5077,7 +4904,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>209</v>
       </c>
@@ -5094,7 +4921,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>210</v>
       </c>
@@ -5108,7 +4935,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>211</v>
       </c>
@@ -5119,7 +4946,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>212</v>
       </c>
@@ -5136,7 +4963,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>213</v>
       </c>
@@ -5147,7 +4974,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -5158,7 +4985,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>215</v>
       </c>
@@ -5175,7 +5002,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -5186,7 +5013,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>217</v>
       </c>
@@ -5203,7 +5030,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>218</v>
       </c>
@@ -5220,7 +5047,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>219</v>
       </c>
@@ -5237,7 +5064,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>220</v>
       </c>
@@ -5254,7 +5081,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>221</v>
       </c>
@@ -5265,7 +5092,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>222</v>
       </c>
@@ -5276,7 +5103,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>223</v>
       </c>
@@ -5287,7 +5114,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>224</v>
       </c>
@@ -5298,7 +5125,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>225</v>
       </c>
@@ -5309,7 +5136,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>226</v>
       </c>
@@ -5320,7 +5147,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>227</v>
       </c>
@@ -5331,7 +5158,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>228</v>
       </c>
@@ -5342,7 +5169,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>229</v>
       </c>
@@ -5353,7 +5180,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>230</v>
       </c>
@@ -5364,7 +5191,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>231</v>
       </c>
@@ -5375,7 +5202,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>232</v>
       </c>
@@ -5392,7 +5219,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>233</v>
       </c>
@@ -5403,7 +5230,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>234</v>
       </c>
@@ -5414,7 +5241,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>235</v>
       </c>
@@ -5425,7 +5252,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>236</v>
       </c>
@@ -5436,7 +5263,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>237</v>
       </c>
@@ -5453,7 +5280,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>238</v>
       </c>
@@ -5464,7 +5291,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>239</v>
       </c>
@@ -5475,7 +5302,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>240</v>
       </c>
@@ -5486,7 +5313,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>241</v>
       </c>
@@ -5497,7 +5324,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>242</v>
       </c>
@@ -5508,7 +5335,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>243</v>
       </c>
@@ -5519,7 +5346,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>244</v>
       </c>
@@ -5536,7 +5363,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -5547,7 +5374,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>246</v>
       </c>
@@ -5564,7 +5391,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>247</v>
       </c>
@@ -5575,7 +5402,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>248</v>
       </c>
@@ -5586,7 +5413,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>249</v>
       </c>
@@ -5603,7 +5430,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>250</v>
       </c>
@@ -5614,7 +5441,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>251</v>
       </c>
@@ -5631,7 +5458,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>252</v>
       </c>
@@ -5648,7 +5475,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>253</v>
       </c>
@@ -5659,7 +5486,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>254</v>
       </c>
@@ -5670,7 +5497,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>255</v>
       </c>
@@ -5687,7 +5514,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>256</v>
       </c>
@@ -5698,7 +5525,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -5709,7 +5536,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -5720,7 +5547,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>259</v>
       </c>
@@ -5731,7 +5558,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>260</v>
       </c>
@@ -5742,7 +5569,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>261</v>
       </c>
@@ -5753,7 +5580,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>262</v>
       </c>
@@ -5764,7 +5591,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>263</v>
       </c>
@@ -5781,7 +5608,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>264</v>
       </c>
@@ -5792,7 +5619,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>265</v>
       </c>
@@ -5803,7 +5630,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>266</v>
       </c>
@@ -5820,7 +5647,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>267</v>
       </c>
@@ -5831,7 +5658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>268</v>
       </c>
@@ -5848,7 +5675,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>269</v>
       </c>
@@ -5859,7 +5686,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>270</v>
       </c>
@@ -5870,7 +5697,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>271</v>
       </c>
@@ -5881,7 +5708,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>272</v>
       </c>
@@ -5892,7 +5719,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>273</v>
       </c>
@@ -5903,7 +5730,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>274</v>
       </c>
@@ -5914,7 +5741,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>275</v>
       </c>
@@ -5925,7 +5752,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>276</v>
       </c>
@@ -5936,7 +5763,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>277</v>
       </c>
@@ -5947,7 +5774,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>278</v>
       </c>
@@ -5958,7 +5785,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>279</v>
       </c>
@@ -5969,7 +5796,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>280</v>
       </c>
@@ -5980,7 +5807,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>281</v>
       </c>
@@ -5991,7 +5818,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>282</v>
       </c>
@@ -6002,7 +5829,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>283</v>
       </c>
@@ -6013,7 +5840,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>284</v>
       </c>
@@ -6024,7 +5851,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>285</v>
       </c>
@@ -6035,7 +5862,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>286</v>
       </c>
@@ -6046,7 +5873,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>287</v>
       </c>
@@ -6057,7 +5884,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>288</v>
       </c>
@@ -6068,7 +5895,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>289</v>
       </c>
@@ -6079,7 +5906,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>290</v>
       </c>
@@ -6090,7 +5917,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>291</v>
       </c>
@@ -6104,7 +5931,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>292</v>
       </c>
@@ -6118,7 +5945,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>293</v>
       </c>
@@ -6129,7 +5956,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>294</v>
       </c>
@@ -6140,7 +5967,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>295</v>
       </c>
@@ -6151,7 +5978,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>296</v>
       </c>
@@ -6162,7 +5989,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>297</v>
       </c>
@@ -6173,7 +6000,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>298</v>
       </c>
@@ -6184,7 +6011,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>299</v>
       </c>
@@ -6195,7 +6022,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>300</v>
       </c>
@@ -6209,7 +6036,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>301</v>
       </c>
@@ -6220,7 +6047,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>302</v>
       </c>
@@ -6234,7 +6061,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>303</v>
       </c>
@@ -6248,7 +6075,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>304</v>
       </c>
@@ -6262,7 +6089,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>305</v>
       </c>
@@ -6273,7 +6100,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>306</v>
       </c>
@@ -6284,7 +6111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>307</v>
       </c>
@@ -6295,7 +6122,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>308</v>
       </c>
@@ -6306,7 +6133,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>309</v>
       </c>
@@ -6317,7 +6144,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>310</v>
       </c>
@@ -6331,7 +6158,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>311</v>
       </c>
@@ -6345,7 +6172,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>312</v>
       </c>
@@ -6359,7 +6186,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>313</v>
       </c>
@@ -6373,7 +6200,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>314</v>
       </c>
@@ -6387,7 +6214,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>315</v>
       </c>
@@ -6401,7 +6228,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -6415,7 +6242,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>317</v>
       </c>
@@ -6429,7 +6256,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>318</v>
       </c>
@@ -6443,7 +6270,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>319</v>
       </c>
@@ -6457,7 +6284,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>320</v>
       </c>
@@ -6471,7 +6298,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>321</v>
       </c>
@@ -6482,7 +6309,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>322</v>
       </c>
@@ -6496,7 +6323,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>323</v>
       </c>
@@ -6510,7 +6337,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>324</v>
       </c>
@@ -6527,7 +6354,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>325</v>
       </c>
@@ -6541,7 +6368,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>326</v>
       </c>
@@ -6555,7 +6382,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>327</v>
       </c>
@@ -6572,7 +6399,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>328</v>
       </c>
@@ -6583,7 +6410,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>329</v>
       </c>
@@ -6594,7 +6421,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>330</v>
       </c>
@@ -6608,7 +6435,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>383</v>
       </c>
@@ -6622,7 +6449,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>384</v>
       </c>
@@ -6633,7 +6460,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>385</v>
       </c>
@@ -6647,7 +6474,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>386</v>
       </c>
@@ -6658,7 +6485,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>387</v>
       </c>
@@ -6672,7 +6499,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>388</v>
       </c>
@@ -6683,7 +6510,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>389</v>
       </c>
@@ -6697,7 +6524,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>390</v>
       </c>
@@ -6708,7 +6535,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>391</v>
       </c>
@@ -6719,7 +6546,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>392</v>
       </c>
@@ -6730,7 +6557,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>393</v>
       </c>
@@ -6744,7 +6571,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>394</v>
       </c>
@@ -6755,7 +6582,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>395</v>
       </c>
@@ -6766,7 +6593,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>396</v>
       </c>
@@ -6777,7 +6604,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>397</v>
       </c>
@@ -6788,7 +6615,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>398</v>
       </c>
@@ -6799,7 +6626,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>399</v>
       </c>
@@ -6810,7 +6637,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>400</v>
       </c>
@@ -6821,7 +6648,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>401</v>
       </c>
@@ -6832,7 +6659,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>402</v>
       </c>
@@ -6843,7 +6670,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>403</v>
       </c>
@@ -6857,7 +6684,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>404</v>
       </c>
@@ -6871,7 +6698,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>405</v>
       </c>
@@ -6882,7 +6709,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>412</v>
       </c>
@@ -6896,7 +6723,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>413</v>
       </c>
@@ -6909,11 +6736,8 @@
       <c r="D302" t="s">
         <v>756</v>
       </c>
-      <c r="G302" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>414</v>
       </c>
@@ -6924,7 +6748,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>415</v>
       </c>
@@ -6938,7 +6762,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>416</v>
       </c>
@@ -6952,7 +6776,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>417</v>
       </c>
@@ -6966,7 +6790,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>418</v>
       </c>
@@ -6980,7 +6804,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>419</v>
       </c>
@@ -6994,7 +6818,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>420</v>
       </c>
@@ -7008,7 +6832,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>421</v>
       </c>
@@ -7019,7 +6843,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>422</v>
       </c>
@@ -7033,7 +6857,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>423</v>
       </c>
@@ -7047,7 +6871,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>424</v>
       </c>
@@ -7061,7 +6885,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>425</v>
       </c>
@@ -7075,7 +6899,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>426</v>
       </c>
@@ -7089,7 +6913,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>427</v>
       </c>
@@ -7103,7 +6927,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>428</v>
       </c>
@@ -7117,7 +6941,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>429</v>
       </c>
@@ -7128,7 +6952,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>430</v>
       </c>
@@ -7142,7 +6966,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>431</v>
       </c>
@@ -7156,7 +6980,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>432</v>
       </c>
@@ -7170,7 +6994,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>433</v>
       </c>
@@ -7184,7 +7008,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>434</v>
       </c>
@@ -7198,7 +7022,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>435</v>
       </c>
@@ -7209,7 +7033,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>436</v>
       </c>
@@ -7220,7 +7044,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>437</v>
       </c>
@@ -7234,7 +7058,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>438</v>
       </c>
@@ -7245,7 +7069,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>439</v>
       </c>
@@ -7262,7 +7086,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>440</v>
       </c>
@@ -7276,7 +7100,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>441</v>
       </c>
@@ -7293,7 +7117,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>442</v>
       </c>
@@ -7310,7 +7134,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>443</v>
       </c>
@@ -7321,7 +7145,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>444</v>
       </c>
@@ -7332,7 +7156,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>445</v>
       </c>
@@ -7343,7 +7167,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>446</v>
       </c>
@@ -7354,7 +7178,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>447</v>
       </c>
@@ -7365,7 +7189,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>448</v>
       </c>
@@ -7376,7 +7200,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>449</v>
       </c>
@@ -7387,7 +7211,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>450</v>
       </c>
@@ -7404,7 +7228,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>451</v>
       </c>
@@ -7415,7 +7239,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>452</v>
       </c>
@@ -7426,7 +7250,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>453</v>
       </c>
@@ -7437,7 +7261,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>454</v>
       </c>
@@ -7448,7 +7272,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>455</v>
       </c>
@@ -7459,7 +7283,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>456</v>
       </c>
@@ -7470,7 +7294,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>457</v>
       </c>
@@ -7481,7 +7305,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>458</v>
       </c>
@@ -7492,7 +7316,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>459</v>
       </c>
@@ -7503,7 +7327,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>460</v>
       </c>
@@ -7514,7 +7338,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>461</v>
       </c>
@@ -7525,7 +7349,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>462</v>
       </c>
@@ -7536,7 +7360,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>463</v>
       </c>
@@ -7547,7 +7371,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>464</v>
       </c>
@@ -7558,7 +7382,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>465</v>
       </c>
@@ -7569,7 +7393,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>466</v>
       </c>
@@ -7580,7 +7404,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>467</v>
       </c>
@@ -7597,7 +7421,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>468</v>
       </c>
@@ -7608,7 +7432,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>469</v>
       </c>
@@ -7619,7 +7443,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>470</v>
       </c>
@@ -7630,7 +7454,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>471</v>
       </c>
@@ -7641,7 +7465,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>472</v>
       </c>
@@ -7652,7 +7476,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>473</v>
       </c>
@@ -7663,7 +7487,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>474</v>
       </c>
@@ -7674,7 +7498,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>475</v>
       </c>
@@ -7688,7 +7512,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>476</v>
       </c>
@@ -7699,7 +7523,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>477</v>
       </c>
@@ -7716,7 +7540,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>478</v>
       </c>
@@ -7727,7 +7551,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>479</v>
       </c>
@@ -7735,7 +7559,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>480</v>
       </c>
@@ -7746,7 +7570,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>481</v>
       </c>
@@ -7757,7 +7581,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>482</v>
       </c>
@@ -7771,7 +7595,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>483</v>
       </c>
@@ -7782,7 +7606,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>484</v>
       </c>
@@ -7796,7 +7620,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>485</v>
       </c>
@@ -7807,7 +7631,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>486</v>
       </c>
@@ -7818,7 +7642,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>487</v>
       </c>
@@ -7829,7 +7653,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>488</v>
       </c>
@@ -7840,7 +7664,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>489</v>
       </c>
@@ -7851,7 +7675,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>490</v>
       </c>
@@ -7865,7 +7689,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>491</v>
       </c>
@@ -7879,7 +7703,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>492</v>
       </c>
@@ -7890,7 +7714,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>493</v>
       </c>
@@ -7901,7 +7725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>494</v>
       </c>
@@ -7912,7 +7736,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>495</v>
       </c>
@@ -7923,7 +7747,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>496</v>
       </c>
@@ -7934,7 +7758,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>497</v>
       </c>
@@ -7951,7 +7775,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>498</v>
       </c>
@@ -7968,7 +7792,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>499</v>
       </c>
@@ -7985,7 +7809,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>500</v>
       </c>
@@ -8002,7 +7826,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>501</v>
       </c>
@@ -8013,7 +7837,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>502</v>
       </c>
@@ -8024,7 +7848,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>503</v>
       </c>
@@ -8035,7 +7859,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>504</v>
       </c>
@@ -8046,7 +7870,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>505</v>
       </c>
@@ -8057,7 +7881,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>506</v>
       </c>
@@ -8074,7 +7898,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>507</v>
       </c>
@@ -8085,7 +7909,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>508</v>
       </c>
@@ -8096,7 +7920,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>509</v>
       </c>
@@ -8107,7 +7931,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>510</v>
       </c>
@@ -8118,7 +7942,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>511</v>
       </c>
@@ -8129,7 +7953,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>512</v>
       </c>
@@ -8140,7 +7964,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>513</v>
       </c>
@@ -8151,7 +7975,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>514</v>
       </c>
@@ -8162,7 +7986,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>515</v>
       </c>
@@ -8173,7 +7997,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>516</v>
       </c>
@@ -8184,7 +8008,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>517</v>
       </c>
@@ -8195,7 +8019,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>518</v>
       </c>
@@ -8206,7 +8030,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>519</v>
       </c>
@@ -8217,7 +8041,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>520</v>
       </c>
@@ -8228,7 +8052,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>521</v>
       </c>
@@ -8239,7 +8063,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>522</v>
       </c>
@@ -8250,7 +8074,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>523</v>
       </c>
@@ -8264,7 +8088,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>524</v>
       </c>
@@ -8275,7 +8099,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>525</v>
       </c>
@@ -8286,7 +8110,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>526</v>
       </c>
@@ -8297,7 +8121,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>527</v>
       </c>
@@ -8311,7 +8135,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>528</v>
       </c>
@@ -8322,7 +8146,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>529</v>
       </c>
@@ -8333,7 +8157,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>530</v>
       </c>
@@ -8344,7 +8168,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>531</v>
       </c>
@@ -8361,7 +8185,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>532</v>
       </c>
@@ -8372,7 +8196,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>533</v>
       </c>
@@ -8386,7 +8210,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>534</v>
       </c>
@@ -8397,7 +8221,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>535</v>
       </c>
@@ -8408,7 +8232,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>536</v>
       </c>
@@ -8419,7 +8243,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>537</v>
       </c>
@@ -8436,7 +8260,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>538</v>
       </c>
@@ -8450,7 +8274,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>539</v>
       </c>
@@ -8464,7 +8288,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>540</v>
       </c>
@@ -8475,7 +8299,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>541</v>
       </c>
@@ -8489,7 +8313,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>542</v>
       </c>
@@ -8500,7 +8324,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>543</v>
       </c>
@@ -8517,7 +8341,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>544</v>
       </c>
@@ -8534,7 +8358,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>545</v>
       </c>
@@ -8551,7 +8375,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>546</v>
       </c>
@@ -8562,7 +8386,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>547</v>
       </c>
@@ -8573,7 +8397,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>548</v>
       </c>
@@ -8584,7 +8408,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>549</v>
       </c>
@@ -8601,7 +8425,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>550</v>
       </c>
@@ -8612,7 +8436,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>551</v>
       </c>
@@ -8623,7 +8447,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>552</v>
       </c>
@@ -8637,7 +8461,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>553</v>
       </c>
@@ -8648,7 +8472,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>554</v>
       </c>
@@ -8665,7 +8489,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>555</v>
       </c>
@@ -8682,7 +8506,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>556</v>
       </c>
@@ -8693,7 +8517,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>557</v>
       </c>
@@ -8704,7 +8528,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>558</v>
       </c>
@@ -8715,7 +8539,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>559</v>
       </c>
@@ -8729,7 +8553,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>560</v>
       </c>
@@ -8740,7 +8564,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>561</v>
       </c>
@@ -8751,7 +8575,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>562</v>
       </c>
@@ -8768,7 +8592,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>563</v>
       </c>
@@ -8779,7 +8603,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>564</v>
       </c>
@@ -8790,7 +8614,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>565</v>
       </c>
@@ -8801,7 +8625,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>566</v>
       </c>
@@ -8812,7 +8636,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>567</v>
       </c>
@@ -8829,7 +8653,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>568</v>
       </c>
@@ -8846,7 +8670,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>569</v>
       </c>
@@ -8857,7 +8681,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>570</v>
       </c>
@@ -8868,7 +8692,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>571</v>
       </c>
@@ -8879,7 +8703,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>572</v>
       </c>
@@ -8890,7 +8714,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>573</v>
       </c>
@@ -8901,7 +8725,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>574</v>
       </c>
@@ -8912,7 +8736,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>575</v>
       </c>
@@ -8926,7 +8750,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>576</v>
       </c>
@@ -8937,7 +8761,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>577</v>
       </c>
@@ -8948,7 +8772,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>578</v>
       </c>
@@ -8965,7 +8789,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>579</v>
       </c>
@@ -8976,7 +8800,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>580</v>
       </c>
@@ -8987,7 +8811,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>581</v>
       </c>
@@ -9004,7 +8828,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>582</v>
       </c>
@@ -9015,7 +8839,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>583</v>
       </c>
@@ -9029,7 +8853,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>584</v>
       </c>
@@ -9040,7 +8864,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>585</v>
       </c>
@@ -9051,7 +8875,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>586</v>
       </c>
@@ -9062,7 +8886,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>587</v>
       </c>
@@ -9073,7 +8897,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>588</v>
       </c>
@@ -9087,7 +8911,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>589</v>
       </c>
@@ -9098,7 +8922,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>590</v>
       </c>
@@ -9109,7 +8933,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>591</v>
       </c>
@@ -9123,7 +8947,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>592</v>
       </c>
@@ -9134,7 +8958,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>593</v>
       </c>
@@ -9151,7 +8975,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>594</v>
       </c>
@@ -9162,7 +8986,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>595</v>
       </c>
@@ -9173,7 +8997,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>596</v>
       </c>
@@ -9184,7 +9008,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>597</v>
       </c>
@@ -9195,7 +9019,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>598</v>
       </c>
@@ -9206,7 +9030,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>599</v>
       </c>
@@ -9220,7 +9044,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>600</v>
       </c>
@@ -9231,7 +9055,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>601</v>
       </c>
@@ -9242,7 +9066,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>602</v>
       </c>
@@ -9253,7 +9077,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>603</v>
       </c>
@@ -9264,7 +9088,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>604</v>
       </c>
@@ -9278,7 +9102,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>605</v>
       </c>
@@ -9289,7 +9113,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>606</v>
       </c>
@@ -9306,7 +9130,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>607</v>
       </c>
@@ -9320,7 +9144,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>608</v>
       </c>
@@ -9334,7 +9158,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>609</v>
       </c>
@@ -9345,7 +9169,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>610</v>
       </c>
@@ -9362,7 +9186,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>611</v>
       </c>
@@ -9373,7 +9197,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>612</v>
       </c>
@@ -9384,7 +9208,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>613</v>
       </c>
@@ -9395,7 +9219,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>614</v>
       </c>
@@ -9406,7 +9230,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>615</v>
       </c>
@@ -9423,7 +9247,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>616</v>
       </c>
@@ -9440,7 +9264,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>617</v>
       </c>
@@ -9457,7 +9281,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>618</v>
       </c>
@@ -9468,7 +9292,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>619</v>
       </c>
@@ -9479,7 +9303,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>620</v>
       </c>
@@ -9493,7 +9317,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>621</v>
       </c>
@@ -9507,7 +9331,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>622</v>
       </c>
@@ -9518,7 +9342,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>623</v>
       </c>
@@ -9532,7 +9356,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>624</v>
       </c>
@@ -9543,7 +9367,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>625</v>
       </c>
@@ -9554,7 +9378,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>626</v>
       </c>
@@ -9568,7 +9392,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>627</v>
       </c>
@@ -9579,7 +9403,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>628</v>
       </c>
@@ -9593,7 +9417,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>629</v>
       </c>
@@ -9610,7 +9434,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>630</v>
       </c>
@@ -9621,7 +9445,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>631</v>
       </c>
@@ -9632,7 +9456,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>632</v>
       </c>
@@ -9646,7 +9470,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>638</v>
       </c>
@@ -9660,7 +9484,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>639</v>
       </c>
@@ -9671,7 +9495,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>640</v>
       </c>
@@ -9685,7 +9509,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>641</v>
       </c>
@@ -9696,7 +9520,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>642</v>
       </c>
@@ -9707,7 +9531,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>643</v>
       </c>
@@ -9721,7 +9545,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>644</v>
       </c>
@@ -9735,7 +9559,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>645</v>
       </c>
@@ -9746,7 +9570,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>646</v>
       </c>
@@ -9757,7 +9581,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>647</v>
       </c>
@@ -9771,7 +9595,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>648</v>
       </c>
@@ -9782,7 +9606,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>649</v>
       </c>
@@ -9793,7 +9617,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>650</v>
       </c>
@@ -9804,7 +9628,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>651</v>
       </c>
@@ -9818,7 +9642,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>652</v>
       </c>
@@ -9829,7 +9653,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>653</v>
       </c>
@@ -9840,7 +9664,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>654</v>
       </c>
@@ -9851,7 +9675,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>655</v>
       </c>
@@ -9862,7 +9686,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>663</v>
       </c>
@@ -9875,11 +9699,8 @@
       <c r="D540" t="s">
         <v>673</v>
       </c>
-      <c r="G540" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>664</v>
       </c>
@@ -9889,11 +9710,8 @@
       <c r="C541" t="s">
         <v>666</v>
       </c>
-      <c r="G541" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>665</v>
       </c>
@@ -9906,11 +9724,8 @@
       <c r="D542" t="s">
         <v>678</v>
       </c>
-      <c r="G542" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>666</v>
       </c>
@@ -9923,11 +9738,8 @@
       <c r="D543" t="s">
         <v>679</v>
       </c>
-      <c r="G543" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>667</v>
       </c>
@@ -9937,11 +9749,8 @@
       <c r="C544" t="s">
         <v>676</v>
       </c>
-      <c r="G544" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>668</v>
       </c>
@@ -9954,11 +9763,8 @@
       <c r="D545" t="s">
         <v>663</v>
       </c>
-      <c r="G545" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>669</v>
       </c>
@@ -9968,11 +9774,8 @@
       <c r="C546" t="s">
         <v>665</v>
       </c>
-      <c r="G546" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>670</v>
       </c>
@@ -9982,11 +9785,8 @@
       <c r="C547" t="s">
         <v>676</v>
       </c>
-      <c r="G547" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>671</v>
       </c>
@@ -9996,11 +9796,8 @@
       <c r="C548" t="s">
         <v>666</v>
       </c>
-      <c r="G548" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>672</v>
       </c>
@@ -10016,11 +9813,8 @@
       <c r="E549" t="s">
         <v>666</v>
       </c>
-      <c r="G549" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>673</v>
       </c>
@@ -10030,11 +9824,8 @@
       <c r="C550" t="s">
         <v>663</v>
       </c>
-      <c r="G550" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>674</v>
       </c>
@@ -10044,11 +9835,8 @@
       <c r="C551" t="s">
         <v>665</v>
       </c>
-      <c r="G551" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>675</v>
       </c>
@@ -10058,11 +9846,8 @@
       <c r="C552" t="s">
         <v>665</v>
       </c>
-      <c r="G552" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>680</v>
       </c>
@@ -10072,11 +9857,8 @@
       <c r="C553" t="s">
         <v>681</v>
       </c>
-      <c r="G553" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>681</v>
       </c>
@@ -10089,11 +9871,8 @@
       <c r="D554" t="s">
         <v>710</v>
       </c>
-      <c r="G554" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>682</v>
       </c>
@@ -10103,11 +9882,8 @@
       <c r="C555" t="s">
         <v>681</v>
       </c>
-      <c r="G555" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>683</v>
       </c>
@@ -10117,11 +9893,8 @@
       <c r="C556" t="s">
         <v>687</v>
       </c>
-      <c r="G556" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>684</v>
       </c>
@@ -10131,11 +9904,8 @@
       <c r="C557" t="s">
         <v>687</v>
       </c>
-      <c r="G557" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>685</v>
       </c>
@@ -10148,11 +9918,8 @@
       <c r="D558" t="s">
         <v>686</v>
       </c>
-      <c r="G558" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>686</v>
       </c>
@@ -10162,11 +9929,8 @@
       <c r="C559" t="s">
         <v>685</v>
       </c>
-      <c r="G559" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>687</v>
       </c>
@@ -10179,11 +9943,8 @@
       <c r="D560" t="s">
         <v>711</v>
       </c>
-      <c r="G560" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>688</v>
       </c>
@@ -10196,11 +9957,8 @@
       <c r="D561" t="s">
         <v>692</v>
       </c>
-      <c r="G561" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>689</v>
       </c>
@@ -10210,11 +9968,8 @@
       <c r="C562" t="s">
         <v>687</v>
       </c>
-      <c r="G562" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>690</v>
       </c>
@@ -10227,11 +9982,8 @@
       <c r="D563" t="s">
         <v>704</v>
       </c>
-      <c r="G563" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>691</v>
       </c>
@@ -10241,11 +9993,8 @@
       <c r="C564" t="s">
         <v>693</v>
       </c>
-      <c r="G564" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>692</v>
       </c>
@@ -10255,11 +10004,8 @@
       <c r="C565" t="s">
         <v>688</v>
       </c>
-      <c r="G565" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>693</v>
       </c>
@@ -10272,11 +10018,8 @@
       <c r="D566" t="s">
         <v>712</v>
       </c>
-      <c r="G566" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>694</v>
       </c>
@@ -10289,11 +10032,8 @@
       <c r="D567" t="s">
         <v>701</v>
       </c>
-      <c r="G567" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>695</v>
       </c>
@@ -10306,11 +10046,8 @@
       <c r="D568" t="s">
         <v>709</v>
       </c>
-      <c r="G568" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>696</v>
       </c>
@@ -10320,11 +10057,8 @@
       <c r="C569" t="s">
         <v>705</v>
       </c>
-      <c r="G569" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>697</v>
       </c>
@@ -10334,11 +10068,8 @@
       <c r="C570" t="s">
         <v>707</v>
       </c>
-      <c r="G570" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>698</v>
       </c>
@@ -10348,11 +10079,8 @@
       <c r="C571" t="s">
         <v>707</v>
       </c>
-      <c r="G571" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>699</v>
       </c>
@@ -10365,11 +10093,8 @@
       <c r="D572" t="s">
         <v>693</v>
       </c>
-      <c r="G572" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>700</v>
       </c>
@@ -10379,11 +10104,8 @@
       <c r="C573" t="s">
         <v>681</v>
       </c>
-      <c r="G573" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>701</v>
       </c>
@@ -10393,11 +10115,8 @@
       <c r="C574" t="s">
         <v>694</v>
       </c>
-      <c r="G574" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>702</v>
       </c>
@@ -10407,11 +10126,8 @@
       <c r="C575" t="s">
         <v>687</v>
       </c>
-      <c r="G575" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>703</v>
       </c>
@@ -10421,11 +10137,8 @@
       <c r="C576" t="s">
         <v>707</v>
       </c>
-      <c r="G576" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>704</v>
       </c>
@@ -10435,11 +10148,8 @@
       <c r="C577" t="s">
         <v>690</v>
       </c>
-      <c r="G577" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>705</v>
       </c>
@@ -10452,11 +10162,8 @@
       <c r="D578" t="s">
         <v>713</v>
       </c>
-      <c r="G578" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>706</v>
       </c>
@@ -10465,9 +10172,6 @@
       </c>
       <c r="C579" t="s">
         <v>707</v>
-      </c>
-      <c r="G579" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -10486,7 +10190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10494,16 +10198,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="28.1328125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10523,7 +10227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -10537,7 +10241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10548,7 +10252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10565,7 +10269,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10579,7 +10283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>716</v>
       </c>
@@ -10593,7 +10297,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>717</v>
       </c>
@@ -10610,12 +10314,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>719</v>
       </c>
@@ -10626,7 +10330,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>720</v>
       </c>
@@ -10637,7 +10341,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>721</v>
       </c>
@@ -10651,12 +10355,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>723</v>
       </c>
@@ -10667,7 +10371,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>724</v>
       </c>
@@ -10678,7 +10382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>725</v>
       </c>
@@ -10695,12 +10399,12 @@
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>727</v>
       </c>
@@ -10711,112 +10415,112 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>749</v>
       </c>
@@ -10828,16 +10532,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10857,7 +10561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10877,7 +10581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -10891,7 +10595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -10902,7 +10606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -10916,7 +10620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F3902-CFFD-47FC-9BA8-FB8802564CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E9ECEA-CA33-4449-931F-3F3305DF707E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2885,9 +2885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H572" sqref="H572"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3523,7 +3523,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3588,8 +3588,11 @@
       <c r="C54" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3602,8 +3605,11 @@
       <c r="D55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3619,8 +3625,11 @@
       <c r="E56" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3630,8 +3639,11 @@
       <c r="C57" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3641,8 +3653,11 @@
       <c r="C58" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3655,8 +3670,11 @@
       <c r="D59" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3666,8 +3684,11 @@
       <c r="C60" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -3677,8 +3698,11 @@
       <c r="C61" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3688,8 +3712,11 @@
       <c r="C62" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3703,7 +3730,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>107</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E9ECEA-CA33-4449-931F-3F3305DF707E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7863FE-0BDC-4607-BCC7-E0E8A154F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2886,8 +2886,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3729,6 +3729,9 @@
       <c r="D63" t="s">
         <v>111</v>
       </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
@@ -3740,8 +3743,11 @@
       <c r="C64" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -3751,8 +3757,11 @@
       <c r="C65" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -3765,8 +3774,11 @@
       <c r="D66" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -3777,7 +3789,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -3788,7 +3800,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -3799,7 +3811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -3821,7 +3833,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -3835,7 +3847,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -3849,7 +3861,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -3860,7 +3872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -3871,7 +3883,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -3899,7 +3911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -3921,7 +3933,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>127</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7863FE-0BDC-4607-BCC7-E0E8A154F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F731C8-B63D-4181-B98A-F268C9453B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="821">
   <si>
     <t>Filename</t>
   </si>
@@ -2886,8 +2886,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3788,6 +3788,9 @@
       <c r="C67" t="s">
         <v>120</v>
       </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
@@ -3799,6 +3802,9 @@
       <c r="C68" t="s">
         <v>140</v>
       </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
@@ -3810,6 +3816,9 @@
       <c r="C69" t="s">
         <v>119</v>
       </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
@@ -3821,6 +3830,9 @@
       <c r="C70" t="s">
         <v>120</v>
       </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
@@ -3832,6 +3844,9 @@
       <c r="C71" t="s">
         <v>140</v>
       </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
@@ -3846,6 +3861,9 @@
       <c r="D72" t="s">
         <v>116</v>
       </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
@@ -3860,6 +3878,9 @@
       <c r="D73" t="s">
         <v>142</v>
       </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
@@ -3871,6 +3892,9 @@
       <c r="C74" t="s">
         <v>140</v>
       </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
@@ -3882,6 +3906,9 @@
       <c r="C75" t="s">
         <v>123</v>
       </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
@@ -3896,6 +3923,9 @@
       <c r="D76" t="s">
         <v>122</v>
       </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
@@ -3910,6 +3940,9 @@
       <c r="D77" t="s">
         <v>135</v>
       </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
@@ -3921,6 +3954,9 @@
       <c r="C78" t="s">
         <v>141</v>
       </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
@@ -3932,6 +3968,9 @@
       <c r="C79" t="s">
         <v>141</v>
       </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
@@ -3943,8 +3982,11 @@
       <c r="C80" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -3954,8 +3996,11 @@
       <c r="C81" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -3968,8 +4013,11 @@
       <c r="D82" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -3979,8 +4027,11 @@
       <c r="C83" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -3993,8 +4044,11 @@
       <c r="D84" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -4007,8 +4061,11 @@
       <c r="D85" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -4021,8 +4078,11 @@
       <c r="D86" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -4032,8 +4092,11 @@
       <c r="C87" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -4043,8 +4106,11 @@
       <c r="C88" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -4054,8 +4120,11 @@
       <c r="C89" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -4065,8 +4134,11 @@
       <c r="C90" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -4076,8 +4148,11 @@
       <c r="C91" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -4090,8 +4165,11 @@
       <c r="D92" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -4104,8 +4182,11 @@
       <c r="D93" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>147</v>
       </c>
@@ -4116,7 +4197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -4127,7 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>149</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F731C8-B63D-4181-B98A-F268C9453B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E653331C-EBF2-4E6E-BD37-C76757C36AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -467,9 +467,6 @@
     <t>arteries_12</t>
   </si>
   <si>
-    <t>arteries_lleg12, arteries_lleg18, arteries_lleg28</t>
-  </si>
-  <si>
     <t>arteries_lumb0</t>
   </si>
   <si>
@@ -2490,6 +2487,12 @@
   </si>
   <si>
     <t>arteries47,arteries21</t>
+  </si>
+  <si>
+    <t>arteries_lleg12, arteries_lleg16, arteries_lleg28</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2886,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G542" sqref="G542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2933,10 +2936,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2950,10 +2953,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3028,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E9" t="s">
         <v>110</v>
@@ -3081,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E13" t="s">
         <v>92</v>
@@ -3109,10 +3112,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -3303,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -3520,7 +3523,7 @@
         <v>96</v>
       </c>
       <c r="E48" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -4059,7 +4062,7 @@
         <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>820</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
@@ -4076,7 +4079,7 @@
         <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
@@ -4188,6110 +4191,6137 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
       </c>
+      <c r="G94" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
       </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
         <v>154</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>154</v>
       </c>
-      <c r="C101" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+      <c r="C102" t="s">
+        <v>330</v>
+      </c>
+      <c r="D102" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>155</v>
       </c>
-      <c r="B102" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" t="s">
-        <v>331</v>
-      </c>
-      <c r="D102" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>156</v>
-      </c>
       <c r="B103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C103" t="s">
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
         <v>157</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>157</v>
       </c>
-      <c r="C104" t="s">
-        <v>331</v>
-      </c>
-      <c r="D104" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+      <c r="C105" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>158</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>158</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" t="s">
         <v>315</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D108" t="s">
+        <v>340</v>
+      </c>
+      <c r="E108" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" t="s">
+        <v>341</v>
+      </c>
+      <c r="E109" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>159</v>
-      </c>
-      <c r="B106" t="s">
-        <v>159</v>
-      </c>
-      <c r="C106" t="s">
-        <v>312</v>
-      </c>
-      <c r="D106" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>161</v>
-      </c>
-      <c r="B108" t="s">
-        <v>161</v>
-      </c>
-      <c r="C108" t="s">
-        <v>316</v>
-      </c>
-      <c r="D108" t="s">
-        <v>341</v>
-      </c>
-      <c r="E108" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" t="s">
-        <v>342</v>
-      </c>
-      <c r="E109" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+      <c r="E110" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
         <v>163</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>163</v>
       </c>
-      <c r="C110" t="s">
-        <v>158</v>
-      </c>
-      <c r="D110" t="s">
-        <v>349</v>
-      </c>
-      <c r="E110" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+      <c r="C111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
         <v>164</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>164</v>
       </c>
-      <c r="C111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>165</v>
-      </c>
-      <c r="B112" t="s">
-        <v>165</v>
-      </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C113" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
         <v>167</v>
-      </c>
-      <c r="B114" t="s">
-        <v>167</v>
-      </c>
-      <c r="C114" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D115" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E115" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" t="s">
+        <v>302</v>
+      </c>
+      <c r="D119" t="s">
         <v>172</v>
-      </c>
-      <c r="B119" t="s">
-        <v>172</v>
-      </c>
-      <c r="C119" t="s">
-        <v>303</v>
-      </c>
-      <c r="D119" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>330</v>
+      </c>
+      <c r="D125" t="s">
         <v>178</v>
       </c>
-      <c r="B125" t="s">
+      <c r="E125" t="s">
         <v>178</v>
-      </c>
-      <c r="C125" t="s">
-        <v>331</v>
-      </c>
-      <c r="D125" t="s">
-        <v>179</v>
-      </c>
-      <c r="E125" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D126" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E126" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D128" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E128" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D129" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E129" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D130" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E130" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B131" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" t="s">
         <v>185</v>
       </c>
-      <c r="B132" t="s">
-        <v>185</v>
-      </c>
-      <c r="C132" t="s">
-        <v>186</v>
-      </c>
       <c r="D132" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E132" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" t="s">
         <v>189</v>
-      </c>
-      <c r="B136" t="s">
-        <v>189</v>
-      </c>
-      <c r="C136" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" t="s">
         <v>190</v>
       </c>
-      <c r="B137" t="s">
-        <v>190</v>
-      </c>
-      <c r="C137" t="s">
-        <v>191</v>
-      </c>
       <c r="D137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D138" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E138" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D140" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D142" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" t="s">
         <v>196</v>
-      </c>
-      <c r="B143" t="s">
-        <v>196</v>
-      </c>
-      <c r="C143" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C144" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144" t="s">
         <v>195</v>
       </c>
-      <c r="D144" t="s">
-        <v>196</v>
-      </c>
       <c r="E144" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B150" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D153" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E153" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B154" t="s">
+        <v>206</v>
+      </c>
+      <c r="C154" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" t="s">
         <v>207</v>
       </c>
-      <c r="B154" t="s">
+      <c r="E154" t="s">
         <v>207</v>
-      </c>
-      <c r="C154" t="s">
-        <v>155</v>
-      </c>
-      <c r="D154" t="s">
-        <v>208</v>
-      </c>
-      <c r="E154" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D156" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E156" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C157" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B158" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C158" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B159" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C159" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D159" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E159" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B160" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C160" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C161" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C162" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D162" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E162" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C164" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D164" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E164" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B165" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C165" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D165" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E165" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
+        <v>218</v>
+      </c>
+      <c r="B166" t="s">
+        <v>218</v>
+      </c>
+      <c r="C166" t="s">
+        <v>207</v>
+      </c>
+      <c r="D166" t="s">
         <v>219</v>
       </c>
-      <c r="B166" t="s">
+      <c r="E166" t="s">
         <v>219</v>
-      </c>
-      <c r="C166" t="s">
-        <v>208</v>
-      </c>
-      <c r="D166" t="s">
-        <v>220</v>
-      </c>
-      <c r="E166" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B167" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C167" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D167" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E167" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B168" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B170" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B171" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B172" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C172" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B173" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C173" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B174" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B175" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B176" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C176" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B177" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C177" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B178" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B179" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D179" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E179" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B180" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C180" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B181" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C181" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C182" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B183" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C183" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B184" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C184" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D184" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B185" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B186" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C186" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B187" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B188" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C188" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B189" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C189" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B190" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B191" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C191" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D191" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E191" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B192" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B193" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C193" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D193" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E193" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B194" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C194" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C195" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C196" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D196" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E196" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B197" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C197" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B198" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C198" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D198" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E198" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B199" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C199" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B200" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C200" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B201" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C201" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B202" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C202" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D202" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B203" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C203" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B204" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C204" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B205" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B206" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C206" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B207" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C207" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C208" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B209" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C209" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B210" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C210" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D210" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E210" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C211" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C212" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C213" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D213" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E213" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B214" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C215" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D215" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E215" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B216" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C216" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B217" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C217" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B218" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C218" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C219" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B221" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C221" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B222" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C222" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C223" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B224" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C224" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C225" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B226" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B227" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C227" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B228" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C228" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B229" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C229" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B230" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C230" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B231" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C231" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B232" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C232" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B233" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C233" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C234" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B235" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C235" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B236" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C236" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B237" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C237" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B238" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C238" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D238" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B239" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C239" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D239" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B240" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C240" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B241" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C241" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B242" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C242" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B243" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C243" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B244" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C244" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B245" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C245" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
+        <v>298</v>
+      </c>
+      <c r="B246" t="s">
+        <v>298</v>
+      </c>
+      <c r="C246" t="s">
         <v>299</v>
-      </c>
-      <c r="B246" t="s">
-        <v>299</v>
-      </c>
-      <c r="C246" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B247" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C247" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D247" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B248" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C248" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B249" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C249" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D249" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B250" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C250" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D250" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B251" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C251" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D251" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B252" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C252" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B253" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C253" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B254" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C254" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B255" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C255" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B256" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C256" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B257" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C257" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D257" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B258" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C258" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D258" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B259" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C259" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D259" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B260" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C260" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D260" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B261" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C261" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D261" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B262" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C262" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D262" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B263" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C263" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D263" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
+        <v>316</v>
+      </c>
+      <c r="B264" t="s">
+        <v>316</v>
+      </c>
+      <c r="C264" t="s">
         <v>317</v>
       </c>
-      <c r="B264" t="s">
-        <v>317</v>
-      </c>
-      <c r="C264" t="s">
-        <v>318</v>
-      </c>
       <c r="D264" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
+        <v>317</v>
+      </c>
+      <c r="B265" t="s">
+        <v>317</v>
+      </c>
+      <c r="C265" t="s">
         <v>318</v>
       </c>
-      <c r="B265" t="s">
-        <v>318</v>
-      </c>
-      <c r="C265" t="s">
-        <v>319</v>
-      </c>
       <c r="D265" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B266" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C266" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D266" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B267" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C267" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D267" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B268" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C268" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B269" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D269" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B270" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C270" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D270" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B271" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C271" t="s">
+        <v>326</v>
+      </c>
+      <c r="D271" t="s">
         <v>327</v>
       </c>
-      <c r="D271" t="s">
-        <v>328</v>
-      </c>
       <c r="E271" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
+        <v>324</v>
+      </c>
+      <c r="B272" t="s">
+        <v>324</v>
+      </c>
+      <c r="C272" t="s">
         <v>325</v>
       </c>
-      <c r="B272" t="s">
-        <v>325</v>
-      </c>
-      <c r="C272" t="s">
-        <v>326</v>
-      </c>
       <c r="D272" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B273" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C273" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D273" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B274" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C274" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D274" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E274" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B275" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C275" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B276" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C276" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B277" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C277" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D277" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B278" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C278" t="s">
         <v>3</v>
       </c>
       <c r="D278" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B279" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C279" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B280" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C280" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D280" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B281" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C281" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B282" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C282" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D282" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B283" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C283" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B284" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C284" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D284" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B285" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C285" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B286" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C286" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B287" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C287" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B288" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C288" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D288" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B289" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C289" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B290" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C290" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B291" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C291" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B292" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C292" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B293" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C293" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B294" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C294" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B295" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C295" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B296" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C296" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B297" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C297" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B298" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C298" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D298" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B299" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C299" t="s">
         <v>3</v>
       </c>
       <c r="D299" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B300" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C300" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B301" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C301" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D301" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B302" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C302" t="s">
         <v>15</v>
       </c>
       <c r="D302" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B303" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C303" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B304" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C304" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D304" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B305" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C305" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D305" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B306" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C306" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D306" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B307" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C307" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D307" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B308" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C308" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D308" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B309" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C309" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D309" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
+        <v>420</v>
+      </c>
+      <c r="B310" t="s">
+        <v>420</v>
+      </c>
+      <c r="C310" t="s">
         <v>421</v>
-      </c>
-      <c r="B310" t="s">
-        <v>421</v>
-      </c>
-      <c r="C310" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
+        <v>421</v>
+      </c>
+      <c r="B311" t="s">
+        <v>421</v>
+      </c>
+      <c r="C311" t="s">
         <v>422</v>
       </c>
-      <c r="B311" t="s">
-        <v>422</v>
-      </c>
-      <c r="C311" t="s">
-        <v>423</v>
-      </c>
       <c r="D311" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B312" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C312" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D312" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
+        <v>423</v>
+      </c>
+      <c r="B313" t="s">
+        <v>423</v>
+      </c>
+      <c r="C313" t="s">
+        <v>425</v>
+      </c>
+      <c r="D313" t="s">
         <v>424</v>
-      </c>
-      <c r="B313" t="s">
-        <v>424</v>
-      </c>
-      <c r="C313" t="s">
-        <v>426</v>
-      </c>
-      <c r="D313" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B314" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C314" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D314" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B315" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C315" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D315" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B316" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C316" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D316" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B317" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C317" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D317" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
+        <v>428</v>
+      </c>
+      <c r="B318" t="s">
+        <v>428</v>
+      </c>
+      <c r="C318" t="s">
         <v>429</v>
-      </c>
-      <c r="B318" t="s">
-        <v>429</v>
-      </c>
-      <c r="C318" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B319" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C319" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D319" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B320" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C320" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D320" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B321" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C321" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D321" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B322" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C322" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D322" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B323" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C323" t="s">
+        <v>633</v>
+      </c>
+      <c r="D323" t="s">
         <v>634</v>
-      </c>
-      <c r="D323" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B324" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C324" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
+        <v>435</v>
+      </c>
+      <c r="B325" t="s">
+        <v>435</v>
+      </c>
+      <c r="C325" t="s">
         <v>436</v>
-      </c>
-      <c r="B325" t="s">
-        <v>436</v>
-      </c>
-      <c r="C325" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B326" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C326" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D326" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B327" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C327" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B328" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C328" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D328" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E328" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B329" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C329" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D329" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
+        <v>440</v>
+      </c>
+      <c r="B330" t="s">
+        <v>440</v>
+      </c>
+      <c r="C330" t="s">
         <v>441</v>
       </c>
-      <c r="B330" t="s">
-        <v>441</v>
-      </c>
-      <c r="C330" t="s">
-        <v>442</v>
-      </c>
       <c r="D330" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E330" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B331" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C331" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D331" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E331" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B332" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C332" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B333" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C333" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B334" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C334" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B335" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C335" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B336" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C336" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B337" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C337" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B338" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C338" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B339" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C339" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D339" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E339" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B340" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C340" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B341" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C341" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B342" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C342" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B343" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C343" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B344" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C344" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B345" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C345" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B346" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C346" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B347" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C347" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B348" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C348" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B349" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C349" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B350" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C350" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B351" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C351" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B352" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C352" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B353" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C353" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B354" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C354" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B355" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C355" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B356" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C356" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D356" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E356" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B357" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C357" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B358" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C358" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B359" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C359" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B360" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C360" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B361" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C361" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B362" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C362" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B363" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C363" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B364" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C364" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D364" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B365" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C365" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B366" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C366" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D366" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E366" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B367" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C367" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B368" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B369" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C369" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B370" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C370" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B371" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C371" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D371" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B372" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C372" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B373" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C373" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D373" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B374" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C374" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B375" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C375" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B376" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C376" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B377" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C377" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B378" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C378" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B379" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C379" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D379" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B380" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C380" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D380" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B381" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C381" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B382" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C382" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B383" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C383" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B384" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C384" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B385" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C385" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
+        <v>496</v>
+      </c>
+      <c r="B386" t="s">
+        <v>496</v>
+      </c>
+      <c r="C386" t="s">
         <v>497</v>
       </c>
-      <c r="B386" t="s">
-        <v>497</v>
-      </c>
-      <c r="C386" t="s">
-        <v>498</v>
-      </c>
       <c r="D386" t="s">
+        <v>785</v>
+      </c>
+      <c r="E386" t="s">
         <v>786</v>
-      </c>
-      <c r="E386" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
+        <v>497</v>
+      </c>
+      <c r="B387" t="s">
+        <v>497</v>
+      </c>
+      <c r="C387" t="s">
         <v>498</v>
       </c>
-      <c r="B387" t="s">
-        <v>498</v>
-      </c>
-      <c r="C387" t="s">
-        <v>499</v>
-      </c>
       <c r="D387" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E387" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B388" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C388" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D388" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E388" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B389" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C389" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D389" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E389" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B390" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C390" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B391" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C391" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B392" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C392" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B393" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C393" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B394" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C394" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B395" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C395" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D395" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E395" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B396" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C396" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B397" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C397" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B398" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C398" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B399" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C399" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B400" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C400" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B401" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C401" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B402" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C402" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B403" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C403" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B404" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C404" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B405" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C405" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B406" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C406" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B407" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C407" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B408" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C408" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B409" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C409" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B410" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C410" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B411" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C411" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B412" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C412" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D412" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B413" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C413" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B414" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C414" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B415" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C415" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B416" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C416" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D416" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B417" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C417" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B418" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C418" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B419" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C419" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B420" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C420" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D420" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E420" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B421" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C421" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B422" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C422" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D422" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B423" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C423" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B424" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C424" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
+        <v>535</v>
+      </c>
+      <c r="B425" t="s">
+        <v>535</v>
+      </c>
+      <c r="C425" t="s">
         <v>536</v>
-      </c>
-      <c r="B425" t="s">
-        <v>536</v>
-      </c>
-      <c r="C425" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B426" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C426" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D426" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E426" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B427" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C427" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D427" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B428" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C428" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D428" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
+        <v>539</v>
+      </c>
+      <c r="B429" t="s">
+        <v>539</v>
+      </c>
+      <c r="C429" t="s">
         <v>540</v>
-      </c>
-      <c r="B429" t="s">
-        <v>540</v>
-      </c>
-      <c r="C429" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B430" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C430" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D430" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
+        <v>541</v>
+      </c>
+      <c r="B431" t="s">
+        <v>541</v>
+      </c>
+      <c r="C431" t="s">
         <v>542</v>
-      </c>
-      <c r="B431" t="s">
-        <v>542</v>
-      </c>
-      <c r="C431" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
+        <v>542</v>
+      </c>
+      <c r="B432" t="s">
+        <v>542</v>
+      </c>
+      <c r="C432" t="s">
         <v>543</v>
       </c>
-      <c r="B432" t="s">
-        <v>543</v>
-      </c>
-      <c r="C432" t="s">
-        <v>544</v>
-      </c>
       <c r="D432" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E432" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B433" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C433" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D433" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E433" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B434" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C434" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D434" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E434" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B435" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C435" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B436" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C436" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B437" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C437" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B438" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C438" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D438" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E438" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B439" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C439" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
+        <v>550</v>
+      </c>
+      <c r="B440" t="s">
+        <v>550</v>
+      </c>
+      <c r="C440" t="s">
         <v>551</v>
-      </c>
-      <c r="B440" t="s">
-        <v>551</v>
-      </c>
-      <c r="C440" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B441" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C441" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D441" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
+        <v>552</v>
+      </c>
+      <c r="B442" t="s">
+        <v>552</v>
+      </c>
+      <c r="C442" t="s">
         <v>553</v>
-      </c>
-      <c r="B442" t="s">
-        <v>553</v>
-      </c>
-      <c r="C442" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
+        <v>553</v>
+      </c>
+      <c r="B443" t="s">
+        <v>553</v>
+      </c>
+      <c r="C443" t="s">
         <v>554</v>
       </c>
-      <c r="B443" t="s">
-        <v>554</v>
-      </c>
-      <c r="C443" t="s">
-        <v>555</v>
-      </c>
       <c r="D443" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E443" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B444" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C444" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D444" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E444" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B445" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C445" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B446" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C446" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
+        <v>557</v>
+      </c>
+      <c r="B447" t="s">
+        <v>557</v>
+      </c>
+      <c r="C447" t="s">
         <v>558</v>
-      </c>
-      <c r="B447" t="s">
-        <v>558</v>
-      </c>
-      <c r="C447" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B448" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C448" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D448" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B449" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C449" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
+        <v>560</v>
+      </c>
+      <c r="B450" t="s">
+        <v>560</v>
+      </c>
+      <c r="C450" t="s">
         <v>561</v>
-      </c>
-      <c r="B450" t="s">
-        <v>561</v>
-      </c>
-      <c r="C450" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B451" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C451" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D451" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E451" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B452" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C452" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B453" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C453" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B454" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C454" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C455" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
+        <v>566</v>
+      </c>
+      <c r="B456" t="s">
+        <v>566</v>
+      </c>
+      <c r="C456" t="s">
         <v>567</v>
       </c>
-      <c r="B456" t="s">
-        <v>567</v>
-      </c>
-      <c r="C456" t="s">
-        <v>568</v>
-      </c>
       <c r="D456" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E456" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B457" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C457" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D457" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E457" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B458" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C458" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B459" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C459" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B460" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C460" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B461" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C461" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B462" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C462" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
+        <v>573</v>
+      </c>
+      <c r="B463" t="s">
+        <v>573</v>
+      </c>
+      <c r="C463" t="s">
         <v>574</v>
-      </c>
-      <c r="B463" t="s">
-        <v>574</v>
-      </c>
-      <c r="C463" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B464" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C464" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D464" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B465" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C465" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
+        <v>576</v>
+      </c>
+      <c r="B466" t="s">
+        <v>576</v>
+      </c>
+      <c r="C466" t="s">
         <v>577</v>
-      </c>
-      <c r="B466" t="s">
-        <v>577</v>
-      </c>
-      <c r="C466" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B467" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C467" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D467" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E467" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B468" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C468" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B469" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C469" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B470" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C470" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D470" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E470" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
+        <v>581</v>
+      </c>
+      <c r="B471" t="s">
+        <v>581</v>
+      </c>
+      <c r="C471" t="s">
         <v>582</v>
-      </c>
-      <c r="B471" t="s">
-        <v>582</v>
-      </c>
-      <c r="C471" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B472" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C472" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D472" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B473" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C473" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B474" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C474" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B475" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C475" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
+        <v>586</v>
+      </c>
+      <c r="B476" t="s">
+        <v>586</v>
+      </c>
+      <c r="C476" t="s">
         <v>587</v>
-      </c>
-      <c r="B476" t="s">
-        <v>587</v>
-      </c>
-      <c r="C476" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B477" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C477" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D477" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B478" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C478" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
+        <v>589</v>
+      </c>
+      <c r="B479" t="s">
+        <v>589</v>
+      </c>
+      <c r="C479" t="s">
         <v>590</v>
-      </c>
-      <c r="B479" t="s">
-        <v>590</v>
-      </c>
-      <c r="C479" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B480" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C480" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D480" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B481" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C481" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B482" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C482" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D482" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E482" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B483" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C483" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B484" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C484" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B485" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C485" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B486" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C486" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B487" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C487" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B488" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C488" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D488" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B489" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C489" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B490" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C490" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B491" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C491" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
+        <v>602</v>
+      </c>
+      <c r="B492" t="s">
+        <v>602</v>
+      </c>
+      <c r="C492" t="s">
         <v>603</v>
-      </c>
-      <c r="B492" t="s">
-        <v>603</v>
-      </c>
-      <c r="C492" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B493" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C493" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D493" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B494" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C494" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
+        <v>605</v>
+      </c>
+      <c r="B495" t="s">
+        <v>605</v>
+      </c>
+      <c r="C495" t="s">
         <v>606</v>
       </c>
-      <c r="B495" t="s">
-        <v>606</v>
-      </c>
-      <c r="C495" t="s">
-        <v>607</v>
-      </c>
       <c r="D495" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E495" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B496" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C496" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D496" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B497" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C497" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D497" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
+        <v>608</v>
+      </c>
+      <c r="B498" t="s">
+        <v>608</v>
+      </c>
+      <c r="C498" t="s">
         <v>609</v>
-      </c>
-      <c r="B498" t="s">
-        <v>609</v>
-      </c>
-      <c r="C498" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B499" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C499" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D499" t="s">
+        <v>797</v>
+      </c>
+      <c r="E499" t="s">
         <v>798</v>
-      </c>
-      <c r="E499" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B500" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C500" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B501" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C501" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B502" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C502" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
+        <v>613</v>
+      </c>
+      <c r="B503" t="s">
+        <v>613</v>
+      </c>
+      <c r="C503" t="s">
         <v>614</v>
-      </c>
-      <c r="B503" t="s">
-        <v>614</v>
-      </c>
-      <c r="C503" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
+        <v>614</v>
+      </c>
+      <c r="B504" t="s">
+        <v>614</v>
+      </c>
+      <c r="C504" t="s">
         <v>615</v>
       </c>
-      <c r="B504" t="s">
-        <v>615</v>
-      </c>
-      <c r="C504" t="s">
-        <v>616</v>
-      </c>
       <c r="D504" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E504" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
+        <v>615</v>
+      </c>
+      <c r="B505" t="s">
+        <v>615</v>
+      </c>
+      <c r="C505" t="s">
         <v>616</v>
       </c>
-      <c r="B505" t="s">
-        <v>616</v>
-      </c>
-      <c r="C505" t="s">
-        <v>617</v>
-      </c>
       <c r="D505" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E505" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B506" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C506" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D506" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E506" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B507" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C507" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
+        <v>618</v>
+      </c>
+      <c r="B508" t="s">
+        <v>618</v>
+      </c>
+      <c r="C508" t="s">
         <v>619</v>
-      </c>
-      <c r="B508" t="s">
-        <v>619</v>
-      </c>
-      <c r="C508" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B509" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C509" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D509" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
+        <v>620</v>
+      </c>
+      <c r="B510" t="s">
+        <v>620</v>
+      </c>
+      <c r="C510" t="s">
+        <v>622</v>
+      </c>
+      <c r="D510" t="s">
         <v>621</v>
-      </c>
-      <c r="B510" t="s">
-        <v>621</v>
-      </c>
-      <c r="C510" t="s">
-        <v>623</v>
-      </c>
-      <c r="D510" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B511" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C511" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B512" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C512" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D512" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B513" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C513" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B514" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C514" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B515" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C515" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D515" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B516" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C516" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B517" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C517" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D517" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B518" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C518" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D518" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E518" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B519" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C519" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B520" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C520" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B521" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C521" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D521" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B522" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C522" t="s">
         <v>3</v>
       </c>
       <c r="D522" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B523" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C523" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
+        <v>639</v>
+      </c>
+      <c r="B524" t="s">
+        <v>639</v>
+      </c>
+      <c r="C524" t="s">
+        <v>655</v>
+      </c>
+      <c r="D524" t="s">
         <v>640</v>
-      </c>
-      <c r="B524" t="s">
-        <v>640</v>
-      </c>
-      <c r="C524" t="s">
-        <v>656</v>
-      </c>
-      <c r="D524" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B525" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C525" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B526" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C526" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B527" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C527" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D527" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B528" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C528" t="s">
         <v>3</v>
       </c>
       <c r="D528" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A529" t="s">
+        <v>644</v>
+      </c>
+      <c r="B529" t="s">
+        <v>644</v>
+      </c>
+      <c r="C529" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A530" t="s">
+        <v>645</v>
+      </c>
+      <c r="B530" t="s">
+        <v>645</v>
+      </c>
+      <c r="C530" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A531" t="s">
+        <v>646</v>
+      </c>
+      <c r="B531" t="s">
+        <v>646</v>
+      </c>
+      <c r="C531" t="s">
+        <v>655</v>
+      </c>
+      <c r="D531" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A532" t="s">
+        <v>647</v>
+      </c>
+      <c r="B532" t="s">
+        <v>647</v>
+      </c>
+      <c r="C532" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A533" t="s">
+        <v>648</v>
+      </c>
+      <c r="B533" t="s">
+        <v>648</v>
+      </c>
+      <c r="C533" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A534" t="s">
+        <v>649</v>
+      </c>
+      <c r="B534" t="s">
+        <v>649</v>
+      </c>
+      <c r="C534" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A535" t="s">
+        <v>650</v>
+      </c>
+      <c r="B535" t="s">
+        <v>650</v>
+      </c>
+      <c r="C535" t="s">
+        <v>655</v>
+      </c>
+      <c r="D535" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A529" t="s">
-        <v>645</v>
-      </c>
-      <c r="B529" t="s">
-        <v>645</v>
-      </c>
-      <c r="C529" t="s">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A536" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A530" t="s">
-        <v>646</v>
-      </c>
-      <c r="B530" t="s">
-        <v>646</v>
-      </c>
-      <c r="C530" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A531" t="s">
-        <v>647</v>
-      </c>
-      <c r="B531" t="s">
-        <v>647</v>
-      </c>
-      <c r="C531" t="s">
-        <v>656</v>
-      </c>
-      <c r="D531" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A532" t="s">
-        <v>648</v>
-      </c>
-      <c r="B532" t="s">
-        <v>648</v>
-      </c>
-      <c r="C532" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A533" t="s">
-        <v>649</v>
-      </c>
-      <c r="B533" t="s">
-        <v>649</v>
-      </c>
-      <c r="C533" t="s">
+      <c r="B536" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A534" t="s">
-        <v>650</v>
-      </c>
-      <c r="B534" t="s">
-        <v>650</v>
-      </c>
-      <c r="C534" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A535" t="s">
-        <v>651</v>
-      </c>
-      <c r="B535" t="s">
-        <v>651</v>
-      </c>
-      <c r="C535" t="s">
-        <v>656</v>
-      </c>
-      <c r="D535" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A536" t="s">
+      <c r="C536" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A537" t="s">
         <v>652</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B537" t="s">
         <v>652</v>
       </c>
-      <c r="C536" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A537" t="s">
+      <c r="C537" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A538" t="s">
         <v>653</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B538" t="s">
         <v>653</v>
       </c>
-      <c r="C537" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A538" t="s">
+      <c r="C538" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A539" t="s">
         <v>654</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B539" t="s">
         <v>654</v>
       </c>
-      <c r="C538" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A539" t="s">
+      <c r="C539" t="s">
         <v>655</v>
       </c>
-      <c r="B539" t="s">
-        <v>655</v>
-      </c>
-      <c r="C539" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
+        <v>662</v>
+      </c>
+      <c r="B540" t="s">
+        <v>662</v>
+      </c>
+      <c r="C540" t="s">
+        <v>667</v>
+      </c>
+      <c r="D540" t="s">
+        <v>672</v>
+      </c>
+      <c r="G540" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A541" t="s">
         <v>663</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B541" t="s">
         <v>663</v>
       </c>
-      <c r="C540" t="s">
-        <v>668</v>
-      </c>
-      <c r="D540" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A541" t="s">
+      <c r="C541" t="s">
+        <v>665</v>
+      </c>
+      <c r="G541" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A542" t="s">
         <v>664</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B542" t="s">
         <v>664</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C542" t="s">
+        <v>675</v>
+      </c>
+      <c r="D542" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A543" t="s">
+        <v>665</v>
+      </c>
+      <c r="B543" t="s">
+        <v>665</v>
+      </c>
+      <c r="C543" t="s">
+        <v>675</v>
+      </c>
+      <c r="D543" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A544" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A542" t="s">
-        <v>665</v>
-      </c>
-      <c r="B542" t="s">
-        <v>665</v>
-      </c>
-      <c r="C542" t="s">
-        <v>676</v>
-      </c>
-      <c r="D542" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A543" t="s">
+      <c r="B544" t="s">
         <v>666</v>
       </c>
-      <c r="B543" t="s">
-        <v>666</v>
-      </c>
-      <c r="C543" t="s">
-        <v>676</v>
-      </c>
-      <c r="D543" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A544" t="s">
-        <v>667</v>
-      </c>
-      <c r="B544" t="s">
-        <v>667</v>
-      </c>
       <c r="C544" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B545" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C545" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D545" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B546" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C546" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B547" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C547" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B548" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C548" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B549" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C549" t="s">
         <v>89</v>
       </c>
       <c r="D549" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E549" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B550" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C550" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B551" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C551" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B552" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C552" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
+        <v>679</v>
+      </c>
+      <c r="B553" t="s">
+        <v>679</v>
+      </c>
+      <c r="C553" t="s">
         <v>680</v>
-      </c>
-      <c r="B553" t="s">
-        <v>680</v>
-      </c>
-      <c r="C553" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B554" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C554" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D554" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B555" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C555" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B556" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C556" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B557" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C557" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
+        <v>684</v>
+      </c>
+      <c r="B558" t="s">
+        <v>684</v>
+      </c>
+      <c r="C558" t="s">
+        <v>680</v>
+      </c>
+      <c r="D558" t="s">
         <v>685</v>
-      </c>
-      <c r="B558" t="s">
-        <v>685</v>
-      </c>
-      <c r="C558" t="s">
-        <v>681</v>
-      </c>
-      <c r="D558" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B559" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C559" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B560" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C560" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D560" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B561" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C561" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D561" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B562" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C562" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B563" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C563" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D563" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B564" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C564" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B565" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C565" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B566" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C566" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D566" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B567" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C567" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D567" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B568" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C568" t="s">
         <v>77</v>
       </c>
       <c r="D568" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B569" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C569" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B570" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C570" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B571" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C571" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B572" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C572" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D572" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B573" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C573" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B574" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C574" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B575" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C575" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B576" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C576" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B577" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C577" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B578" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C578" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D578" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
+        <v>705</v>
+      </c>
+      <c r="B579" t="s">
+        <v>705</v>
+      </c>
+      <c r="C579" t="s">
         <v>706</v>
-      </c>
-      <c r="B579" t="s">
-        <v>706</v>
-      </c>
-      <c r="C579" t="s">
-        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -10341,7 +10371,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -10383,10 +10413,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -10397,7 +10427,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -10405,98 +10435,98 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -10504,145 +10534,145 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -10692,10 +10722,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E653331C-EBF2-4E6E-BD37-C76757C36AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134CFE0-C83D-4E5B-90EF-3185B6303481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2888,9 +2888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G542" sqref="G542"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134CFE0-C83D-4E5B-90EF-3185B6303481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF547131-B747-4D34-BC06-0BFE2C3601A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2888,9 +2888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G544" sqref="G544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9873,6 +9873,9 @@
       </c>
       <c r="D542" t="s">
         <v>677</v>
+      </c>
+      <c r="G542" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.45">

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF547131-B747-4D34-BC06-0BFE2C3601A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB023EA-CB07-4288-872E-4546F9A33262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2888,9 +2888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G544" sqref="G544"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2898,7 +2898,7 @@
     <col min="1" max="1" width="22.265625" customWidth="1"/>
     <col min="2" max="2" width="30.73046875" customWidth="1"/>
     <col min="3" max="3" width="22.86328125" customWidth="1"/>
-    <col min="4" max="4" width="51.86328125" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
     <col min="5" max="5" width="26.3984375" customWidth="1"/>
     <col min="6" max="6" width="7.86328125" customWidth="1"/>
     <col min="7" max="7" width="25.3984375" customWidth="1"/>
@@ -2972,6 +2972,9 @@
       <c r="D4" t="s">
         <v>83</v>
       </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -2983,6 +2986,9 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -2994,6 +3000,9 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -3005,6 +3014,9 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -3019,6 +3031,9 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -3036,6 +3051,9 @@
       <c r="E9" t="s">
         <v>110</v>
       </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -3047,6 +3065,9 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -3061,6 +3082,9 @@
       <c r="D11" t="s">
         <v>80</v>
       </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -3072,6 +3096,9 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -3089,6 +3116,9 @@
       <c r="E13" t="s">
         <v>92</v>
       </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -3100,6 +3130,9 @@
       <c r="C14" t="s">
         <v>89</v>
       </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -3116,6 +3149,9 @@
       </c>
       <c r="E15" t="s">
         <v>675</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB023EA-CB07-4288-872E-4546F9A33262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB776846-B44F-493C-91AD-1BEE08D37A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3164,8 +3164,11 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3175,8 +3178,11 @@
       <c r="C17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3186,8 +3192,11 @@
       <c r="C18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3197,8 +3206,11 @@
       <c r="C19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3208,8 +3220,11 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3222,8 +3237,11 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3236,8 +3254,11 @@
       <c r="D22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3248,7 +3269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3270,7 +3291,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3281,7 +3302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3292,7 +3313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3306,7 +3327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3317,7 +3338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3331,7 +3352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3345,7 +3366,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>49</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB776846-B44F-493C-91AD-1BEE08D37A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB023EA-CB07-4288-872E-4546F9A33262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3164,11 +3164,8 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3178,11 +3175,8 @@
       <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3192,11 +3186,8 @@
       <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3206,11 +3197,8 @@
       <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3220,11 +3208,8 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3237,11 +3222,8 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3254,11 +3236,8 @@
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3269,7 +3248,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3280,7 +3259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3291,7 +3270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3302,7 +3281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3313,7 +3292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3327,7 +3306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3338,7 +3317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3352,7 +3331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3366,7 +3345,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>49</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB776846-B44F-493C-91AD-1BEE08D37A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6293A953-2B5F-4EBE-9730-1729C1CE0F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3268,6 +3268,9 @@
       <c r="C23" t="s">
         <v>93</v>
       </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
@@ -3279,6 +3282,9 @@
       <c r="C24" t="s">
         <v>47</v>
       </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
@@ -3290,6 +3296,9 @@
       <c r="C25" t="s">
         <v>93</v>
       </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
@@ -3301,6 +3310,9 @@
       <c r="C26" t="s">
         <v>38</v>
       </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
@@ -3312,6 +3324,9 @@
       <c r="C27" t="s">
         <v>75</v>
       </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
@@ -3326,6 +3341,9 @@
       <c r="D28" t="s">
         <v>81</v>
       </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
@@ -3337,6 +3355,9 @@
       <c r="C29" t="s">
         <v>93</v>
       </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
@@ -3351,6 +3372,9 @@
       <c r="D30" t="s">
         <v>88</v>
       </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
@@ -3365,6 +3389,9 @@
       <c r="D31" t="s">
         <v>813</v>
       </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
@@ -3379,8 +3406,11 @@
       <c r="D32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3390,8 +3420,11 @@
       <c r="C33" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3405,7 +3438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3419,7 +3452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3430,7 +3463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3441,7 +3474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3455,7 +3488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3469,7 +3502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -3480,7 +3513,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -3494,7 +3527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3505,7 +3538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -3519,7 +3552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3530,7 +3563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3544,7 +3577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3555,7 +3588,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3566,7 +3599,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>65</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6293A953-2B5F-4EBE-9730-1729C1CE0F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B7EAD-D1B0-44F3-B57F-3AB7B60642C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3437,6 +3437,9 @@
       <c r="D34" t="s">
         <v>52</v>
       </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
@@ -3451,6 +3454,9 @@
       <c r="D35" t="s">
         <v>37</v>
       </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
@@ -3462,6 +3468,9 @@
       <c r="C36" t="s">
         <v>79</v>
       </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
@@ -3473,6 +3482,9 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
@@ -3487,6 +3499,9 @@
       <c r="D38" t="s">
         <v>68</v>
       </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
@@ -3501,6 +3516,9 @@
       <c r="D39" t="s">
         <v>91</v>
       </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
@@ -3512,6 +3530,9 @@
       <c r="C40" t="s">
         <v>89</v>
       </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
@@ -3526,6 +3547,9 @@
       <c r="D41" t="s">
         <v>55</v>
       </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
@@ -3537,6 +3561,9 @@
       <c r="C42" t="s">
         <v>93</v>
       </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
@@ -3551,6 +3578,9 @@
       <c r="D43" t="s">
         <v>34</v>
       </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
@@ -3562,6 +3592,9 @@
       <c r="C44" t="s">
         <v>72</v>
       </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
@@ -3576,6 +3609,9 @@
       <c r="D45" t="s">
         <v>86</v>
       </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
@@ -3587,6 +3623,9 @@
       <c r="C46" t="s">
         <v>141</v>
       </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
@@ -3598,6 +3637,9 @@
       <c r="C47" t="s">
         <v>72</v>
       </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
@@ -3615,6 +3657,9 @@
       <c r="E48" t="s">
         <v>819</v>
       </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
@@ -3626,6 +3671,9 @@
       <c r="C49" t="s">
         <v>77</v>
       </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
@@ -3637,6 +3685,9 @@
       <c r="C50" t="s">
         <v>93</v>
       </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
@@ -3648,6 +3699,9 @@
       <c r="C51" t="s">
         <v>55</v>
       </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
@@ -3659,6 +3713,9 @@
       <c r="C52" t="s">
         <v>73</v>
       </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
@@ -3669,6 +3726,9 @@
       </c>
       <c r="C53" t="s">
         <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B7EAD-D1B0-44F3-B57F-3AB7B60642C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C14436-AC8A-4716-9DB1-D01FFE1C2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6662,7 +6662,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>325</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>326</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>327</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>328</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>329</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>382</v>
       </c>
@@ -6742,8 +6742,11 @@
       <c r="D278" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G278" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>383</v>
       </c>
@@ -6753,8 +6756,11 @@
       <c r="C279" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G279" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>384</v>
       </c>
@@ -6767,8 +6773,11 @@
       <c r="D280" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G280" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>385</v>
       </c>
@@ -6778,8 +6787,11 @@
       <c r="C281" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G281" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>386</v>
       </c>
@@ -6792,8 +6804,11 @@
       <c r="D282" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G282" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>387</v>
       </c>
@@ -6803,8 +6818,11 @@
       <c r="C283" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G283" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>388</v>
       </c>
@@ -6817,8 +6835,11 @@
       <c r="D284" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G284" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>389</v>
       </c>
@@ -6828,8 +6849,11 @@
       <c r="C285" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G285" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>390</v>
       </c>
@@ -6839,8 +6863,11 @@
       <c r="C286" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G286" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>391</v>
       </c>
@@ -6850,8 +6877,11 @@
       <c r="C287" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G287" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>392</v>
       </c>
@@ -6864,8 +6894,11 @@
       <c r="D288" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G288" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>393</v>
       </c>
@@ -6875,8 +6908,11 @@
       <c r="C289" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G289" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>394</v>
       </c>
@@ -6886,8 +6922,11 @@
       <c r="C290" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G290" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>395</v>
       </c>
@@ -6897,8 +6936,11 @@
       <c r="C291" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G291" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>396</v>
       </c>
@@ -6908,8 +6950,11 @@
       <c r="C292" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G292" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>397</v>
       </c>
@@ -6919,8 +6964,11 @@
       <c r="C293" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G293" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>398</v>
       </c>
@@ -6930,8 +6978,11 @@
       <c r="C294" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G294" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>399</v>
       </c>
@@ -6941,8 +6992,11 @@
       <c r="C295" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G295" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>400</v>
       </c>
@@ -6952,8 +7006,11 @@
       <c r="C296" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G296" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>401</v>
       </c>
@@ -6963,8 +7020,11 @@
       <c r="C297" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G297" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>402</v>
       </c>
@@ -6977,8 +7037,11 @@
       <c r="D298" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G298" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>403</v>
       </c>
@@ -6991,8 +7054,11 @@
       <c r="D299" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G299" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>404</v>
       </c>
@@ -7002,8 +7068,11 @@
       <c r="C300" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G300" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>411</v>
       </c>
@@ -7017,7 +7086,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>412</v>
       </c>
@@ -7031,7 +7100,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>413</v>
       </c>
@@ -7042,7 +7111,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>414</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C14436-AC8A-4716-9DB1-D01FFE1C2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458B0C6-E971-424E-B4F3-AD06D6F06558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E295" sqref="E295"/>
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G530" sqref="G530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2941,6 +2941,9 @@
       <c r="E2" t="s">
         <v>707</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -9719,7 +9722,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>623</v>
       </c>
@@ -9730,7 +9733,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>624</v>
       </c>
@@ -9741,7 +9744,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>625</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>626</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>627</v>
       </c>
@@ -9780,7 +9783,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>628</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>629</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>630</v>
       </c>
@@ -9819,7 +9822,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>631</v>
       </c>
@@ -9833,7 +9836,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>637</v>
       </c>
@@ -9846,8 +9849,11 @@
       <c r="D522" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G522" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>638</v>
       </c>
@@ -9857,8 +9863,11 @@
       <c r="C523" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G523" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>639</v>
       </c>
@@ -9871,8 +9880,11 @@
       <c r="D524" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G524" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>640</v>
       </c>
@@ -9882,8 +9894,11 @@
       <c r="C525" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G525" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>641</v>
       </c>
@@ -9893,8 +9908,11 @@
       <c r="C526" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G526" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>642</v>
       </c>
@@ -9907,8 +9925,11 @@
       <c r="D527" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G527" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>643</v>
       </c>
@@ -9920,6 +9941,9 @@
       </c>
       <c r="D528" t="s">
         <v>658</v>
+      </c>
+      <c r="G528" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.45">
@@ -9931,6 +9955,9 @@
       </c>
       <c r="C529" t="s">
         <v>650</v>
+      </c>
+      <c r="G529" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.45">

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458B0C6-E971-424E-B4F3-AD06D6F06558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA2065-591F-4F3B-B65A-FB3E1A52D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G530" sqref="G530"/>
+      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F534" sqref="F534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9970,6 +9970,9 @@
       <c r="C530" t="s">
         <v>655</v>
       </c>
+      <c r="G530" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
@@ -9984,6 +9987,9 @@
       <c r="D531" t="s">
         <v>660</v>
       </c>
+      <c r="G531" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
@@ -9995,6 +10001,9 @@
       <c r="C532" t="s">
         <v>657</v>
       </c>
+      <c r="G532" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
@@ -10006,6 +10015,9 @@
       <c r="C533" t="s">
         <v>650</v>
       </c>
+      <c r="G533" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
@@ -10017,6 +10029,9 @@
       <c r="C534" t="s">
         <v>646</v>
       </c>
+      <c r="G534" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
@@ -10031,6 +10046,9 @@
       <c r="D535" t="s">
         <v>659</v>
       </c>
+      <c r="G535" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
@@ -10042,6 +10060,9 @@
       <c r="C536" t="s">
         <v>657</v>
       </c>
+      <c r="G536" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
@@ -10053,6 +10074,9 @@
       <c r="C537" t="s">
         <v>642</v>
       </c>
+      <c r="G537" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
@@ -10064,6 +10088,9 @@
       <c r="C538" t="s">
         <v>642</v>
       </c>
+      <c r="G538" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
@@ -10074,6 +10101,9 @@
       </c>
       <c r="C539" t="s">
         <v>655</v>
+      </c>
+      <c r="G539" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.45">

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA2065-591F-4F3B-B65A-FB3E1A52D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE79449-CD3C-46A0-87B2-94ED82DF43E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,23 +2889,23 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F534" sqref="F534"/>
+      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B533" sqref="B533"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.265625" customWidth="1"/>
-    <col min="2" max="2" width="30.73046875" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>146</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>148</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>154</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>155</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>156</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>157</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>158</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>159</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>160</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>161</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>162</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>163</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>165</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>166</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>167</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>168</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>169</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>170</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>171</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>172</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>173</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>174</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>175</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>176</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>177</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>178</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>179</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>180</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>181</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>183</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>185</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>186</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>189</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>190</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>191</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>192</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>193</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>194</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>195</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>196</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>197</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>198</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>199</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>200</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>201</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>202</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>203</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>205</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>206</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>207</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>208</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>209</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>210</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>211</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>212</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>213</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>214</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>215</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>216</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>217</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>218</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>219</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>220</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>221</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>222</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>223</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>224</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>225</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>226</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>228</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>229</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>230</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>231</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>232</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>233</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>234</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>235</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>236</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>237</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>238</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>239</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>240</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>241</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>242</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>243</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>244</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>245</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>246</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>247</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>248</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>249</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>250</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>251</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>252</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>253</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>254</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>255</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>256</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>257</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>258</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>259</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>260</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>261</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>262</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>263</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>264</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>265</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>266</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>267</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>268</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>269</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>270</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>271</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>272</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>273</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>274</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>275</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>276</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>277</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>278</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>279</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>280</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>281</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>282</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>283</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>284</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>285</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>286</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>287</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>288</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>289</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>290</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>291</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>292</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>293</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>294</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>295</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>296</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>297</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>298</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>299</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>300</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>301</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>302</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>303</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>304</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>305</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>306</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>307</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>308</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>309</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>310</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>311</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>312</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>313</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>315</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>316</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>317</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>318</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>319</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>320</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>321</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>322</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>323</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>324</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>325</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>326</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>327</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>328</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>329</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>382</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>383</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>384</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>385</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>386</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>387</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>388</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>389</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>390</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>391</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>392</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>393</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>394</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>395</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>396</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>397</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>398</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>399</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>400</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>401</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>402</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>403</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>404</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>411</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>412</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>413</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>414</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>415</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>416</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>417</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>418</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>419</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>420</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>421</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>422</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>423</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>424</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>425</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>426</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>427</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>428</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>429</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>430</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>431</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>432</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>433</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>434</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>435</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>436</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>437</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>438</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>439</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>440</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>441</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>442</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>443</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>444</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>445</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>446</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>447</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>448</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>449</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>450</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>451</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>452</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>453</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>454</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>455</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>456</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>457</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>458</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>459</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>460</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>461</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>462</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>463</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>464</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>465</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>466</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>467</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>468</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>469</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>470</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>471</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>472</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>473</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>474</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>475</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>476</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>477</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>478</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>479</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>480</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>481</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>482</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>483</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>484</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>485</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>486</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>487</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>488</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>489</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>490</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>491</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>492</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>493</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>494</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>495</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>496</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>497</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>498</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>499</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>500</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>501</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>502</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>503</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>504</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>505</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>506</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>507</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>508</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>509</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>510</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>511</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>512</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>513</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>514</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>515</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>516</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>517</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>518</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>519</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>520</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>521</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>522</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>523</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>524</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>525</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>526</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>527</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>528</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>529</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>530</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>531</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>532</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>533</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>534</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>535</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>536</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>537</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>538</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>539</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>540</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>541</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>542</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>543</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>544</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>545</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>546</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>547</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>548</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>549</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>550</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>551</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>552</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>553</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>554</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>555</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>556</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>557</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>558</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>559</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>560</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>561</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>562</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>563</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>564</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>565</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>566</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>567</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>568</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>569</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>570</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>571</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>572</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>573</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>574</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>575</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>576</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>577</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>578</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>579</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>580</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>581</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>582</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>583</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>584</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>585</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>586</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>587</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>588</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>589</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>590</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>591</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>592</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>593</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>594</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>595</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>596</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>597</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>598</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>599</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>600</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>601</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>602</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>603</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>604</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>605</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>606</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>607</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>608</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>609</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>610</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>611</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>612</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>613</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>614</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>615</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>616</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>617</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>618</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>619</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>620</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>621</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>622</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>623</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>624</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>625</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>626</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>627</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>628</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>629</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>630</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>631</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>637</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>638</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>639</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>640</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>641</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>642</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>643</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>644</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>645</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>646</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>647</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>648</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>649</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>650</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>651</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>652</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>653</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>654</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>662</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>663</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>664</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>665</v>
       </c>
@@ -10167,8 +10167,11 @@
       <c r="D543" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G543" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>666</v>
       </c>
@@ -10178,8 +10181,11 @@
       <c r="C544" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G544" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>667</v>
       </c>
@@ -10192,8 +10198,11 @@
       <c r="D545" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G545" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>668</v>
       </c>
@@ -10203,8 +10212,11 @@
       <c r="C546" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G546" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>669</v>
       </c>
@@ -10214,8 +10226,11 @@
       <c r="C547" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G547" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>670</v>
       </c>
@@ -10226,7 +10241,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>671</v>
       </c>
@@ -10243,7 +10258,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>672</v>
       </c>
@@ -10254,7 +10269,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>673</v>
       </c>
@@ -10265,7 +10280,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>674</v>
       </c>
@@ -10276,7 +10291,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>679</v>
       </c>
@@ -10287,7 +10302,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>680</v>
       </c>
@@ -10301,7 +10316,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>681</v>
       </c>
@@ -10312,7 +10327,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>682</v>
       </c>
@@ -10323,7 +10338,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>683</v>
       </c>
@@ -10334,7 +10349,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>684</v>
       </c>
@@ -10348,7 +10363,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>685</v>
       </c>
@@ -10359,7 +10374,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>686</v>
       </c>
@@ -10373,7 +10388,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>687</v>
       </c>
@@ -10387,7 +10402,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>688</v>
       </c>
@@ -10398,7 +10413,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>689</v>
       </c>
@@ -10412,7 +10427,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>690</v>
       </c>
@@ -10423,7 +10438,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>691</v>
       </c>
@@ -10434,7 +10449,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>692</v>
       </c>
@@ -10448,7 +10463,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>693</v>
       </c>
@@ -10462,7 +10477,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>694</v>
       </c>
@@ -10476,7 +10491,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>695</v>
       </c>
@@ -10487,7 +10502,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>696</v>
       </c>
@@ -10498,7 +10513,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>697</v>
       </c>
@@ -10509,7 +10524,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>698</v>
       </c>
@@ -10523,7 +10538,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>699</v>
       </c>
@@ -10534,7 +10549,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>700</v>
       </c>
@@ -10545,7 +10560,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>701</v>
       </c>
@@ -10556,7 +10571,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>702</v>
       </c>
@@ -10567,7 +10582,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>703</v>
       </c>
@@ -10578,7 +10593,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>704</v>
       </c>
@@ -10592,7 +10607,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>705</v>
       </c>
@@ -10627,16 +10642,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="5" width="18.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10656,7 +10671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -10670,7 +10685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10681,7 +10696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10698,7 +10713,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10712,7 +10727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>715</v>
       </c>
@@ -10726,7 +10741,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>716</v>
       </c>
@@ -10743,12 +10758,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>718</v>
       </c>
@@ -10759,7 +10774,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>719</v>
       </c>
@@ -10770,7 +10785,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>720</v>
       </c>
@@ -10784,12 +10799,12 @@
         <v>749</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -10800,7 +10815,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>723</v>
       </c>
@@ -10811,7 +10826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>724</v>
       </c>
@@ -10828,12 +10843,12 @@
         <v>753</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>726</v>
       </c>
@@ -10844,112 +10859,112 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>748</v>
       </c>
@@ -10968,9 +10983,9 @@
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10990,7 +11005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11010,7 +11025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11024,7 +11039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11035,7 +11050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11049,7 +11064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE79449-CD3C-46A0-87B2-94ED82DF43E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA2065-591F-4F3B-B65A-FB3E1A52D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,23 +2889,23 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B533" sqref="B533"/>
+      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F534" sqref="F534"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.265625" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>146</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>148</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>154</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>155</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>156</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>157</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>158</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>159</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>160</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>161</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>162</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>163</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>165</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>166</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>167</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>168</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>169</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>170</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>171</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>172</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>173</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>174</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>175</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>176</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>177</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>178</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>179</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>180</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>181</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>183</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>185</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>186</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>188</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>189</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>190</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>191</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>192</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>193</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>194</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>195</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>196</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>197</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>198</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>199</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>200</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>201</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>202</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>203</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>205</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>206</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>207</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>208</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>209</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>210</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>211</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>212</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>213</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>214</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>215</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>216</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>217</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>218</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>219</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>220</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>221</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>222</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>223</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>224</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>225</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>226</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>228</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>229</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>230</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>231</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>232</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>233</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>234</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>235</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>236</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>237</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>238</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>239</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>240</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>241</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>242</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>243</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>244</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>245</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>246</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>247</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>248</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>249</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>250</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>251</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>252</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>253</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>254</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>255</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>256</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>257</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>258</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>259</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>260</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>261</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>262</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>263</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>264</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>265</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>266</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>267</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>268</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>269</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>270</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>271</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>272</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>273</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>274</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>275</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>276</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>277</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>278</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>279</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>280</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>281</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>282</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>283</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>284</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>285</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>286</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>287</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>288</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>289</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>290</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>291</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>292</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>293</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>294</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>295</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>296</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>297</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>298</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>299</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>300</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>301</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>302</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>303</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>304</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>305</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>306</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>307</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>308</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>309</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>310</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>311</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>312</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>313</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>315</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>316</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>317</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>318</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>319</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>320</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>321</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>322</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>323</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>324</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>325</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>326</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>327</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>328</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>329</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>382</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>383</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>384</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>385</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>386</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>387</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>388</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>389</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>390</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>391</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>392</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>393</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>394</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>395</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>396</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>397</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>398</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>399</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>400</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>401</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>402</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>403</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>404</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>411</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>412</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>413</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>414</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>415</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>416</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>417</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>418</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>419</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>420</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>421</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>422</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>423</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>424</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>425</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>426</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>427</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>428</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>429</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>430</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>431</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>432</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>433</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>434</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>435</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>436</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>437</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>438</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>439</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>440</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>441</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>442</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>443</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>444</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>445</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>446</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>447</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>448</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>449</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>450</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>451</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>452</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>453</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>454</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>455</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>456</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>457</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>458</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>459</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>460</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>461</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>462</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>463</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>464</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>465</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>466</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>467</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>468</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>469</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>470</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>471</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>472</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>473</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>474</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>475</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>476</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>477</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>478</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>479</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>480</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>481</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>482</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>483</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>484</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>485</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>486</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>487</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>488</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>489</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>490</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>491</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>492</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>493</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>494</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>495</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>496</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>497</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>498</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>499</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>500</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>501</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>502</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>503</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>504</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>505</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>506</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>507</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>508</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>509</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>510</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>511</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>512</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>513</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>514</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>515</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>516</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>517</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>518</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>519</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>520</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>521</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>522</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>523</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>524</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>525</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>526</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>527</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>528</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>529</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>530</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>531</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>532</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>533</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>534</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>535</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>536</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>537</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>538</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>539</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>540</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>541</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>542</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>543</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>544</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>545</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>546</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>547</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>548</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>549</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>550</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>551</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>552</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>553</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>554</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>555</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>556</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>557</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>558</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>559</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>560</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>561</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>562</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>563</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>564</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>565</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>566</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>567</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>568</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>569</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>570</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>571</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>572</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>573</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>574</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>575</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>576</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>577</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>578</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>579</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>580</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>581</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>582</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>583</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>584</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>585</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>586</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>587</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>588</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>589</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>590</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>591</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>592</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>593</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>594</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>595</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>596</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>597</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>598</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>599</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>600</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>601</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>602</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>603</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>604</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>605</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>606</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>607</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>608</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>609</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>610</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>611</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>612</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>613</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>614</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>615</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>616</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>617</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>618</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>619</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>620</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>621</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>622</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>623</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>624</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>625</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>626</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>627</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>628</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>629</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>630</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>631</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>637</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>638</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>639</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>640</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>641</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>642</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>643</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>644</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>645</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>646</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>647</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>648</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>649</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>650</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>651</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>652</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>653</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>654</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>662</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>663</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>664</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>665</v>
       </c>
@@ -10167,11 +10167,8 @@
       <c r="D543" t="s">
         <v>678</v>
       </c>
-      <c r="G543" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>666</v>
       </c>
@@ -10181,11 +10178,8 @@
       <c r="C544" t="s">
         <v>675</v>
       </c>
-      <c r="G544" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>667</v>
       </c>
@@ -10198,11 +10192,8 @@
       <c r="D545" t="s">
         <v>662</v>
       </c>
-      <c r="G545" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>668</v>
       </c>
@@ -10212,11 +10203,8 @@
       <c r="C546" t="s">
         <v>664</v>
       </c>
-      <c r="G546" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>669</v>
       </c>
@@ -10226,11 +10214,8 @@
       <c r="C547" t="s">
         <v>675</v>
       </c>
-      <c r="G547" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>670</v>
       </c>
@@ -10241,7 +10226,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>671</v>
       </c>
@@ -10258,7 +10243,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>672</v>
       </c>
@@ -10269,7 +10254,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>673</v>
       </c>
@@ -10280,7 +10265,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>674</v>
       </c>
@@ -10291,7 +10276,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>679</v>
       </c>
@@ -10302,7 +10287,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>680</v>
       </c>
@@ -10316,7 +10301,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>681</v>
       </c>
@@ -10327,7 +10312,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>682</v>
       </c>
@@ -10338,7 +10323,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>683</v>
       </c>
@@ -10349,7 +10334,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>684</v>
       </c>
@@ -10363,7 +10348,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>685</v>
       </c>
@@ -10374,7 +10359,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>686</v>
       </c>
@@ -10388,7 +10373,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>687</v>
       </c>
@@ -10402,7 +10387,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>688</v>
       </c>
@@ -10413,7 +10398,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>689</v>
       </c>
@@ -10427,7 +10412,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>690</v>
       </c>
@@ -10438,7 +10423,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>691</v>
       </c>
@@ -10449,7 +10434,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>692</v>
       </c>
@@ -10463,7 +10448,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>693</v>
       </c>
@@ -10477,7 +10462,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>694</v>
       </c>
@@ -10491,7 +10476,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>695</v>
       </c>
@@ -10502,7 +10487,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>696</v>
       </c>
@@ -10513,7 +10498,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>697</v>
       </c>
@@ -10524,7 +10509,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>698</v>
       </c>
@@ -10538,7 +10523,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>699</v>
       </c>
@@ -10549,7 +10534,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>700</v>
       </c>
@@ -10560,7 +10545,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>701</v>
       </c>
@@ -10571,7 +10556,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>702</v>
       </c>
@@ -10582,7 +10567,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>703</v>
       </c>
@@ -10593,7 +10578,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>704</v>
       </c>
@@ -10607,7 +10592,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>705</v>
       </c>
@@ -10642,16 +10627,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="28.1328125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10671,7 +10656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -10685,7 +10670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10696,7 +10681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10713,7 +10698,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10727,7 +10712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>715</v>
       </c>
@@ -10741,7 +10726,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>716</v>
       </c>
@@ -10758,12 +10743,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>718</v>
       </c>
@@ -10774,7 +10759,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>719</v>
       </c>
@@ -10785,7 +10770,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>720</v>
       </c>
@@ -10799,12 +10784,12 @@
         <v>749</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -10815,7 +10800,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>723</v>
       </c>
@@ -10826,7 +10811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>724</v>
       </c>
@@ -10843,12 +10828,12 @@
         <v>753</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>726</v>
       </c>
@@ -10859,112 +10844,112 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>748</v>
       </c>
@@ -10983,9 +10968,9 @@
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +10990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11025,7 +11010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11039,7 +11024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11050,7 +11035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11064,7 +11049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE79449-CD3C-46A0-87B2-94ED82DF43E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33E0AE-B6F6-4418-A65B-CD2E6E1D1752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="822">
   <si>
     <t>Filename</t>
   </si>
@@ -2889,8 +2889,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B533" sqref="B533"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2961,6 +2961,9 @@
       <c r="E3" t="s">
         <v>632</v>
       </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -10240,6 +10243,9 @@
       <c r="C548" t="s">
         <v>665</v>
       </c>
+      <c r="G548" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
@@ -10257,6 +10263,9 @@
       <c r="E549" t="s">
         <v>665</v>
       </c>
+      <c r="G549" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
@@ -10268,6 +10277,9 @@
       <c r="C550" t="s">
         <v>662</v>
       </c>
+      <c r="G550" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
@@ -10279,6 +10291,9 @@
       <c r="C551" t="s">
         <v>664</v>
       </c>
+      <c r="G551" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
@@ -10290,6 +10305,9 @@
       <c r="C552" t="s">
         <v>664</v>
       </c>
+      <c r="G552" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
@@ -10301,6 +10319,9 @@
       <c r="C553" t="s">
         <v>680</v>
       </c>
+      <c r="G553" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
@@ -10315,6 +10336,9 @@
       <c r="D554" t="s">
         <v>709</v>
       </c>
+      <c r="G554" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
@@ -10326,6 +10350,9 @@
       <c r="C555" t="s">
         <v>680</v>
       </c>
+      <c r="G555" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
@@ -10337,6 +10364,9 @@
       <c r="C556" t="s">
         <v>686</v>
       </c>
+      <c r="G556" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
@@ -10348,6 +10378,9 @@
       <c r="C557" t="s">
         <v>686</v>
       </c>
+      <c r="G557" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
@@ -10362,6 +10395,9 @@
       <c r="D558" t="s">
         <v>685</v>
       </c>
+      <c r="G558" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
@@ -10373,6 +10409,9 @@
       <c r="C559" t="s">
         <v>684</v>
       </c>
+      <c r="G559" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
@@ -10387,8 +10426,11 @@
       <c r="D560" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G560" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>687</v>
       </c>
@@ -10401,8 +10443,11 @@
       <c r="D561" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G561" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>688</v>
       </c>
@@ -10412,8 +10457,11 @@
       <c r="C562" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G562" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>689</v>
       </c>
@@ -10426,8 +10474,11 @@
       <c r="D563" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G563" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>690</v>
       </c>
@@ -10437,8 +10488,11 @@
       <c r="C564" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G564" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>691</v>
       </c>
@@ -10448,8 +10502,11 @@
       <c r="C565" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G565" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>692</v>
       </c>
@@ -10462,8 +10519,11 @@
       <c r="D566" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G566" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>693</v>
       </c>
@@ -10476,8 +10536,11 @@
       <c r="D567" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G567" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>694</v>
       </c>
@@ -10490,8 +10553,11 @@
       <c r="D568" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G568" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>695</v>
       </c>
@@ -10501,8 +10567,11 @@
       <c r="C569" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G569" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>696</v>
       </c>
@@ -10512,8 +10581,11 @@
       <c r="C570" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G570" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>697</v>
       </c>
@@ -10523,8 +10595,11 @@
       <c r="C571" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G571" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>698</v>
       </c>
@@ -10537,8 +10612,11 @@
       <c r="D572" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G572" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>699</v>
       </c>
@@ -10548,8 +10626,11 @@
       <c r="C573" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G573" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>700</v>
       </c>
@@ -10559,8 +10640,11 @@
       <c r="C574" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G574" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>701</v>
       </c>
@@ -10570,8 +10654,11 @@
       <c r="C575" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G575" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>702</v>
       </c>
@@ -10581,8 +10668,11 @@
       <c r="C576" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G576" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>703</v>
       </c>
@@ -10592,8 +10682,11 @@
       <c r="C577" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G577" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>704</v>
       </c>
@@ -10606,8 +10699,11 @@
       <c r="D578" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G578" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>705</v>
       </c>
@@ -10616,6 +10712,9 @@
       </c>
       <c r="C579" t="s">
         <v>706</v>
+      </c>
+      <c r="G579" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\RemoteGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0405F-6A1B-4E88-9C86-E6ED1EFA0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E493892-A9B6-44D1-8059-E10314A239A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="819">
   <si>
     <t>Filename</t>
   </si>
@@ -279,9 +279,6 @@
     <t>End Point</t>
   </si>
   <si>
-    <t>arteries49, arteries50</t>
-  </si>
-  <si>
     <t>left_gastric_artery</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>right_internal_iliac_artery</t>
   </si>
   <si>
-    <t>arteries47, arteries19,arteries21, arteries25</t>
-  </si>
-  <si>
     <t>arteries_larm0</t>
   </si>
   <si>
@@ -453,9 +447,6 @@
     <t>arteries_lleg1, arteries_lleg4, arteries_lleg9, arteries_lleg15</t>
   </si>
   <si>
-    <t>arteries_lleg21, arteries_lleg16</t>
-  </si>
-  <si>
     <t>arteries_12</t>
   </si>
   <si>
@@ -2046,9 +2037,6 @@
     <t>right_arm_artery</t>
   </si>
   <si>
-    <t>arteries_rarm4, arteries_rarm7, arteries_rarm12, arteries_rarm3</t>
-  </si>
-  <si>
     <t>arteries_rarm13, arteries_rarm6, arteries_rarm12, arteries_rarm5</t>
   </si>
   <si>
@@ -2475,9 +2463,6 @@
     <t>arteries47,arteries21</t>
   </si>
   <si>
-    <t>arteries_lleg12, arteries_lleg16, arteries_lleg28</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -2488,6 +2473,18 @@
   </si>
   <si>
     <t>lkidney_arteries3, lkidney_arteries10, lkidney_arteries22, lkidney_arteries13</t>
+  </si>
+  <si>
+    <t>arteries49, arteries50, left_gastric_artery, common_hepatic_artery</t>
+  </si>
+  <si>
+    <t>arteries47, arteries19,arteries21, arteries25,arteries39</t>
+  </si>
+  <si>
+    <t>arteries_lleg12, arteries_lleg16, arteries_lleg28, arteries_lleg19</t>
+  </si>
+  <si>
+    <t>arteries_rarm4, arteries_rarm7, arteries_rarm3, arteries_rarm2</t>
   </si>
 </sst>
 </file>
@@ -2542,35 +2539,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2925,9 +2894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,7 +2904,7 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="56.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
@@ -2973,10 +2942,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -2993,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>815</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -3035,7 +3004,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -3069,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -3134,10 +3103,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -3151,7 +3120,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -3162,16 +3131,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -3199,7 +3168,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -3289,7 +3258,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -3317,7 +3286,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
@@ -3376,7 +3345,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -3393,7 +3362,7 @@
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
@@ -3410,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
@@ -3424,7 +3393,7 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
@@ -3441,7 +3410,7 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -3534,10 +3503,10 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
@@ -3548,10 +3517,10 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3565,7 +3534,7 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
@@ -3582,7 +3551,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
@@ -3593,7 +3562,7 @@
         <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
         <v>77</v>
@@ -3610,7 +3579,7 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C43" t="s">
         <v>72</v>
@@ -3624,13 +3593,13 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
@@ -3644,7 +3613,7 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
@@ -3669,16 +3638,16 @@
         <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>816</v>
       </c>
       <c r="E47" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3706,7 +3675,7 @@
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -3756,13 +3725,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
@@ -3770,16 +3739,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -3787,19 +3756,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3807,13 +3776,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
         <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" t="s">
-        <v>99</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
@@ -3821,13 +3790,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -3835,16 +3804,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
         <v>107</v>
-      </c>
-      <c r="D58" t="s">
-        <v>109</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
@@ -3852,13 +3821,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3866,13 +3835,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
         <v>101</v>
-      </c>
-      <c r="B60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" t="s">
-        <v>103</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -3880,13 +3849,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
@@ -3894,16 +3863,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
@@ -3911,13 +3880,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3925,13 +3894,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
@@ -3939,16 +3908,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
@@ -3956,13 +3925,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -3970,13 +3939,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3984,13 +3953,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -3998,13 +3967,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
@@ -4012,13 +3981,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
@@ -4026,16 +3995,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -4043,16 +4012,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -4060,13 +4029,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
@@ -4074,13 +4043,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
@@ -4088,16 +4057,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -4105,16 +4074,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G76" t="s">
         <v>19</v>
@@ -4122,13 +4091,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G77" t="s">
         <v>19</v>
@@ -4136,13 +4105,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G78" t="s">
         <v>19</v>
@@ -4150,13 +4119,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -4164,13 +4133,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -4178,16 +4147,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" t="s">
         <v>126</v>
-      </c>
-      <c r="B81" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" t="s">
-        <v>128</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -4195,13 +4164,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
         <v>127</v>
-      </c>
-      <c r="B82" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" t="s">
-        <v>129</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
@@ -4209,16 +4178,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -4226,16 +4195,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
@@ -4243,16 +4212,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
         <v>75</v>
       </c>
       <c r="D85" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
@@ -4260,13 +4229,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
@@ -4274,13 +4243,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -4288,13 +4257,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
         <v>19</v>
@@ -4302,13 +4271,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
@@ -4316,13 +4285,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
@@ -4330,16 +4299,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" t="s">
         <v>129</v>
-      </c>
-      <c r="D91" t="s">
-        <v>131</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4347,16 +4316,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G92" t="s">
         <v>19</v>
@@ -4364,24 +4333,24 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -4392,10 +4361,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -4406,10 +4375,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -4420,10 +4389,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -4434,10 +4403,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -4448,10 +4417,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -4462,16 +4431,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B100" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -4479,13 +4448,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>377</v>
+      </c>
+      <c r="B101" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" t="s">
         <v>380</v>
-      </c>
-      <c r="B101" t="s">
-        <v>380</v>
-      </c>
-      <c r="C101" t="s">
-        <v>383</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
@@ -4493,16 +4462,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B102" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D102" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4510,13 +4479,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B103" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G103" t="s">
         <v>19</v>
@@ -4524,16 +4493,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B104" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C104" t="s">
+        <v>399</v>
+      </c>
+      <c r="D104" t="s">
         <v>402</v>
-      </c>
-      <c r="D104" t="s">
-        <v>405</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
@@ -4541,13 +4510,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B105" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C105" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -4555,16 +4524,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" t="s">
+        <v>382</v>
+      </c>
+      <c r="C106" t="s">
+        <v>380</v>
+      </c>
+      <c r="D106" t="s">
         <v>385</v>
-      </c>
-      <c r="B106" t="s">
-        <v>385</v>
-      </c>
-      <c r="C106" t="s">
-        <v>383</v>
-      </c>
-      <c r="D106" t="s">
-        <v>388</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4572,13 +4541,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B107" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C107" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -4586,13 +4555,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B108" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C108" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
@@ -4600,13 +4569,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B109" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C109" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4614,16 +4583,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B110" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C110" t="s">
+        <v>378</v>
+      </c>
+      <c r="D110" t="s">
         <v>381</v>
-      </c>
-      <c r="D110" t="s">
-        <v>384</v>
       </c>
       <c r="G110" t="s">
         <v>19</v>
@@ -4631,13 +4600,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C111" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G111" t="s">
         <v>19</v>
@@ -4645,13 +4614,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B112" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G112" t="s">
         <v>19</v>
@@ -4659,13 +4628,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B113" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C113" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -4673,13 +4642,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B114" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C114" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4687,13 +4656,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B115" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C115" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -4701,13 +4670,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B116" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C116" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G116" t="s">
         <v>19</v>
@@ -4715,13 +4684,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B117" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C117" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4729,13 +4698,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B118" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C118" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G118" t="s">
         <v>19</v>
@@ -4743,13 +4712,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B119" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C119" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G119" t="s">
         <v>19</v>
@@ -4757,16 +4726,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
+        <v>380</v>
+      </c>
+      <c r="D120" t="s">
         <v>383</v>
-      </c>
-      <c r="D120" t="s">
-        <v>386</v>
       </c>
       <c r="G120" t="s">
         <v>19</v>
@@ -4774,16 +4743,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>397</v>
+      </c>
+      <c r="B121" t="s">
         <v>400</v>
-      </c>
-      <c r="B121" t="s">
-        <v>403</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4791,13 +4760,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B122" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C122" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G122" t="s">
         <v>19</v>
@@ -4805,16 +4774,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B123" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G123" t="s">
         <v>19</v>
@@ -4822,13 +4791,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B124" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C124" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G124" t="s">
         <v>19</v>
@@ -4836,16 +4805,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B125" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C125" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D125" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4853,13 +4822,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B126" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C126" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G126" t="s">
         <v>19</v>
@@ -4867,13 +4836,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B127" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C127" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G127" t="s">
         <v>19</v>
@@ -4881,16 +4850,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B128" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C128" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D128" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G128" t="s">
         <v>19</v>
@@ -4898,16 +4867,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B129" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4915,13 +4884,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B130" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C130" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G130" t="s">
         <v>19</v>
@@ -4929,13 +4898,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B131" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C131" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G131" t="s">
         <v>19</v>
@@ -4943,16 +4912,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B132" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C132" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D132" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G132" t="s">
         <v>19</v>
@@ -4960,13 +4929,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B133" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C133" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4974,13 +4943,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B134" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C134" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G134" t="s">
         <v>19</v>
@@ -4988,13 +4957,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B135" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C135" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G135" t="s">
         <v>19</v>
@@ -5002,16 +4971,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B136" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C136" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D136" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G136" t="s">
         <v>19</v>
@@ -5019,13 +4988,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B137" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C137" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -5033,13 +5002,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B138" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C138" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G138" t="s">
         <v>19</v>
@@ -5047,13 +5016,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B139" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C139" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G139" t="s">
         <v>19</v>
@@ -5061,13 +5030,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B140" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C140" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G140" t="s">
         <v>19</v>
@@ -5075,16 +5044,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B141" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C141" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D141" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G141" t="s">
         <v>19</v>
@@ -5092,13 +5061,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C142" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G142" t="s">
         <v>19</v>
@@ -5106,16 +5075,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B143" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C143" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D143" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G143" t="s">
         <v>19</v>
@@ -5123,16 +5092,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B144" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C144" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D144" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G144" t="s">
         <v>19</v>
@@ -5140,13 +5109,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B145" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C145" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G145" t="s">
         <v>19</v>
@@ -5154,16 +5123,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B146" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C146" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D146" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G146" t="s">
         <v>19</v>
@@ -5171,13 +5140,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B147" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C147" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G147" t="s">
         <v>19</v>
@@ -5185,13 +5154,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B148" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C148" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G148" t="s">
         <v>19</v>
@@ -5199,13 +5168,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B149" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C149" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G149" t="s">
         <v>19</v>
@@ -5213,19 +5182,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B150" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C150" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D150" t="s">
-        <v>672</v>
+        <v>818</v>
       </c>
       <c r="E150" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G150" t="s">
         <v>19</v>
@@ -5233,13 +5202,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B151" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C151" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G151" t="s">
         <v>19</v>
@@ -5247,13 +5216,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B152" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C152" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G152" t="s">
         <v>19</v>
@@ -5261,13 +5230,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B153" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C153" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G153" t="s">
         <v>19</v>
@@ -5275,13 +5244,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B154" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C154" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
@@ -5289,16 +5258,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B155" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C155" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D155" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G155" t="s">
         <v>19</v>
@@ -5306,13 +5275,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B156" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C156" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G156" t="s">
         <v>19</v>
@@ -5320,13 +5289,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>674</v>
+      </c>
+      <c r="B157" t="s">
+        <v>674</v>
+      </c>
+      <c r="C157" t="s">
         <v>678</v>
-      </c>
-      <c r="B157" t="s">
-        <v>678</v>
-      </c>
-      <c r="C157" t="s">
-        <v>682</v>
       </c>
       <c r="G157" t="s">
         <v>19</v>
@@ -5334,13 +5303,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B158" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C158" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G158" t="s">
         <v>19</v>
@@ -5348,16 +5317,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B159" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C159" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D159" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G159" t="s">
         <v>19</v>
@@ -5365,13 +5334,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B160" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C160" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G160" t="s">
         <v>19</v>
@@ -5379,16 +5348,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B161" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C161" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D161" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G161" t="s">
         <v>19</v>
@@ -5396,16 +5365,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>679</v>
+      </c>
+      <c r="B162" t="s">
+        <v>679</v>
+      </c>
+      <c r="C162" t="s">
+        <v>696</v>
+      </c>
+      <c r="D162" t="s">
         <v>683</v>
-      </c>
-      <c r="B162" t="s">
-        <v>683</v>
-      </c>
-      <c r="C162" t="s">
-        <v>700</v>
-      </c>
-      <c r="D162" t="s">
-        <v>687</v>
       </c>
       <c r="G162" t="s">
         <v>19</v>
@@ -5413,13 +5382,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B163" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C163" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G163" t="s">
         <v>19</v>
@@ -5427,16 +5396,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B164" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C164" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D164" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G164" t="s">
         <v>19</v>
@@ -5444,13 +5413,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B165" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C165" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G165" t="s">
         <v>19</v>
@@ -5458,13 +5427,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B166" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C166" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
@@ -5472,16 +5441,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B167" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C167" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D167" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G167" t="s">
         <v>19</v>
@@ -5489,16 +5458,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B168" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C168" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D168" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G168" t="s">
         <v>19</v>
@@ -5506,16 +5475,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B169" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C169" t="s">
         <v>77</v>
       </c>
       <c r="D169" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G169" t="s">
         <v>19</v>
@@ -5523,13 +5492,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B170" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C170" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G170" t="s">
         <v>19</v>
@@ -5537,13 +5506,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B171" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C171" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G171" t="s">
         <v>19</v>
@@ -5551,13 +5520,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B172" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C172" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G172" t="s">
         <v>19</v>
@@ -5565,16 +5534,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B173" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C173" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D173" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G173" t="s">
         <v>19</v>
@@ -5582,13 +5551,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B174" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C174" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G174" t="s">
         <v>19</v>
@@ -5596,13 +5565,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B175" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C175" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G175" t="s">
         <v>19</v>
@@ -5610,13 +5579,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B176" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C176" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G176" t="s">
         <v>19</v>
@@ -5624,13 +5593,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>694</v>
+      </c>
+      <c r="B177" t="s">
+        <v>694</v>
+      </c>
+      <c r="C177" t="s">
         <v>698</v>
-      </c>
-      <c r="B177" t="s">
-        <v>698</v>
-      </c>
-      <c r="C177" t="s">
-        <v>702</v>
       </c>
       <c r="G177" t="s">
         <v>19</v>
@@ -5638,13 +5607,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B178" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C178" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G178" t="s">
         <v>19</v>
@@ -5652,16 +5621,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B179" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C179" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D179" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G179" t="s">
         <v>19</v>
@@ -5669,13 +5638,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B180" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C180" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G180" t="s">
         <v>19</v>
@@ -5684,10 +5653,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G180">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="8" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5728,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -5770,10 +5739,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5784,7 +5753,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -5792,98 +5761,98 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C6" t="s">
         <v>711</v>
       </c>
-      <c r="B6" t="s">
-        <v>747</v>
-      </c>
-      <c r="C6" t="s">
-        <v>715</v>
-      </c>
       <c r="D6" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D9" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B10" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D10" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B13" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D13" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -5891,145 +5860,145 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B15" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C15" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B17" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -6079,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -6140,10 +6109,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="6" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6195,10 +6164,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -6206,5080 +6175,5064 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E28" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
         <v>181</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>181</v>
-      </c>
-      <c r="C34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D35" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E35" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" t="s">
         <v>196</v>
-      </c>
-      <c r="B49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E54" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D57" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E57" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D61" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E61" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E64" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E66" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D67" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E67" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D86" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E86" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C90" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D93" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E93" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C95" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D95" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E95" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D98" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E98" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E100" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C103" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D104" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E104" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C105" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C109" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C111" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B112" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D112" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E112" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C113" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C114" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C115" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D115" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E115" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C116" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D117" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E117" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B121" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B122" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B123" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B124" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C126" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C127" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C129" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B133" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C133" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C134" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B135" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C135" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C137" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B139" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C139" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D140" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C141" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D141" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C147" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C149" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D149" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D151" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C152" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D152" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C153" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D153" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C156" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C157" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C158" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C159" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D159" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C160" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D160" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C161" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D161" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C162" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D162" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C163" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D163" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C164" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D164" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B165" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C165" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D165" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B166" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C166" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D166" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B167" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C167" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D167" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B168" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D168" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D169" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B170" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B171" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C171" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B172" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C172" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D172" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>317</v>
+      </c>
+      <c r="B173" t="s">
+        <v>317</v>
+      </c>
+      <c r="C173" t="s">
         <v>320</v>
       </c>
-      <c r="B173" t="s">
-        <v>320</v>
-      </c>
-      <c r="C173" t="s">
-        <v>323</v>
-      </c>
       <c r="D173" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E173" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C174" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D174" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C175" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D175" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B176" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C176" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D176" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E176" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B177" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C177" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B178" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C178" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B179" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C179" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D179" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B180" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C180" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D180" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B181" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B182" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C182" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B183" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C183" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D183" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B184" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C184" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D184" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B185" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C185" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D185" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B186" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C186" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D186" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B187" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C187" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D187" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B188" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C188" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D188" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B189" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C189" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B190" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C190" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D190" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>415</v>
+      </c>
+      <c r="B191" t="s">
+        <v>415</v>
+      </c>
+      <c r="C191" t="s">
         <v>418</v>
       </c>
-      <c r="B191" t="s">
-        <v>418</v>
-      </c>
-      <c r="C191" t="s">
-        <v>421</v>
-      </c>
       <c r="D191" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B192" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C192" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D192" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B193" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C193" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D193" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B194" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C194" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D194" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B195" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C195" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D195" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B196" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C196" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D196" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B197" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C197" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B198" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C198" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D198" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B199" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C199" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D199" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B200" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C200" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D200" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B201" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C201" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D201" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B202" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C202" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D202" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B203" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C203" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B204" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C204" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B205" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C205" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D205" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B206" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C206" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B207" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C207" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D207" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E207" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B208" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C208" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D208" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B209" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C209" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D209" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E209" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B210" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C210" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D210" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E210" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B211" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C211" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B212" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C212" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B213" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C213" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B214" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C214" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B215" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C215" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B216" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C216" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B217" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C217" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B218" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C218" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D218" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E218" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B219" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C219" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B220" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C220" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B221" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C221" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B222" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C222" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B223" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C223" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B224" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C224" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B225" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C225" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B226" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C226" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B227" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C227" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B228" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C228" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B229" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C229" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B230" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C230" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B231" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C231" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C232" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B233" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C233" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C234" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B235" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C235" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D235" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E235" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B236" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C236" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B237" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C237" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B238" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C238" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B239" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C239" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B240" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C240" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B241" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C241" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B242" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C242" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B243" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C243" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D243" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B244" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C244" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B245" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C245" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D245" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E245" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B246" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C246" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B247" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B248" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C248" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B249" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C249" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B250" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C250" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D250" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B251" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C251" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B252" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C252" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D252" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B253" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C253" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B254" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C254" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B255" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C255" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B256" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C256" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B257" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C257" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B258" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C258" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D258" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B259" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C259" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D259" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B260" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C260" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B261" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C261" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B262" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C262" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B263" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C263" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B264" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C264" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B265" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C265" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D265" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E265" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B266" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C266" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D266" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E266" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B267" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C267" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D267" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E267" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B268" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C268" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D268" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E268" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B269" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C269" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B270" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C270" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B271" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C271" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B272" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C272" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B273" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C273" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B274" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C274" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D274" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E274" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B275" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C275" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B276" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C276" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B277" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C277" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B278" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C278" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B279" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C279" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B280" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C280" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B281" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C281" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B282" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C282" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B283" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C283" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B284" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C284" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B285" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C285" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B286" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C286" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B287" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C287" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B288" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C288" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B289" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C289" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B290" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C290" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B291" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C291" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D291" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B292" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C292" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B293" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C293" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B294" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C294" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B295" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C295" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D295" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B296" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C296" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B297" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C297" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B298" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C298" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B299" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C299" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D299" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E299" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B300" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C300" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B301" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C301" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D301" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B302" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C302" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B303" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C303" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B304" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C304" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B305" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C305" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D305" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E305" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>530</v>
+      </c>
+      <c r="B306" t="s">
+        <v>530</v>
+      </c>
+      <c r="C306" t="s">
         <v>533</v>
       </c>
-      <c r="B306" t="s">
-        <v>533</v>
-      </c>
-      <c r="C306" t="s">
-        <v>536</v>
-      </c>
       <c r="D306" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B307" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C307" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D307" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B308" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C308" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B309" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C309" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D309" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B310" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C310" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B311" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C311" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D311" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E311" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B312" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C312" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D312" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E312" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B313" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C313" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D313" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E313" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B314" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C314" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B315" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C315" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B316" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C316" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>541</v>
+      </c>
+      <c r="B317" t="s">
+        <v>541</v>
+      </c>
+      <c r="C317" t="s">
         <v>544</v>
       </c>
-      <c r="B317" t="s">
-        <v>544</v>
-      </c>
-      <c r="C317" t="s">
-        <v>547</v>
-      </c>
       <c r="D317" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E317" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B318" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C318" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B319" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C319" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B320" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C320" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D320" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B321" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C321" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B322" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C322" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D322" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E322" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B323" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C323" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D323" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E323" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B324" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C324" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B325" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C325" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B326" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C326" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B327" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C327" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D327" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B328" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C328" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B329" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C329" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B330" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C330" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D330" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E330" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B331" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C331" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B332" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C332" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B333" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C333" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B334" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C334" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B335" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C335" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D335" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E335" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B336" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C336" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D336" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E336" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B337" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C337" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B338" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C338" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B339" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C339" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B340" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C340" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C341" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B342" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C342" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B343" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C343" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D343" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B344" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C344" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B345" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C345" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B346" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C346" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D346" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E346" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B347" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C347" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B348" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C348" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B349" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C349" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D349" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E349" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B350" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C350" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B351" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C351" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D351" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B352" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C352" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B353" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C353" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B354" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C354" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B355" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C355" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B356" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C356" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D356" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B357" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C357" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B358" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C358" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B359" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C359" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D359" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B360" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C360" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B361" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C361" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D361" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E361" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B362" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C362" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B363" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C363" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B364" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C364" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B365" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C365" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B366" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C366" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B367" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C367" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D367" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B368" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C368" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B369" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C369" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B370" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C370" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B371" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C371" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>596</v>
+      </c>
+      <c r="B372" t="s">
+        <v>596</v>
+      </c>
+      <c r="C372" t="s">
         <v>599</v>
       </c>
-      <c r="B372" t="s">
-        <v>599</v>
-      </c>
-      <c r="C372" t="s">
-        <v>602</v>
-      </c>
       <c r="D372" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B373" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C373" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B374" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C374" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D374" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E374" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B375" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C375" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D375" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B376" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C376" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D376" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B377" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C377" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B378" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C378" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D378" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E378" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B379" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C379" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B380" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C380" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B381" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C381" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B382" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C382" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B383" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C383" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D383" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E383" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B384" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C384" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D384" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E384" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B385" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C385" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D385" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E385" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B386" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C386" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B387" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C387" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B388" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C388" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D388" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B389" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C389" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D389" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B390" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C390" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B391" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C391" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D391" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B392" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C392" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B393" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C393" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B394" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C394" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D394" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B395" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C395" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B396" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C396" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D396" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B397" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C397" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D397" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E397" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B398" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C398" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B399" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C399" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B400" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C400" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D400" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+  <conditionalFormatting sqref="G2:G400">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(G2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G179">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(G3))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
-      <formula>LEN(TRIM(G3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180:G400">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(G180))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(G180))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E493892-A9B6-44D1-8059-E10314A239A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B13A68C-7134-44FB-BD2E-12BEB48E4B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -2894,9 +2894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D150" sqref="D150"/>
+      <selection pane="topRight" activeCell="E180" sqref="E2:E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B13A68C-7134-44FB-BD2E-12BEB48E4B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF40FBC-E2B5-4688-BC94-8287888462FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="819">
   <si>
     <t>Filename</t>
   </si>
@@ -2895,8 +2895,8 @@
   <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E180" sqref="E2:E180"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,9 +3767,6 @@
       <c r="D55" t="s">
         <v>108</v>
       </c>
-      <c r="E55" t="s">
-        <v>97</v>
-      </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
@@ -5192,9 +5189,6 @@
       </c>
       <c r="D150" t="s">
         <v>818</v>
-      </c>
-      <c r="E150" t="s">
-        <v>658</v>
       </c>
       <c r="G150" t="s">
         <v>19</v>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\RemoteGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF40FBC-E2B5-4688-BC94-8287888462FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18742FD9-3508-4C71-A347-C5B023A71BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -2894,9 +2894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E150" sqref="E150"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,7 +5663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\RemoteGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59502544-DE0F-4623-AB50-96EEA3794CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF82B1-AC01-4321-B1B4-3217151E35CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="819">
   <si>
     <t>Filename</t>
   </si>
@@ -2445,9 +2445,6 @@
     <t>arteries_lleg6, arteries_lleg26, arteries_lleg14, arteries_lleg27, arteries_lleg13, arteries_lleg17, arteries_lleg11, arteries43</t>
   </si>
   <si>
-    <t>right_subclavian_artery, left_external_iliac_artery,splenic_artery, superior_mesenteric_artery, left_common_cartoid_artery, left_subclavian_artery, inferior_mesenteric_artery, right_external_iliac_artery, arteries_lumb0, arteries_lumb1, arteries_lumb2, arteries_lumb3, arteries_lumb4, arteries_lumb5, arteries_lumb6, left_superior_renal_artery, left_inferior_renal_artery, right_superior_renal_artery, right_inferior_renal_artery</t>
-  </si>
-  <si>
     <t>arteries44, arteries18, arteries26, left_vertebral_arteries, left_arm_artery</t>
   </si>
   <si>
@@ -2482,6 +2479,12 @@
   </si>
   <si>
     <t>arteries_lleg21, arteries_lleg16</t>
+  </si>
+  <si>
+    <t>coronaries</t>
+  </si>
+  <si>
+    <t>coronaries, right_subclavian_artery, left_external_iliac_artery,splenic_artery, superior_mesenteric_artery, left_common_cartoid_artery, left_subclavian_artery, inferior_mesenteric_artery, right_external_iliac_artery, arteries_lumb0, arteries_lumb1, arteries_lumb2, arteries_lumb3, arteries_lumb4, arteries_lumb5, arteries_lumb6, left_superior_renal_artery, left_inferior_renal_artery, right_superior_renal_artery, right_inferior_renal_artery</t>
   </si>
 </sst>
 </file>
@@ -2593,9 +2596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2633,7 +2636,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2739,7 +2742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2881,7 +2884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2889,26 +2892,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D83" sqref="D83"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.265625" customWidth="1"/>
-    <col min="2" max="2" width="30.73046875" customWidth="1"/>
-    <col min="3" max="3" width="56.3984375" customWidth="1"/>
-    <col min="4" max="4" width="67.59765625" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="E2" t="s">
         <v>697</v>
@@ -2948,43 +2951,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>817</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>817</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>812</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>811</v>
+      </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -2993,204 +2993,204 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>810</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>806</v>
       </c>
-      <c r="E8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E15" t="s">
+        <v>666</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>811</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>807</v>
-      </c>
-      <c r="E14" t="s">
-        <v>666</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -3199,519 +3199,519 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>90</v>
       </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>81</v>
       </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>85</v>
       </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>77</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>803</v>
       </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>83</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>86</v>
       </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>51</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>37</v>
       </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>58</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
       </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
       <c r="G39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>86</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
         <v>55</v>
       </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>90</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>77</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>61</v>
       </c>
-      <c r="B43" t="s">
-        <v>810</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>809</v>
+      </c>
+      <c r="C44" t="s">
         <v>72</v>
       </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>84</v>
       </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>63</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>63</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>72</v>
       </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>75</v>
       </c>
-      <c r="D47" t="s">
-        <v>813</v>
-      </c>
-      <c r="E47" t="s">
-        <v>808</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="D48" t="s">
+        <v>812</v>
+      </c>
+      <c r="E48" t="s">
+        <v>807</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>66</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>77</v>
       </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>67</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>90</v>
       </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>68</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>55</v>
       </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>69</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>73</v>
@@ -3720,389 +3720,389 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>92</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" t="s">
-        <v>93</v>
       </c>
       <c r="C54" t="s">
         <v>101</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" t="s">
         <v>104</v>
       </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>94</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>72</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>108</v>
       </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>95</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>95</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>97</v>
       </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>96</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>96</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" t="s">
-        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>105</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
         <v>107</v>
       </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>98</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>98</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>97</v>
       </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>99</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>101</v>
       </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>100</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>100</v>
-      </c>
-      <c r="C61" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" t="s">
-        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>105</v>
       </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" t="s">
         <v>106</v>
       </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>102</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>102</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>102</v>
       </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>103</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>103</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>101</v>
       </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>104</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>104</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>104</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>102</v>
       </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>109</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>109</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>115</v>
       </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>110</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>110</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>135</v>
       </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>111</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>111</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>114</v>
       </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>112</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>112</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>115</v>
       </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>113</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>113</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>135</v>
       </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>114</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>114</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>115</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>111</v>
       </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>115</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>115</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>136</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>137</v>
       </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>116</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>116</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>135</v>
       </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>117</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>117</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>118</v>
       </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>118</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>118</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>136</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>119</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>119</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>127</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>130</v>
       </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>120</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>120</v>
-      </c>
-      <c r="C77" t="s">
-        <v>136</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" t="s">
-        <v>121</v>
       </c>
       <c r="C78" t="s">
         <v>136</v>
@@ -4111,91 +4111,88 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>122</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>122</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>135</v>
       </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>123</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>123</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>126</v>
       </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>124</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>124</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>136</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>126</v>
       </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>125</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>125</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>127</v>
       </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>126</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>126</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>124</v>
-      </c>
-      <c r="D83" t="s">
-        <v>817</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" t="s">
-        <v>126</v>
       </c>
       <c r="D84" t="s">
         <v>816</v>
@@ -4204,85 +4201,88 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" t="s">
+        <v>815</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>128</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>136</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>75</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>804</v>
       </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>129</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>129</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>134</v>
       </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>130</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>130</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>139</v>
       </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>131</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>131</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>115</v>
       </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>132</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>132</v>
-      </c>
-      <c r="C89" t="s">
-        <v>136</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" t="s">
-        <v>133</v>
       </c>
       <c r="C90" t="s">
         <v>136</v>
@@ -4291,74 +4291,74 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>134</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>134</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>127</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>129</v>
       </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>135</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>135</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>115</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>138</v>
       </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>140</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>140</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-      <c r="G93" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>141</v>
-      </c>
-      <c r="B94" t="s">
-        <v>141</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -4367,12 +4367,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -4381,12 +4381,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -4395,12 +4395,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -4409,12 +4409,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -4423,164 +4423,164 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>376</v>
+        <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
       </c>
-      <c r="D100" t="s">
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>376</v>
+      </c>
+      <c r="B101" t="s">
+        <v>397</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
         <v>399</v>
       </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>377</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>377</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>380</v>
       </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>378</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>378</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>397</v>
       </c>
-      <c r="D102" t="s">
-        <v>815</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+      <c r="D103" t="s">
+        <v>814</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>379</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>379</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>378</v>
       </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>380</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>380</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>397</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>400</v>
       </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>381</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>381</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>380</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>384</v>
       </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>382</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>382</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>394</v>
       </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>383</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>383</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>397</v>
       </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>384</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>384</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>381</v>
       </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>385</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>385</v>
-      </c>
-      <c r="C109" t="s">
-        <v>397</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>386</v>
-      </c>
-      <c r="B110" t="s">
-        <v>386</v>
       </c>
       <c r="C110" t="s">
         <v>397</v>
@@ -4589,82 +4589,82 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>386</v>
+      </c>
+      <c r="B111" t="s">
+        <v>386</v>
+      </c>
+      <c r="C111" t="s">
+        <v>397</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>387</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>387</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>378</v>
       </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>388</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>388</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>397</v>
       </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>389</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>389</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>380</v>
       </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>390</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>390</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>398</v>
       </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>391</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>391</v>
-      </c>
-      <c r="C115" t="s">
-        <v>397</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
-        <v>392</v>
-      </c>
-      <c r="B116" t="s">
-        <v>392</v>
       </c>
       <c r="C116" t="s">
         <v>397</v>
@@ -4673,316 +4673,316 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>392</v>
+      </c>
+      <c r="B117" t="s">
+        <v>392</v>
+      </c>
+      <c r="C117" t="s">
+        <v>397</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>393</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>393</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>398</v>
       </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>394</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>394</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>380</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>382</v>
       </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>395</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>398</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>3</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>401</v>
       </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>396</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>396</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>378</v>
       </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>628</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>648</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>3</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>647</v>
       </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
+      <c r="G122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>629</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>629</v>
-      </c>
-      <c r="C122" t="s">
-        <v>646</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>630</v>
-      </c>
-      <c r="B123" t="s">
-        <v>630</v>
       </c>
       <c r="C123" t="s">
         <v>646</v>
       </c>
-      <c r="D123" t="s">
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>630</v>
+      </c>
+      <c r="B124" t="s">
+        <v>630</v>
+      </c>
+      <c r="C124" t="s">
+        <v>646</v>
+      </c>
+      <c r="D124" t="s">
         <v>631</v>
       </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>631</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>631</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>630</v>
       </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+      <c r="G125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>632</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>632</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>646</v>
       </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+      <c r="G126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>633</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>633</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>637</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>652</v>
       </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+      <c r="G127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>634</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>646</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>3</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>649</v>
       </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>635</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>635</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>641</v>
       </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+      <c r="G129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>636</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>636</v>
-      </c>
-      <c r="C129" t="s">
-        <v>646</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
-        <v>637</v>
-      </c>
-      <c r="B130" t="s">
-        <v>637</v>
       </c>
       <c r="C130" t="s">
         <v>646</v>
       </c>
-      <c r="D130" t="s">
+      <c r="G130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>637</v>
+      </c>
+      <c r="B131" t="s">
+        <v>637</v>
+      </c>
+      <c r="C131" t="s">
+        <v>646</v>
+      </c>
+      <c r="D131" t="s">
         <v>651</v>
       </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>638</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>638</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>648</v>
       </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>639</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>639</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>641</v>
       </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>640</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>640</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>637</v>
       </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
+      <c r="G134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>641</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>641</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>646</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>650</v>
       </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
+      <c r="G135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>642</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>642</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>648</v>
       </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>643</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>643</v>
-      </c>
-      <c r="C136" t="s">
-        <v>633</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
-        <v>644</v>
-      </c>
-      <c r="B137" t="s">
-        <v>644</v>
       </c>
       <c r="C137" t="s">
         <v>633</v>
@@ -4991,209 +4991,209 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>644</v>
+      </c>
+      <c r="B138" t="s">
+        <v>644</v>
+      </c>
+      <c r="C138" t="s">
+        <v>633</v>
+      </c>
+      <c r="G138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>645</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>645</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>646</v>
       </c>
-      <c r="G138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
+      <c r="G139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>653</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>653</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>658</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>663</v>
       </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
+      <c r="G140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>654</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>654</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>656</v>
       </c>
-      <c r="G140" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
+      <c r="G141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>655</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>655</v>
-      </c>
-      <c r="C141" t="s">
-        <v>666</v>
-      </c>
-      <c r="D141" t="s">
-        <v>667</v>
-      </c>
-      <c r="G141" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
-        <v>656</v>
-      </c>
-      <c r="B142" t="s">
-        <v>656</v>
       </c>
       <c r="C142" t="s">
         <v>666</v>
       </c>
       <c r="D142" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G142" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B143" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C143" t="s">
         <v>666</v>
       </c>
+      <c r="D143" t="s">
+        <v>668</v>
+      </c>
       <c r="G143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>657</v>
+      </c>
+      <c r="B144" t="s">
+        <v>657</v>
+      </c>
+      <c r="C144" t="s">
+        <v>666</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>658</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>658</v>
-      </c>
-      <c r="C144" t="s">
-        <v>655</v>
-      </c>
-      <c r="D144" t="s">
-        <v>653</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
-        <v>659</v>
-      </c>
-      <c r="B145" t="s">
-        <v>659</v>
       </c>
       <c r="C145" t="s">
         <v>655</v>
       </c>
+      <c r="D145" t="s">
+        <v>653</v>
+      </c>
       <c r="G145" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>659</v>
+      </c>
+      <c r="B146" t="s">
+        <v>659</v>
+      </c>
+      <c r="C146" t="s">
+        <v>655</v>
+      </c>
+      <c r="G146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>660</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>660</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>666</v>
       </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>661</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>661</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>656</v>
       </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>662</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>666</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>86</v>
       </c>
-      <c r="D148" t="s">
-        <v>814</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
+      <c r="D149" t="s">
+        <v>813</v>
+      </c>
+      <c r="G149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>663</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>663</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>653</v>
       </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
+      <c r="G150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>664</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>664</v>
-      </c>
-      <c r="C150" t="s">
-        <v>655</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
-        <v>665</v>
-      </c>
-      <c r="B151" t="s">
-        <v>665</v>
       </c>
       <c r="C151" t="s">
         <v>655</v>
@@ -5202,71 +5202,71 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>665</v>
+      </c>
+      <c r="B152" t="s">
+        <v>665</v>
+      </c>
+      <c r="C152" t="s">
+        <v>655</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>669</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>669</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>670</v>
       </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+      <c r="G153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>670</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>670</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>696</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D154" t="s">
         <v>699</v>
       </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+      <c r="G154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>671</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>671</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>670</v>
       </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>672</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>672</v>
-      </c>
-      <c r="C155" t="s">
-        <v>676</v>
-      </c>
-      <c r="G155" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
-        <v>673</v>
-      </c>
-      <c r="B156" t="s">
-        <v>673</v>
       </c>
       <c r="C156" t="s">
         <v>676</v>
@@ -5275,215 +5275,215 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>673</v>
+      </c>
+      <c r="B157" t="s">
+        <v>673</v>
+      </c>
+      <c r="C157" t="s">
+        <v>676</v>
+      </c>
+      <c r="G157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>674</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>674</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>670</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>675</v>
       </c>
-      <c r="G157" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
+      <c r="G158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>675</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>675</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>674</v>
       </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
+      <c r="G159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>676</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>676</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>670</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D160" t="s">
         <v>700</v>
       </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
+      <c r="G160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>677</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>677</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>694</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>681</v>
       </c>
-      <c r="G160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
+      <c r="G161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>678</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>678</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>676</v>
       </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
+      <c r="G162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>679</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>679</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>694</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>693</v>
       </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
+      <c r="G163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>680</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>680</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>682</v>
       </c>
-      <c r="G163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>681</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>681</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>677</v>
       </c>
-      <c r="G164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
+      <c r="G165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>682</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>682</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>688</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>701</v>
       </c>
-      <c r="G165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+      <c r="G166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>683</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>683</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>696</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>690</v>
       </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
+      <c r="G167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>684</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>696</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>77</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>698</v>
       </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>685</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>685</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>694</v>
       </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
+      <c r="G169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>686</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>686</v>
-      </c>
-      <c r="C169" t="s">
-        <v>696</v>
-      </c>
-      <c r="G169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>687</v>
-      </c>
-      <c r="B170" t="s">
-        <v>687</v>
       </c>
       <c r="C170" t="s">
         <v>696</v>
@@ -5492,127 +5492,141 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B171" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C171" t="s">
         <v>696</v>
       </c>
-      <c r="D171" t="s">
+      <c r="G171" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>688</v>
+      </c>
+      <c r="B172" t="s">
+        <v>688</v>
+      </c>
+      <c r="C172" t="s">
+        <v>696</v>
+      </c>
+      <c r="D172" t="s">
         <v>682</v>
       </c>
-      <c r="G171" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
+      <c r="G172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>689</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>689</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>670</v>
       </c>
-      <c r="G172" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
+      <c r="G173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>690</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>690</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>683</v>
       </c>
-      <c r="G173" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
+      <c r="G174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>691</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>691</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>676</v>
       </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
+      <c r="G175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>692</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>692</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>696</v>
       </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
+      <c r="G176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>693</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>693</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>679</v>
       </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
+      <c r="G177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>694</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>694</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>682</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>702</v>
       </c>
-      <c r="G177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
+      <c r="G178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>695</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>695</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>696</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G179" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G178">
+  <conditionalFormatting sqref="G2:G179">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
@@ -5634,16 +5648,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="5" width="18.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5677,7 +5691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5688,7 +5702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5705,7 +5719,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5719,7 +5733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>705</v>
       </c>
@@ -5733,7 +5747,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>706</v>
       </c>
@@ -5750,12 +5764,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>708</v>
       </c>
@@ -5766,7 +5780,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>709</v>
       </c>
@@ -5777,7 +5791,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>710</v>
       </c>
@@ -5791,12 +5805,12 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>712</v>
       </c>
@@ -5807,7 +5821,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>713</v>
       </c>
@@ -5818,7 +5832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>714</v>
       </c>
@@ -5835,12 +5849,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>716</v>
       </c>
@@ -5851,112 +5865,112 @@
         <v>740</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>738</v>
       </c>
@@ -5975,9 +5989,9 @@
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5997,7 +6011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6017,7 +6031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6031,7 +6045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6042,7 +6056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6056,7 +6070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6088,12 +6102,12 @@
       <selection activeCell="A180" sqref="A180:G400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6113,7 +6127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6133,7 +6147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -6144,7 +6158,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -6158,7 +6172,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -6172,7 +6186,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -6186,7 +6200,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -6200,7 +6214,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -6214,7 +6228,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -6225,7 +6239,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -6242,7 +6256,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -6259,7 +6273,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -6276,7 +6290,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -6287,7 +6301,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -6298,7 +6312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -6315,7 +6329,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -6326,7 +6340,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -6343,7 +6357,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -6354,7 +6368,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -6365,7 +6379,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -6376,7 +6390,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -6390,7 +6404,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -6401,7 +6415,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -6412,7 +6426,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -6423,7 +6437,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -6434,7 +6448,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -6445,7 +6459,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -6462,7 +6476,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -6479,7 +6493,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -6490,7 +6504,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -6507,7 +6521,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -6524,7 +6538,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -6541,7 +6555,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -6552,7 +6566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -6569,7 +6583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -6586,7 +6600,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -6597,7 +6611,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -6608,7 +6622,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -6619,7 +6633,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -6636,7 +6650,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -6653,7 +6667,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -6664,7 +6678,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -6678,7 +6692,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -6692,7 +6706,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -6706,7 +6720,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -6717,7 +6731,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>190</v>
       </c>
@@ -6734,7 +6748,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -6745,7 +6759,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -6756,7 +6770,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>193</v>
       </c>
@@ -6770,7 +6784,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -6781,7 +6795,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -6792,7 +6806,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>196</v>
       </c>
@@ -6809,7 +6823,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -6826,7 +6840,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -6843,7 +6857,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -6860,7 +6874,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>200</v>
       </c>
@@ -6877,7 +6891,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>201</v>
       </c>
@@ -6894,7 +6908,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -6911,7 +6925,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -6925,7 +6939,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>204</v>
       </c>
@@ -6936,7 +6950,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>205</v>
       </c>
@@ -6953,7 +6967,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>206</v>
       </c>
@@ -6964,7 +6978,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -6975,7 +6989,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -6992,7 +7006,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -7003,7 +7017,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>210</v>
       </c>
@@ -7020,7 +7034,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>211</v>
       </c>
@@ -7037,7 +7051,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -7054,7 +7068,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -7071,7 +7085,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -7082,7 +7096,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -7093,7 +7107,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>216</v>
       </c>
@@ -7104,7 +7118,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -7115,7 +7129,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -7126,7 +7140,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -7137,7 +7151,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>220</v>
       </c>
@@ -7148,7 +7162,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>221</v>
       </c>
@@ -7159,7 +7173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -7170,7 +7184,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>223</v>
       </c>
@@ -7181,7 +7195,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -7192,7 +7206,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -7209,7 +7223,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>226</v>
       </c>
@@ -7220,7 +7234,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>227</v>
       </c>
@@ -7231,7 +7245,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>228</v>
       </c>
@@ -7242,7 +7256,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>229</v>
       </c>
@@ -7253,7 +7267,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>230</v>
       </c>
@@ -7270,7 +7284,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>231</v>
       </c>
@@ -7281,7 +7295,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>232</v>
       </c>
@@ -7292,7 +7306,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -7303,7 +7317,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>234</v>
       </c>
@@ -7314,7 +7328,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>235</v>
       </c>
@@ -7325,7 +7339,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>236</v>
       </c>
@@ -7336,7 +7350,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>237</v>
       </c>
@@ -7353,7 +7367,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>238</v>
       </c>
@@ -7364,7 +7378,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>239</v>
       </c>
@@ -7381,7 +7395,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>240</v>
       </c>
@@ -7392,7 +7406,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>241</v>
       </c>
@@ -7403,7 +7417,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>242</v>
       </c>
@@ -7420,7 +7434,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>243</v>
       </c>
@@ -7431,7 +7445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>244</v>
       </c>
@@ -7448,7 +7462,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>245</v>
       </c>
@@ -7465,7 +7479,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>246</v>
       </c>
@@ -7476,7 +7490,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>247</v>
       </c>
@@ -7487,7 +7501,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -7504,7 +7518,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>249</v>
       </c>
@@ -7515,7 +7529,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -7526,7 +7540,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -7537,7 +7551,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>252</v>
       </c>
@@ -7548,7 +7562,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>253</v>
       </c>
@@ -7559,7 +7573,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>254</v>
       </c>
@@ -7570,7 +7584,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>255</v>
       </c>
@@ -7581,7 +7595,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>256</v>
       </c>
@@ -7598,7 +7612,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -7609,7 +7623,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>258</v>
       </c>
@@ -7620,7 +7634,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>259</v>
       </c>
@@ -7637,7 +7651,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>260</v>
       </c>
@@ -7648,7 +7662,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>261</v>
       </c>
@@ -7665,7 +7679,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>262</v>
       </c>
@@ -7676,7 +7690,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>263</v>
       </c>
@@ -7687,7 +7701,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>264</v>
       </c>
@@ -7698,7 +7712,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>265</v>
       </c>
@@ -7709,7 +7723,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>266</v>
       </c>
@@ -7720,7 +7734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>267</v>
       </c>
@@ -7731,7 +7745,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>268</v>
       </c>
@@ -7742,7 +7756,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>269</v>
       </c>
@@ -7753,7 +7767,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>270</v>
       </c>
@@ -7764,7 +7778,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>271</v>
       </c>
@@ -7775,7 +7789,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -7786,7 +7800,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>273</v>
       </c>
@@ -7797,7 +7811,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>274</v>
       </c>
@@ -7808,7 +7822,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>275</v>
       </c>
@@ -7819,7 +7833,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -7830,7 +7844,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>277</v>
       </c>
@@ -7841,7 +7855,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>278</v>
       </c>
@@ -7852,7 +7866,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>279</v>
       </c>
@@ -7863,7 +7877,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -7874,7 +7888,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -7885,7 +7899,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -7896,7 +7910,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>283</v>
       </c>
@@ -7907,7 +7921,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -7921,7 +7935,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -7935,7 +7949,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>286</v>
       </c>
@@ -7946,7 +7960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -7957,7 +7971,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>288</v>
       </c>
@@ -7968,7 +7982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -7979,7 +7993,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -7990,7 +8004,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -8001,7 +8015,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -8012,7 +8026,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -8026,7 +8040,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>294</v>
       </c>
@@ -8037,7 +8051,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>295</v>
       </c>
@@ -8051,7 +8065,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>296</v>
       </c>
@@ -8065,7 +8079,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>297</v>
       </c>
@@ -8079,7 +8093,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -8090,7 +8104,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>299</v>
       </c>
@@ -8101,7 +8115,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>300</v>
       </c>
@@ -8112,7 +8126,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>301</v>
       </c>
@@ -8123,7 +8137,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>302</v>
       </c>
@@ -8134,7 +8148,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>303</v>
       </c>
@@ -8148,7 +8162,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>304</v>
       </c>
@@ -8162,7 +8176,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>305</v>
       </c>
@@ -8176,7 +8190,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>306</v>
       </c>
@@ -8190,7 +8204,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>307</v>
       </c>
@@ -8204,7 +8218,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -8218,7 +8232,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>309</v>
       </c>
@@ -8232,7 +8246,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>310</v>
       </c>
@@ -8246,7 +8260,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>311</v>
       </c>
@@ -8260,7 +8274,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>312</v>
       </c>
@@ -8274,7 +8288,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>313</v>
       </c>
@@ -8288,7 +8302,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>314</v>
       </c>
@@ -8299,7 +8313,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>315</v>
       </c>
@@ -8313,7 +8327,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>316</v>
       </c>
@@ -8327,7 +8341,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>317</v>
       </c>
@@ -8344,7 +8358,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>318</v>
       </c>
@@ -8358,7 +8372,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>319</v>
       </c>
@@ -8372,7 +8386,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>320</v>
       </c>
@@ -8389,7 +8403,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>321</v>
       </c>
@@ -8400,7 +8414,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>322</v>
       </c>
@@ -8411,7 +8425,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>323</v>
       </c>
@@ -8425,7 +8439,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>402</v>
       </c>
@@ -8439,7 +8453,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>403</v>
       </c>
@@ -8453,7 +8467,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -8464,7 +8478,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>405</v>
       </c>
@@ -8478,7 +8492,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>406</v>
       </c>
@@ -8492,7 +8506,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>407</v>
       </c>
@@ -8506,7 +8520,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>408</v>
       </c>
@@ -8520,7 +8534,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>409</v>
       </c>
@@ -8534,7 +8548,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>410</v>
       </c>
@@ -8548,7 +8562,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>411</v>
       </c>
@@ -8559,7 +8573,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>412</v>
       </c>
@@ -8573,7 +8587,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>413</v>
       </c>
@@ -8587,7 +8601,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>414</v>
       </c>
@@ -8601,7 +8615,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>415</v>
       </c>
@@ -8615,7 +8629,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>416</v>
       </c>
@@ -8629,7 +8643,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>417</v>
       </c>
@@ -8643,7 +8657,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>418</v>
       </c>
@@ -8657,7 +8671,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>419</v>
       </c>
@@ -8668,7 +8682,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>420</v>
       </c>
@@ -8682,7 +8696,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -8696,7 +8710,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>422</v>
       </c>
@@ -8710,7 +8724,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>423</v>
       </c>
@@ -8724,7 +8738,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>424</v>
       </c>
@@ -8738,7 +8752,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>425</v>
       </c>
@@ -8749,7 +8763,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>426</v>
       </c>
@@ -8760,7 +8774,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>427</v>
       </c>
@@ -8774,7 +8788,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>428</v>
       </c>
@@ -8785,7 +8799,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>429</v>
       </c>
@@ -8802,7 +8816,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>430</v>
       </c>
@@ -8816,7 +8830,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>431</v>
       </c>
@@ -8833,7 +8847,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>432</v>
       </c>
@@ -8850,7 +8864,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>433</v>
       </c>
@@ -8861,7 +8875,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>434</v>
       </c>
@@ -8872,7 +8886,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>435</v>
       </c>
@@ -8883,7 +8897,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>436</v>
       </c>
@@ -8894,7 +8908,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>437</v>
       </c>
@@ -8905,7 +8919,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>438</v>
       </c>
@@ -8916,7 +8930,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>439</v>
       </c>
@@ -8927,7 +8941,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>440</v>
       </c>
@@ -8944,7 +8958,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>441</v>
       </c>
@@ -8955,7 +8969,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>442</v>
       </c>
@@ -8966,7 +8980,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>443</v>
       </c>
@@ -8977,7 +8991,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>444</v>
       </c>
@@ -8988,7 +9002,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>445</v>
       </c>
@@ -8999,7 +9013,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>446</v>
       </c>
@@ -9010,7 +9024,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>447</v>
       </c>
@@ -9021,7 +9035,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -9032,7 +9046,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>449</v>
       </c>
@@ -9043,7 +9057,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>450</v>
       </c>
@@ -9054,7 +9068,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>451</v>
       </c>
@@ -9065,7 +9079,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>452</v>
       </c>
@@ -9076,7 +9090,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>453</v>
       </c>
@@ -9087,7 +9101,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>454</v>
       </c>
@@ -9098,7 +9112,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>455</v>
       </c>
@@ -9109,7 +9123,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>456</v>
       </c>
@@ -9120,7 +9134,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>457</v>
       </c>
@@ -9137,7 +9151,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>458</v>
       </c>
@@ -9148,7 +9162,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>459</v>
       </c>
@@ -9159,7 +9173,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>460</v>
       </c>
@@ -9170,7 +9184,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>461</v>
       </c>
@@ -9181,7 +9195,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>462</v>
       </c>
@@ -9192,7 +9206,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>463</v>
       </c>
@@ -9203,7 +9217,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>464</v>
       </c>
@@ -9214,7 +9228,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>465</v>
       </c>
@@ -9228,7 +9242,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>466</v>
       </c>
@@ -9239,7 +9253,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>467</v>
       </c>
@@ -9256,7 +9270,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>468</v>
       </c>
@@ -9267,7 +9281,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>469</v>
       </c>
@@ -9275,7 +9289,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>470</v>
       </c>
@@ -9286,7 +9300,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>471</v>
       </c>
@@ -9297,7 +9311,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>472</v>
       </c>
@@ -9311,7 +9325,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>473</v>
       </c>
@@ -9322,7 +9336,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>474</v>
       </c>
@@ -9336,7 +9350,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>475</v>
       </c>
@@ -9347,7 +9361,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>476</v>
       </c>
@@ -9358,7 +9372,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>477</v>
       </c>
@@ -9369,7 +9383,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>478</v>
       </c>
@@ -9380,7 +9394,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>479</v>
       </c>
@@ -9391,7 +9405,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>480</v>
       </c>
@@ -9405,7 +9419,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>481</v>
       </c>
@@ -9419,7 +9433,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>482</v>
       </c>
@@ -9430,7 +9444,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>483</v>
       </c>
@@ -9441,7 +9455,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>484</v>
       </c>
@@ -9452,7 +9466,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>485</v>
       </c>
@@ -9463,7 +9477,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>486</v>
       </c>
@@ -9474,7 +9488,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>487</v>
       </c>
@@ -9491,7 +9505,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>488</v>
       </c>
@@ -9508,7 +9522,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>489</v>
       </c>
@@ -9525,7 +9539,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>490</v>
       </c>
@@ -9542,7 +9556,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>491</v>
       </c>
@@ -9553,7 +9567,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>492</v>
       </c>
@@ -9564,7 +9578,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>493</v>
       </c>
@@ -9575,7 +9589,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>494</v>
       </c>
@@ -9586,7 +9600,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>495</v>
       </c>
@@ -9597,7 +9611,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>496</v>
       </c>
@@ -9614,7 +9628,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>497</v>
       </c>
@@ -9625,7 +9639,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>498</v>
       </c>
@@ -9636,7 +9650,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>499</v>
       </c>
@@ -9647,7 +9661,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>500</v>
       </c>
@@ -9658,7 +9672,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>501</v>
       </c>
@@ -9669,7 +9683,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>502</v>
       </c>
@@ -9680,7 +9694,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>503</v>
       </c>
@@ -9691,7 +9705,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>504</v>
       </c>
@@ -9702,7 +9716,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>505</v>
       </c>
@@ -9713,7 +9727,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>506</v>
       </c>
@@ -9724,7 +9738,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>507</v>
       </c>
@@ -9735,7 +9749,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>508</v>
       </c>
@@ -9746,7 +9760,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>509</v>
       </c>
@@ -9757,7 +9771,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>510</v>
       </c>
@@ -9768,7 +9782,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>511</v>
       </c>
@@ -9779,7 +9793,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>512</v>
       </c>
@@ -9790,7 +9804,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>513</v>
       </c>
@@ -9804,7 +9818,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>514</v>
       </c>
@@ -9815,7 +9829,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>515</v>
       </c>
@@ -9826,7 +9840,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>516</v>
       </c>
@@ -9837,7 +9851,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>517</v>
       </c>
@@ -9851,7 +9865,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>518</v>
       </c>
@@ -9862,7 +9876,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>519</v>
       </c>
@@ -9873,7 +9887,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>520</v>
       </c>
@@ -9884,7 +9898,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>521</v>
       </c>
@@ -9901,7 +9915,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>522</v>
       </c>
@@ -9912,7 +9926,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>523</v>
       </c>
@@ -9926,7 +9940,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>524</v>
       </c>
@@ -9937,7 +9951,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>525</v>
       </c>
@@ -9948,7 +9962,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>526</v>
       </c>
@@ -9959,7 +9973,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>527</v>
       </c>
@@ -9976,7 +9990,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>528</v>
       </c>
@@ -9990,7 +10004,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>529</v>
       </c>
@@ -10004,7 +10018,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>530</v>
       </c>
@@ -10015,7 +10029,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>531</v>
       </c>
@@ -10029,7 +10043,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>532</v>
       </c>
@@ -10040,7 +10054,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>533</v>
       </c>
@@ -10057,7 +10071,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>534</v>
       </c>
@@ -10074,7 +10088,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>535</v>
       </c>
@@ -10091,7 +10105,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>536</v>
       </c>
@@ -10102,7 +10116,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>537</v>
       </c>
@@ -10113,7 +10127,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>538</v>
       </c>
@@ -10124,7 +10138,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>539</v>
       </c>
@@ -10141,7 +10155,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>540</v>
       </c>
@@ -10152,7 +10166,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>541</v>
       </c>
@@ -10163,7 +10177,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>542</v>
       </c>
@@ -10177,7 +10191,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>543</v>
       </c>
@@ -10188,7 +10202,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>544</v>
       </c>
@@ -10205,7 +10219,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>545</v>
       </c>
@@ -10222,7 +10236,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>546</v>
       </c>
@@ -10233,7 +10247,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>547</v>
       </c>
@@ -10244,7 +10258,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>548</v>
       </c>
@@ -10255,7 +10269,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>549</v>
       </c>
@@ -10269,7 +10283,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>550</v>
       </c>
@@ -10280,7 +10294,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>551</v>
       </c>
@@ -10291,7 +10305,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>552</v>
       </c>
@@ -10308,7 +10322,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>553</v>
       </c>
@@ -10319,7 +10333,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>554</v>
       </c>
@@ -10330,7 +10344,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>555</v>
       </c>
@@ -10341,7 +10355,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>556</v>
       </c>
@@ -10352,7 +10366,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>557</v>
       </c>
@@ -10369,7 +10383,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>558</v>
       </c>
@@ -10386,7 +10400,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>559</v>
       </c>
@@ -10397,7 +10411,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>560</v>
       </c>
@@ -10408,7 +10422,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>561</v>
       </c>
@@ -10419,7 +10433,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>562</v>
       </c>
@@ -10430,7 +10444,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>563</v>
       </c>
@@ -10441,7 +10455,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>564</v>
       </c>
@@ -10452,7 +10466,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>565</v>
       </c>
@@ -10466,7 +10480,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>566</v>
       </c>
@@ -10477,7 +10491,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>567</v>
       </c>
@@ -10488,7 +10502,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>568</v>
       </c>
@@ -10505,7 +10519,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>569</v>
       </c>
@@ -10516,7 +10530,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>570</v>
       </c>
@@ -10527,7 +10541,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>571</v>
       </c>
@@ -10544,7 +10558,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>572</v>
       </c>
@@ -10555,7 +10569,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>573</v>
       </c>
@@ -10569,7 +10583,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>574</v>
       </c>
@@ -10580,7 +10594,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>575</v>
       </c>
@@ -10591,7 +10605,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>576</v>
       </c>
@@ -10602,7 +10616,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>577</v>
       </c>
@@ -10613,7 +10627,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>578</v>
       </c>
@@ -10627,7 +10641,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>579</v>
       </c>
@@ -10638,7 +10652,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>580</v>
       </c>
@@ -10649,7 +10663,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>581</v>
       </c>
@@ -10663,7 +10677,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>582</v>
       </c>
@@ -10674,7 +10688,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>583</v>
       </c>
@@ -10691,7 +10705,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>584</v>
       </c>
@@ -10702,7 +10716,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>585</v>
       </c>
@@ -10713,7 +10727,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>586</v>
       </c>
@@ -10724,7 +10738,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>587</v>
       </c>
@@ -10735,7 +10749,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>588</v>
       </c>
@@ -10746,7 +10760,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>589</v>
       </c>
@@ -10760,7 +10774,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>590</v>
       </c>
@@ -10771,7 +10785,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>591</v>
       </c>
@@ -10782,7 +10796,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>592</v>
       </c>
@@ -10793,7 +10807,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>593</v>
       </c>
@@ -10804,7 +10818,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>594</v>
       </c>
@@ -10818,7 +10832,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>595</v>
       </c>
@@ -10829,7 +10843,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>596</v>
       </c>
@@ -10846,7 +10860,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>597</v>
       </c>
@@ -10860,7 +10874,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>598</v>
       </c>
@@ -10874,7 +10888,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>599</v>
       </c>
@@ -10885,7 +10899,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>600</v>
       </c>
@@ -10902,7 +10916,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>601</v>
       </c>
@@ -10913,7 +10927,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>602</v>
       </c>
@@ -10924,7 +10938,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>603</v>
       </c>
@@ -10935,7 +10949,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>604</v>
       </c>
@@ -10946,7 +10960,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>605</v>
       </c>
@@ -10963,7 +10977,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>606</v>
       </c>
@@ -10980,7 +10994,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>607</v>
       </c>
@@ -10997,7 +11011,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>608</v>
       </c>
@@ -11008,7 +11022,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>609</v>
       </c>
@@ -11019,7 +11033,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>610</v>
       </c>
@@ -11033,7 +11047,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>611</v>
       </c>
@@ -11047,7 +11061,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>612</v>
       </c>
@@ -11058,7 +11072,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>613</v>
       </c>
@@ -11072,7 +11086,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>614</v>
       </c>
@@ -11083,7 +11097,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>615</v>
       </c>
@@ -11094,7 +11108,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>616</v>
       </c>
@@ -11108,7 +11122,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>617</v>
       </c>
@@ -11119,7 +11133,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>618</v>
       </c>
@@ -11133,7 +11147,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>619</v>
       </c>
@@ -11150,7 +11164,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>620</v>
       </c>
@@ -11161,7 +11175,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>621</v>
       </c>
@@ -11172,7 +11186,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>622</v>
       </c>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\RemoteGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF82B1-AC01-4321-B1B4-3217151E35CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879CCFA-F894-48DD-B931-D55ECF9DB516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -2896,7 +2896,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FlowTracker.xlsx
+++ b/FlowTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassidy.Northway\RemoteGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbnor\Documents\Full Body Flow Model Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879CCFA-F894-48DD-B931-D55ECF9DB516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E5DDC-9FEE-41AF-B490-AD3E7A8539B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arteries" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="818">
   <si>
     <t>Filename</t>
   </si>
@@ -2481,10 +2481,7 @@
     <t>arteries_lleg21, arteries_lleg16</t>
   </si>
   <si>
-    <t>coronaries</t>
-  </si>
-  <si>
-    <t>coronaries, right_subclavian_artery, left_external_iliac_artery,splenic_artery, superior_mesenteric_artery, left_common_cartoid_artery, left_subclavian_artery, inferior_mesenteric_artery, right_external_iliac_artery, arteries_lumb0, arteries_lumb1, arteries_lumb2, arteries_lumb3, arteries_lumb4, arteries_lumb5, arteries_lumb6, left_superior_renal_artery, left_inferior_renal_artery, right_superior_renal_artery, right_inferior_renal_artery</t>
+    <t xml:space="preserve"> right_subclavian_artery, left_external_iliac_artery,splenic_artery, superior_mesenteric_artery, left_common_cartoid_artery, left_subclavian_artery, inferior_mesenteric_artery, right_external_iliac_artery, arteries_lumb0, arteries_lumb1, arteries_lumb2, arteries_lumb3, arteries_lumb4, arteries_lumb5, arteries_lumb6, left_superior_renal_artery, left_inferior_renal_artery, right_superior_renal_artery, right_inferior_renal_artery</t>
   </si>
 </sst>
 </file>
@@ -2596,9 +2593,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2636,7 +2633,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2742,7 +2739,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2884,7 +2881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2892,26 +2889,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.265625" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="56.3984375" customWidth="1"/>
+    <col min="4" max="4" width="67.59765625" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2939,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E2" t="s">
         <v>697</v>
@@ -2951,40 +2948,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>817</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>817</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>811</v>
-      </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -2993,204 +2993,204 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>805</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>810</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>806</v>
+      </c>
+      <c r="E14" t="s">
+        <v>666</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>810</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>806</v>
-      </c>
-      <c r="E15" t="s">
-        <v>666</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -3199,519 +3199,519 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>803</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>803</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
         <v>86</v>
       </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
       </c>
-      <c r="D39" t="s">
-        <v>88</v>
-      </c>
       <c r="G39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>86</v>
       </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
       <c r="G40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>809</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>812</v>
+      </c>
+      <c r="E47" t="s">
+        <v>807</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
         <v>55</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>809</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
         <v>73</v>
       </c>
-      <c r="D45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" t="s">
-        <v>812</v>
-      </c>
-      <c r="E48" t="s">
-        <v>807</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>55</v>
-      </c>
       <c r="G51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>73</v>
@@ -3720,389 +3720,389 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
         <v>101</v>
       </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
       <c r="G54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
         <v>105</v>
       </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" t="s">
-        <v>108</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>97</v>
       </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>96</v>
-      </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>105</v>
       </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
       <c r="G58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
         <v>97</v>
       </c>
-      <c r="B59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
         <v>105</v>
       </c>
-      <c r="D59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>101</v>
       </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>100</v>
-      </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>105</v>
       </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
       <c r="G62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s">
         <v>101</v>
       </c>
-      <c r="B63" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D63" t="s">
-        <v>106</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
         <v>102</v>
       </c>
-      <c r="B64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" t="s">
-        <v>101</v>
-      </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
         <v>115</v>
       </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" t="s">
         <v>135</v>
       </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" t="s">
         <v>111</v>
       </c>
-      <c r="B69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
         <v>115</v>
       </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" t="s">
         <v>135</v>
       </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" t="s">
-        <v>111</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" t="s">
         <v>136</v>
       </c>
-      <c r="D73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" t="s">
-        <v>135</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D75" t="s">
         <v>117</v>
       </c>
-      <c r="B75" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" t="s">
-        <v>118</v>
-      </c>
       <c r="G75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" t="s">
+        <v>130</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" t="s">
         <v>136</v>
       </c>
-      <c r="D76" t="s">
-        <v>117</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" t="s">
-        <v>130</v>
-      </c>
       <c r="G77" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
         <v>136</v>
@@ -4111,178 +4111,178 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" t="s">
         <v>136</v>
       </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>122</v>
-      </c>
-      <c r="B80" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" t="s">
-        <v>135</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>126</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s">
         <v>124</v>
       </c>
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D83" t="s">
+        <v>816</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" t="s">
+        <v>815</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" t="s">
         <v>136</v>
       </c>
-      <c r="D82" t="s">
-        <v>126</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" t="s">
-        <v>125</v>
-      </c>
-      <c r="C83" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" t="s">
-        <v>816</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>127</v>
-      </c>
-      <c r="B85" t="s">
-        <v>127</v>
-      </c>
       <c r="C85" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D85" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" t="s">
         <v>136</v>
       </c>
-      <c r="C86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" t="s">
-        <v>804</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" t="s">
-        <v>129</v>
-      </c>
-      <c r="C87" t="s">
-        <v>134</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" t="s">
-        <v>139</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>131</v>
-      </c>
-      <c r="B89" t="s">
-        <v>131</v>
-      </c>
-      <c r="C89" t="s">
-        <v>115</v>
-      </c>
       <c r="G89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
         <v>136</v>
@@ -4291,74 +4291,74 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="D91" t="s">
+        <v>129</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -4367,12 +4367,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -4381,12 +4381,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -4395,12 +4395,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -4409,12 +4409,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -4423,164 +4423,164 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>376</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
       </c>
+      <c r="D100" t="s">
+        <v>399</v>
+      </c>
       <c r="G100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B101" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" t="s">
+        <v>380</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>378</v>
+      </c>
+      <c r="B102" t="s">
+        <v>378</v>
+      </c>
+      <c r="C102" t="s">
         <v>397</v>
       </c>
-      <c r="C101" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" t="s">
-        <v>399</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>377</v>
-      </c>
-      <c r="B102" t="s">
-        <v>377</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>814</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>379</v>
+      </c>
+      <c r="B103" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" t="s">
+        <v>378</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>380</v>
       </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>378</v>
-      </c>
-      <c r="B103" t="s">
-        <v>378</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>380</v>
+      </c>
+      <c r="C104" t="s">
         <v>397</v>
       </c>
-      <c r="D103" t="s">
-        <v>814</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>379</v>
-      </c>
-      <c r="B104" t="s">
-        <v>379</v>
-      </c>
-      <c r="C104" t="s">
-        <v>378</v>
+      <c r="D104" t="s">
+        <v>400</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
+        <v>381</v>
+      </c>
+      <c r="B105" t="s">
+        <v>381</v>
+      </c>
+      <c r="C105" t="s">
         <v>380</v>
       </c>
-      <c r="B105" t="s">
-        <v>380</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>384</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" t="s">
+        <v>382</v>
+      </c>
+      <c r="C106" t="s">
+        <v>394</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>383</v>
+      </c>
+      <c r="B107" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" t="s">
         <v>397</v>
       </c>
-      <c r="D105" t="s">
-        <v>400</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>384</v>
+      </c>
+      <c r="B108" t="s">
+        <v>384</v>
+      </c>
+      <c r="C108" t="s">
         <v>381</v>
       </c>
-      <c r="B106" t="s">
-        <v>381</v>
-      </c>
-      <c r="C106" t="s">
-        <v>380</v>
-      </c>
-      <c r="D106" t="s">
-        <v>384</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>382</v>
-      </c>
-      <c r="B107" t="s">
-        <v>382</v>
-      </c>
-      <c r="C107" t="s">
-        <v>394</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>383</v>
-      </c>
-      <c r="B108" t="s">
-        <v>383</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>385</v>
+      </c>
+      <c r="B109" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" t="s">
         <v>397</v>
       </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>384</v>
-      </c>
-      <c r="B109" t="s">
-        <v>384</v>
-      </c>
-      <c r="C109" t="s">
-        <v>381</v>
-      </c>
       <c r="G109" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C110" t="s">
         <v>397</v>
@@ -4589,82 +4589,82 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B111" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C111" t="s">
+        <v>378</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>388</v>
+      </c>
+      <c r="B112" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" t="s">
         <v>397</v>
       </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>387</v>
-      </c>
-      <c r="B112" t="s">
-        <v>387</v>
-      </c>
-      <c r="C112" t="s">
-        <v>378</v>
-      </c>
       <c r="G112" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B113" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C113" t="s">
+        <v>380</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>390</v>
+      </c>
+      <c r="B114" t="s">
+        <v>390</v>
+      </c>
+      <c r="C114" t="s">
+        <v>398</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>391</v>
+      </c>
+      <c r="B115" t="s">
+        <v>391</v>
+      </c>
+      <c r="C115" t="s">
         <v>397</v>
       </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>389</v>
-      </c>
-      <c r="B114" t="s">
-        <v>389</v>
-      </c>
-      <c r="C114" t="s">
-        <v>380</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>390</v>
-      </c>
-      <c r="B115" t="s">
-        <v>390</v>
-      </c>
-      <c r="C115" t="s">
-        <v>398</v>
-      </c>
       <c r="G115" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B116" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C116" t="s">
         <v>397</v>
@@ -4673,316 +4673,316 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C118" t="s">
+        <v>380</v>
+      </c>
+      <c r="D118" t="s">
+        <v>382</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>395</v>
+      </c>
+      <c r="B119" t="s">
         <v>398</v>
       </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>394</v>
-      </c>
-      <c r="B119" t="s">
-        <v>394</v>
-      </c>
       <c r="C119" t="s">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="G119" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B120" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
+        <v>378</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>628</v>
+      </c>
+      <c r="B121" t="s">
+        <v>648</v>
+      </c>
+      <c r="C121" t="s">
         <v>3</v>
       </c>
-      <c r="D120" t="s">
-        <v>401</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>396</v>
-      </c>
-      <c r="B121" t="s">
-        <v>396</v>
-      </c>
-      <c r="C121" t="s">
-        <v>378</v>
+      <c r="D121" t="s">
+        <v>647</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B122" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G122" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B123" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C123" t="s">
         <v>646</v>
       </c>
+      <c r="D123" t="s">
+        <v>631</v>
+      </c>
       <c r="G123" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
+        <v>631</v>
+      </c>
+      <c r="B124" t="s">
+        <v>631</v>
+      </c>
+      <c r="C124" t="s">
         <v>630</v>
       </c>
-      <c r="B124" t="s">
-        <v>630</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>632</v>
+      </c>
+      <c r="B125" t="s">
+        <v>632</v>
+      </c>
+      <c r="C125" t="s">
         <v>646</v>
       </c>
-      <c r="D124" t="s">
-        <v>631</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>631</v>
-      </c>
-      <c r="B125" t="s">
-        <v>631</v>
-      </c>
-      <c r="C125" t="s">
-        <v>630</v>
-      </c>
       <c r="G125" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B126" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C126" t="s">
+        <v>637</v>
+      </c>
+      <c r="D126" t="s">
+        <v>652</v>
+      </c>
+      <c r="G126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>634</v>
+      </c>
+      <c r="B127" t="s">
         <v>646</v>
       </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>633</v>
-      </c>
-      <c r="B127" t="s">
-        <v>633</v>
-      </c>
       <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>649</v>
+      </c>
+      <c r="G127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>635</v>
+      </c>
+      <c r="B128" t="s">
+        <v>635</v>
+      </c>
+      <c r="C128" t="s">
+        <v>641</v>
+      </c>
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>636</v>
+      </c>
+      <c r="B129" t="s">
+        <v>636</v>
+      </c>
+      <c r="C129" t="s">
+        <v>646</v>
+      </c>
+      <c r="G129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
         <v>637</v>
       </c>
-      <c r="D127" t="s">
-        <v>652</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>634</v>
-      </c>
-      <c r="B128" t="s">
-        <v>646</v>
-      </c>
-      <c r="C128" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" t="s">
-        <v>649</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>635</v>
-      </c>
-      <c r="B129" t="s">
-        <v>635</v>
-      </c>
-      <c r="C129" t="s">
-        <v>641</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>636</v>
-      </c>
       <c r="B130" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C130" t="s">
         <v>646</v>
       </c>
+      <c r="D130" t="s">
+        <v>651</v>
+      </c>
       <c r="G130" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
+        <v>638</v>
+      </c>
+      <c r="B131" t="s">
+        <v>638</v>
+      </c>
+      <c r="C131" t="s">
+        <v>648</v>
+      </c>
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>639</v>
+      </c>
+      <c r="B132" t="s">
+        <v>639</v>
+      </c>
+      <c r="C132" t="s">
+        <v>641</v>
+      </c>
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>640</v>
+      </c>
+      <c r="B133" t="s">
+        <v>640</v>
+      </c>
+      <c r="C133" t="s">
         <v>637</v>
       </c>
-      <c r="B131" t="s">
-        <v>637</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>641</v>
+      </c>
+      <c r="B134" t="s">
+        <v>641</v>
+      </c>
+      <c r="C134" t="s">
         <v>646</v>
       </c>
-      <c r="D131" t="s">
-        <v>651</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>638</v>
-      </c>
-      <c r="B132" t="s">
-        <v>638</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="D134" t="s">
+        <v>650</v>
+      </c>
+      <c r="G134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>642</v>
+      </c>
+      <c r="B135" t="s">
+        <v>642</v>
+      </c>
+      <c r="C135" t="s">
         <v>648</v>
       </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>639</v>
-      </c>
-      <c r="B133" t="s">
-        <v>639</v>
-      </c>
-      <c r="C133" t="s">
-        <v>641</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>640</v>
-      </c>
-      <c r="B134" t="s">
-        <v>640</v>
-      </c>
-      <c r="C134" t="s">
-        <v>637</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>641</v>
-      </c>
-      <c r="B135" t="s">
-        <v>641</v>
-      </c>
-      <c r="C135" t="s">
-        <v>646</v>
-      </c>
-      <c r="D135" t="s">
-        <v>650</v>
-      </c>
       <c r="G135" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B136" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C136" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G136" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B137" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C137" t="s">
         <v>633</v>
@@ -4991,209 +4991,209 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B138" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C138" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="G138" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B139" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="C139" t="s">
-        <v>646</v>
+        <v>658</v>
+      </c>
+      <c r="D139" t="s">
+        <v>663</v>
       </c>
       <c r="G139" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B140" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C140" t="s">
-        <v>658</v>
-      </c>
-      <c r="D140" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="G140" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B141" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C141" t="s">
+        <v>666</v>
+      </c>
+      <c r="D141" t="s">
+        <v>667</v>
+      </c>
+      <c r="G141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
         <v>656</v>
       </c>
-      <c r="G141" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>655</v>
-      </c>
       <c r="B142" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C142" t="s">
         <v>666</v>
       </c>
       <c r="D142" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G142" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B143" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C143" t="s">
         <v>666</v>
       </c>
-      <c r="D143" t="s">
-        <v>668</v>
-      </c>
       <c r="G143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B144" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C144" t="s">
-        <v>666</v>
+        <v>655</v>
+      </c>
+      <c r="D144" t="s">
+        <v>653</v>
       </c>
       <c r="G144" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B145" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C145" t="s">
         <v>655</v>
       </c>
-      <c r="D145" t="s">
+      <c r="G145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>660</v>
+      </c>
+      <c r="B146" t="s">
+        <v>660</v>
+      </c>
+      <c r="C146" t="s">
+        <v>666</v>
+      </c>
+      <c r="G146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>661</v>
+      </c>
+      <c r="B147" t="s">
+        <v>661</v>
+      </c>
+      <c r="C147" t="s">
+        <v>656</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>662</v>
+      </c>
+      <c r="B148" t="s">
+        <v>666</v>
+      </c>
+      <c r="C148" t="s">
+        <v>86</v>
+      </c>
+      <c r="D148" t="s">
+        <v>813</v>
+      </c>
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>663</v>
+      </c>
+      <c r="B149" t="s">
+        <v>663</v>
+      </c>
+      <c r="C149" t="s">
         <v>653</v>
       </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>659</v>
-      </c>
-      <c r="B146" t="s">
-        <v>659</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="G149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>664</v>
+      </c>
+      <c r="B150" t="s">
+        <v>664</v>
+      </c>
+      <c r="C150" t="s">
         <v>655</v>
       </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>660</v>
-      </c>
-      <c r="B147" t="s">
-        <v>660</v>
-      </c>
-      <c r="C147" t="s">
-        <v>666</v>
-      </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>661</v>
-      </c>
-      <c r="B148" t="s">
-        <v>661</v>
-      </c>
-      <c r="C148" t="s">
-        <v>656</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>662</v>
-      </c>
-      <c r="B149" t="s">
-        <v>666</v>
-      </c>
-      <c r="C149" t="s">
-        <v>86</v>
-      </c>
-      <c r="D149" t="s">
-        <v>813</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>663</v>
-      </c>
-      <c r="B150" t="s">
-        <v>663</v>
-      </c>
-      <c r="C150" t="s">
-        <v>653</v>
-      </c>
       <c r="G150" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B151" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C151" t="s">
         <v>655</v>
@@ -5202,71 +5202,71 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B152" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C152" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="G152" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B153" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C153" t="s">
+        <v>696</v>
+      </c>
+      <c r="D153" t="s">
+        <v>699</v>
+      </c>
+      <c r="G153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>671</v>
+      </c>
+      <c r="B154" t="s">
+        <v>671</v>
+      </c>
+      <c r="C154" t="s">
         <v>670</v>
       </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>670</v>
-      </c>
-      <c r="B154" t="s">
-        <v>670</v>
-      </c>
-      <c r="C154" t="s">
-        <v>696</v>
-      </c>
-      <c r="D154" t="s">
-        <v>699</v>
-      </c>
       <c r="G154" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B155" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C155" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="G155" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B156" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C156" t="s">
         <v>676</v>
@@ -5275,215 +5275,215 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B157" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C157" t="s">
+        <v>670</v>
+      </c>
+      <c r="D157" t="s">
+        <v>675</v>
+      </c>
+      <c r="G157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>675</v>
+      </c>
+      <c r="B158" t="s">
+        <v>675</v>
+      </c>
+      <c r="C158" t="s">
+        <v>674</v>
+      </c>
+      <c r="G158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
         <v>676</v>
       </c>
-      <c r="G157" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>674</v>
-      </c>
-      <c r="B158" t="s">
-        <v>674</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>676</v>
+      </c>
+      <c r="C159" t="s">
         <v>670</v>
       </c>
-      <c r="D158" t="s">
-        <v>675</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>675</v>
-      </c>
-      <c r="B159" t="s">
-        <v>675</v>
-      </c>
-      <c r="C159" t="s">
-        <v>674</v>
+      <c r="D159" t="s">
+        <v>700</v>
       </c>
       <c r="G159" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
+        <v>677</v>
+      </c>
+      <c r="B160" t="s">
+        <v>677</v>
+      </c>
+      <c r="C160" t="s">
+        <v>694</v>
+      </c>
+      <c r="D160" t="s">
+        <v>681</v>
+      </c>
+      <c r="G160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>678</v>
+      </c>
+      <c r="B161" t="s">
+        <v>678</v>
+      </c>
+      <c r="C161" t="s">
         <v>676</v>
       </c>
-      <c r="B160" t="s">
-        <v>676</v>
-      </c>
-      <c r="C160" t="s">
-        <v>670</v>
-      </c>
-      <c r="D160" t="s">
-        <v>700</v>
-      </c>
-      <c r="G160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="G161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>679</v>
+      </c>
+      <c r="B162" t="s">
+        <v>679</v>
+      </c>
+      <c r="C162" t="s">
+        <v>694</v>
+      </c>
+      <c r="D162" t="s">
+        <v>693</v>
+      </c>
+      <c r="G162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>680</v>
+      </c>
+      <c r="B163" t="s">
+        <v>680</v>
+      </c>
+      <c r="C163" t="s">
+        <v>682</v>
+      </c>
+      <c r="G163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>681</v>
+      </c>
+      <c r="B164" t="s">
+        <v>681</v>
+      </c>
+      <c r="C164" t="s">
         <v>677</v>
       </c>
-      <c r="B161" t="s">
-        <v>677</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>682</v>
+      </c>
+      <c r="B165" t="s">
+        <v>682</v>
+      </c>
+      <c r="C165" t="s">
+        <v>688</v>
+      </c>
+      <c r="D165" t="s">
+        <v>701</v>
+      </c>
+      <c r="G165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>683</v>
+      </c>
+      <c r="B166" t="s">
+        <v>683</v>
+      </c>
+      <c r="C166" t="s">
+        <v>696</v>
+      </c>
+      <c r="D166" t="s">
+        <v>690</v>
+      </c>
+      <c r="G166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>684</v>
+      </c>
+      <c r="B167" t="s">
+        <v>696</v>
+      </c>
+      <c r="C167" t="s">
+        <v>77</v>
+      </c>
+      <c r="D167" t="s">
+        <v>698</v>
+      </c>
+      <c r="G167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>685</v>
+      </c>
+      <c r="B168" t="s">
+        <v>685</v>
+      </c>
+      <c r="C168" t="s">
         <v>694</v>
       </c>
-      <c r="D161" t="s">
-        <v>681</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>678</v>
-      </c>
-      <c r="B162" t="s">
-        <v>678</v>
-      </c>
-      <c r="C162" t="s">
-        <v>676</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>679</v>
-      </c>
-      <c r="B163" t="s">
-        <v>679</v>
-      </c>
-      <c r="C163" t="s">
-        <v>694</v>
-      </c>
-      <c r="D163" t="s">
-        <v>693</v>
-      </c>
-      <c r="G163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>680</v>
-      </c>
-      <c r="B164" t="s">
-        <v>680</v>
-      </c>
-      <c r="C164" t="s">
-        <v>682</v>
-      </c>
-      <c r="G164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>681</v>
-      </c>
-      <c r="B165" t="s">
-        <v>681</v>
-      </c>
-      <c r="C165" t="s">
-        <v>677</v>
-      </c>
-      <c r="G165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>682</v>
-      </c>
-      <c r="B166" t="s">
-        <v>682</v>
-      </c>
-      <c r="C166" t="s">
-        <v>688</v>
-      </c>
-      <c r="D166" t="s">
-        <v>701</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>683</v>
-      </c>
-      <c r="B167" t="s">
-        <v>683</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>686</v>
+      </c>
+      <c r="B169" t="s">
+        <v>686</v>
+      </c>
+      <c r="C169" t="s">
         <v>696</v>
       </c>
-      <c r="D167" t="s">
-        <v>690</v>
-      </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>684</v>
-      </c>
-      <c r="B168" t="s">
-        <v>696</v>
-      </c>
-      <c r="C168" t="s">
-        <v>77</v>
-      </c>
-      <c r="D168" t="s">
-        <v>698</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>685</v>
-      </c>
-      <c r="B169" t="s">
-        <v>685</v>
-      </c>
-      <c r="C169" t="s">
-        <v>694</v>
-      </c>
       <c r="G169" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B170" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C170" t="s">
         <v>696</v>
@@ -5492,141 +5492,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B171" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C171" t="s">
         <v>696</v>
       </c>
+      <c r="D171" t="s">
+        <v>682</v>
+      </c>
       <c r="G171" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B172" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C172" t="s">
+        <v>670</v>
+      </c>
+      <c r="G172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>690</v>
+      </c>
+      <c r="B173" t="s">
+        <v>690</v>
+      </c>
+      <c r="C173" t="s">
+        <v>683</v>
+      </c>
+      <c r="G173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>691</v>
+      </c>
+      <c r="B174" t="s">
+        <v>691</v>
+      </c>
+      <c r="C174" t="s">
+        <v>676</v>
+      </c>
+      <c r="G174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>692</v>
+      </c>
+      <c r="B175" t="s">
+        <v>692</v>
+      </c>
+      <c r="C175" t="s">
         <v>696</v>
       </c>
-      <c r="D172" t="s">
+      <c r="G175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>693</v>
+      </c>
+      <c r="B176" t="s">
+        <v>693</v>
+      </c>
+      <c r="C176" t="s">
+        <v>679</v>
+      </c>
+      <c r="G176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>694</v>
+      </c>
+      <c r="B177" t="s">
+        <v>694</v>
+      </c>
+      <c r="C177" t="s">
         <v>682</v>
       </c>
-      <c r="G172" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>689</v>
-      </c>
-      <c r="B173" t="s">
-        <v>689</v>
-      </c>
-      <c r="C173" t="s">
-        <v>670</v>
-      </c>
-      <c r="G173" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>690</v>
-      </c>
-      <c r="B174" t="s">
-        <v>690</v>
-      </c>
-      <c r="C174" t="s">
-        <v>683</v>
-      </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>691</v>
-      </c>
-      <c r="B175" t="s">
-        <v>691</v>
-      </c>
-      <c r="C175" t="s">
-        <v>676</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>692</v>
-      </c>
-      <c r="B176" t="s">
-        <v>692</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="D177" t="s">
+        <v>702</v>
+      </c>
+      <c r="G177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>695</v>
+      </c>
+      <c r="B178" t="s">
+        <v>695</v>
+      </c>
+      <c r="C178" t="s">
         <v>696</v>
       </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>693</v>
-      </c>
-      <c r="B177" t="s">
-        <v>693</v>
-      </c>
-      <c r="C177" t="s">
-        <v>679</v>
-      </c>
-      <c r="G177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>694</v>
-      </c>
-      <c r="B178" t="s">
-        <v>694</v>
-      </c>
-      <c r="C178" t="s">
-        <v>682</v>
-      </c>
-      <c r="D178" t="s">
-        <v>702</v>
-      </c>
       <c r="G178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>695</v>
-      </c>
-      <c r="B179" t="s">
-        <v>695</v>
-      </c>
-      <c r="C179" t="s">
-        <v>696</v>
-      </c>
-      <c r="G179" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G179">
+  <conditionalFormatting sqref="G2:G178">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
@@ -5648,16 +5634,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="28.1328125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5677,7 +5663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5691,7 +5677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5702,7 +5688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5719,7 +5705,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5733,7 +5719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>705</v>
       </c>
@@ -5747,7 +5733,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>706</v>
       </c>
@@ -5764,12 +5750,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>708</v>
       </c>
@@ -5780,7 +5766,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>709</v>
       </c>
@@ -5791,7 +5777,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>710</v>
       </c>
@@ -5805,12 +5791,12 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>712</v>
       </c>
@@ -5821,7 +5807,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>713</v>
       </c>
@@ -5832,7 +5818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>714</v>
       </c>
@@ -5849,12 +5835,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>716</v>
       </c>
@@ -5865,112 +5851,112 @@
         <v>740</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>738</v>
       </c>
@@ -5989,9 +5975,9 @@
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6011,7 +5997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6031,7 +6017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6045,7 +6031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6056,7 +6042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6070,7 +6056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6102,12 +6088,12 @@
       <selection activeCell="A180" sqref="A180:G400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6127,7 +6113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6147,7 +6133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -6158,7 +6144,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -6172,7 +6158,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -6186,7 +6172,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -6200,7 +6186,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -6214,7 +6200,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -6228,7 +6214,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -6239,7 +6225,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -6256,7 +6242,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -6273,7 +6259,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -6290,7 +6276,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -6301,7 +6287,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -6312,7 +6298,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -6329,7 +6315,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -6340,7 +6326,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -6357,7 +6343,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -6368,7 +6354,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -6379,7 +6365,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -6390,7 +6376,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -6404,7 +6390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -6415,7 +6401,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -6426,7 +6412,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -6437,7 +6423,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -6448,7 +6434,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -6459,7 +6445,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -6476,7 +6462,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -6493,7 +6479,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -6504,7 +6490,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -6521,7 +6507,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -6538,7 +6524,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -6555,7 +6541,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -6566,7 +6552,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -6583,7 +6569,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -6600,7 +6586,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -6611,7 +6597,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -6622,7 +6608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -6633,7 +6619,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -6650,7 +6636,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -6667,7 +6653,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -6678,7 +6664,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -6692,7 +6678,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -6706,7 +6692,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -6720,7 +6706,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -6731,7 +6717,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>190</v>
       </c>
@@ -6748,7 +6734,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -6759,7 +6745,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -6770,7 +6756,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>193</v>
       </c>
@@ -6784,7 +6770,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -6795,7 +6781,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -6806,7 +6792,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>196</v>
       </c>
@@ -6823,7 +6809,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -6840,7 +6826,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -6857,7 +6843,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -6874,7 +6860,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>200</v>
       </c>
@@ -6891,7 +6877,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>201</v>
       </c>
@@ -6908,7 +6894,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -6925,7 +6911,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -6939,7 +6925,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>204</v>
       </c>
@@ -6950,7 +6936,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>205</v>
       </c>
@@ -6967,7 +6953,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>206</v>
       </c>
@@ -6978,7 +6964,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -6989,7 +6975,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -7006,7 +6992,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -7017,7 +7003,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>210</v>
       </c>
@@ -7034,7 +7020,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>211</v>
       </c>
@@ -7051,7 +7037,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -7068,7 +7054,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -7085,7 +7071,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -7096,7 +7082,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -7107,7 +7093,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>216</v>
       </c>
@@ -7118,7 +7104,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -7129,7 +7115,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -7140,7 +7126,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -7151,7 +7137,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>220</v>
       </c>
@@ -7162,7 +7148,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>221</v>
       </c>
@@ -7173,7 +7159,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -7184,7 +7170,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>223</v>
       </c>
@@ -7195,7 +7181,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -7206,7 +7192,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -7223,7 +7209,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>226</v>
       </c>
@@ -7234,7 +7220,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>227</v>
       </c>
@@ -7245,7 +7231,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>228</v>
       </c>
@@ -7256,7 +7242,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>229</v>
       </c>
@@ -7267,7 +7253,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>230</v>
       </c>
@@ -7284,7 +7270,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>231</v>
       </c>
@@ -7295,7 +7281,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>232</v>
       </c>
@@ -7306,7 +7292,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -7317,7 +7303,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>234</v>
       </c>
@@ -7328,7 +7314,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>235</v>
       </c>
@@ -7339,7 +7325,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>236</v>
       </c>
@@ -7350,7 +7336,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>237</v>
       </c>
@@ -7367,7 +7353,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>238</v>
       </c>
@@ -7378,7 +7364,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>239</v>
       </c>
@@ -7395,7 +7381,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>240</v>
       </c>
@@ -7406,7 +7392,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>241</v>
       </c>
@@ -7417,7 +7403,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>242</v>
       </c>
@@ -7434,7 +7420,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>243</v>
       </c>
@@ -7445,7 +7431,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>244</v>
       </c>
@@ -7462,7 +7448,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>245</v>
       </c>
@@ -7479,7 +7465,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>246</v>
       </c>
@@ -7490,7 +7476,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>247</v>
       </c>
@@ -7501,7 +7487,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -7518,7 +7504,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>249</v>
       </c>
@@ -7529,7 +7515,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -7540,7 +7526,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -7551,7 +7537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>252</v>
       </c>
@@ -7562,7 +7548,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>253</v>
       </c>
@@ -7573,7 +7559,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>254</v>
       </c>
@@ -7584,7 +7570,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>255</v>
       </c>
@@ -7595,7 +7581,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>256</v>
       </c>
@@ -7612,7 +7598,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -7623,7 +7609,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>258</v>
       </c>
@@ -7634,7 +7620,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>259</v>
       </c>
@@ -7651,7 +7637,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>260</v>
       </c>
@@ -7662,7 +7648,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>261</v>
       </c>
@@ -7679,7 +7665,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>262</v>
       </c>
@@ -7690,7 +7676,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>263</v>
       </c>
@@ -7701,7 +7687,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>264</v>
       </c>
@@ -7712,7 +7698,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>265</v>
       </c>
@@ -7723,7 +7709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>266</v>
       </c>
@@ -7734,7 +7720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>267</v>
       </c>
@@ -7745,7 +7731,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>268</v>
       </c>
@@ -7756,7 +7742,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>269</v>
       </c>
@@ -7767,7 +7753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>270</v>
       </c>
@@ -7778,7 +7764,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>271</v>
       </c>
@@ -7789,7 +7775,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -7800,7 +7786,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>273</v>
       </c>
@@ -7811,7 +7797,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>274</v>
       </c>
@@ -7822,7 +7808,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>275</v>
       </c>
@@ -7833,7 +7819,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -7844,7 +7830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>277</v>
       </c>
@@ -7855,7 +7841,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>278</v>
       </c>
@@ -7866,7 +7852,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>279</v>
       </c>
@@ -7877,7 +7863,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -7888,7 +7874,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -7899,7 +7885,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -7910,7 +7896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>283</v>
       </c>
@@ -7921,7 +7907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -7935,7 +7921,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -7949,7 +7935,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>286</v>
       </c>
@@ -7960,7 +7946,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -7971,7 +7957,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>288</v>
       </c>
@@ -7982,7 +7968,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -7993,7 +7979,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -8004,7 +7990,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -8015,7 +8001,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -8026,7 +8012,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -8040,7 +8026,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>294</v>
       </c>
@@ -8051,7 +8037,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>295</v>
       </c>
@@ -8065,7 +8051,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>296</v>
       </c>
@@ -8079,7 +8065,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>297</v>
       </c>
@@ -8093,7 +8079,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -8104,7 +8090,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>299</v>
       </c>
@@ -8115,7 +8101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>300</v>
       </c>
@@ -8126,7 +8112,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>301</v>
       </c>
@@ -8137,7 +8123,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>302</v>
       </c>
@@ -8148,7 +8134,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>303</v>
       </c>
@@ -8162,7 +8148,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>304</v>
       </c>
@@ -8176,7 +8162,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>305</v>
       </c>
@@ -8190,7 +8176,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>306</v>
       </c>
@@ -8204,7 +8190,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>307</v>
       </c>
@@ -8218,7 +8204,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -8232,7 +8218,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>309</v>
       </c>
@@ -8246,7 +8232,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>310</v>
       </c>
@@ -8260,7 +8246,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>311</v>
       </c>
@@ -8274,7 +8260,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>312</v>
       </c>
@@ -8288,7 +8274,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>313</v>
       </c>
@@ -8302,7 +8288,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>314</v>
       </c>
@@ -8313,7 +8299,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>315</v>
       </c>
@@ -8327,7 +8313,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>316</v>
       </c>
@@ -8341,7 +8327,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>317</v>
       </c>
@@ -8358,7 +8344,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>318</v>
       </c>
@@ -8372,7 +8358,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>319</v>
       </c>
@@ -8386,7 +8372,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>320</v>
       </c>
@@ -8403,7 +8389,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>321</v>
       </c>
@@ -8414,7 +8400,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>322</v>
       </c>
@@ -8425,7 +8411,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>323</v>
       </c>
@@ -8439,7 +8425,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>402</v>
       </c>
@@ -8453,7 +8439,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>403</v>
       </c>
@@ -8467,7 +8453,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -8478,7 +8464,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>405</v>
       </c>
@@ -8492,7 +8478,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>406</v>
       </c>
@@ -8506,7 +8492,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>407</v>
       </c>
@@ -8520,7 +8506,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>408</v>
       </c>
@@ -8534,7 +8520,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>409</v>
       </c>
@@ -8548,7 +8534,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>410</v>
       </c>
@@ -8562,7 +8548,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
   